--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF7571B-1C82-424B-9D81-D5F7A610477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C05C8C-9147-424D-8DA4-28B690EE0D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Test Name</t>
   </si>
@@ -147,6 +147,51 @@
   <si>
     <t>GATE MOCK TEST 4 (GATE 2022)</t>
   </si>
+  <si>
+    <t>FULL SYLLABUS DEMO TEST</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>FULL SYLLABUS TEST-1 (BASIC LEVEL) (GATE - 2023)</t>
+  </si>
+  <si>
+    <t>FULL SYLLABUS TEST-2 (BASIC LEVEL) (GATE 2023)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>FULL SYLLABUS TEST-3 (BASIC LEVEL) (GATE 2023)</t>
+  </si>
+  <si>
+    <t>FULL SYLLABUS TEST-4 (BASIC LEVEL) (GATE 2023)</t>
+  </si>
+  <si>
+    <t>FULL SYLLABUS TEST-5 (ADVANCE LEVEL) (GATE 2023)</t>
+  </si>
+  <si>
+    <t>FULL SYLLABUS TEST-6 (ADVANCE LEVEL) (GATE 2023)</t>
+  </si>
+  <si>
+    <t>FULL SYLLABUS TEST-7 (ADVANCE LEVEL) (GATE 2023)</t>
+  </si>
+  <si>
+    <t>FULL SYLLABUS TEST-8 (ADVANCE LEVEL) (GATE 2023)</t>
+  </si>
+  <si>
+    <t>GATE MOCK TEST 1 (GATE 2023)</t>
+  </si>
+  <si>
+    <t>GATE MOCK TEST 2 (GATE 2023)</t>
+  </si>
+  <si>
+    <t>GATE MOCK TEST 3 (GATE 2023)</t>
+  </si>
+  <si>
+    <t>GATE MOCK TEST 4 (GATE 2023)</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +275,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -254,17 +317,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -273,32 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,9 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,22 +585,273 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -583,10 +1062,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$23</c:f>
+              <c:f>Sheet1!$L$2:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>35.71</c:v>
                 </c:pt>
@@ -646,6 +1125,15 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.04</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,10 +1523,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$23</c:f>
+              <c:f>Sheet1!$O$2:$O$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>65.849999999999994</c:v>
                 </c:pt>
@@ -1086,6 +1574,15 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>76.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75.44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,13 +2863,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2402,13 +2899,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2734,1242 +3231,1649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="41"/>
-    <col min="11" max="11" width="12.6640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="7"/>
-    <col min="13" max="13" width="17.77734375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="10"/>
-    <col min="15" max="15" width="10.5546875" style="11" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="8"/>
+    <col min="6" max="6" width="8" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="30"/>
+    <col min="11" max="11" width="12.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="6"/>
+    <col min="13" max="13" width="17.77734375" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="9"/>
+    <col min="15" max="15" width="10.5546875" style="10" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="13" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65">
         <v>1</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="22">
+      <c r="D2" s="66"/>
+      <c r="E2" s="67">
         <v>41</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="67">
         <v>27</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="67">
         <v>14</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="67">
         <v>24</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="67">
         <v>40</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="67">
         <v>-4.29</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="67">
         <v>39</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="67">
         <v>35.71</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="67">
         <v>39.869999999999997</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="67">
         <v>86.34</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="67">
         <v>65.849999999999994</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="67">
         <v>157</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="Q2" s="68">
         <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="22">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72">
         <v>40</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="72">
         <v>27</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="72">
         <v>13</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="72">
         <v>25</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="72">
         <v>41</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="72">
         <v>-3.3</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="72">
         <v>41</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="72">
         <v>37.700000000000003</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="72">
         <v>39.18</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="72">
         <v>84.69</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="72">
         <v>67.5</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="72">
         <v>114</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="73">
         <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70">
         <v>3</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="22">
+      <c r="D4" s="71"/>
+      <c r="E4" s="72">
         <v>51</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="72">
         <v>33</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="72">
         <v>18</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="72">
         <v>14</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="72">
         <v>52</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="72">
         <v>-4.62</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="72">
         <v>24</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="72">
         <v>47.38</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="72">
         <v>33.14</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="72">
         <v>81.7</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="72">
         <v>64.709999999999994</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="72">
         <v>285</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="73">
         <v>1233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70">
         <v>4</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="22">
+      <c r="D5" s="71"/>
+      <c r="E5" s="72">
         <v>51</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="72">
         <v>15</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="72">
         <v>14</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="72">
         <v>54</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="72">
         <v>-3.67</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26">
+      <c r="K5" s="72"/>
+      <c r="L5" s="72">
         <v>52.33</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="73"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70">
         <v>5</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="22">
+      <c r="D6" s="71"/>
+      <c r="E6" s="72">
         <v>47</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="72">
         <v>35</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="72">
         <v>12</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="72">
         <v>18</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="72">
         <v>51</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="72">
         <v>-1.65</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="72">
         <v>33</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="72">
         <v>49.35</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="72">
         <v>39.799999999999997</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="72">
         <v>87.36</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="72">
         <v>74.47</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="72">
         <v>290</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="73">
         <v>913</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4">
+      <c r="A7" s="69"/>
+      <c r="B7" s="70">
         <v>6</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="22">
+      <c r="D7" s="71"/>
+      <c r="E7" s="72">
         <v>51</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="72">
         <v>35</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="72">
         <v>16</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="72">
         <v>14</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="72">
         <v>51</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="72">
         <v>-3.3</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="72">
         <v>24</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="72">
         <v>47.7</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="72">
         <v>37.15</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="72">
         <v>79.67</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="72">
         <v>68.63</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="72">
         <v>186</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="73">
         <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70">
         <v>7</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="22">
+      <c r="D8" s="71"/>
+      <c r="E8" s="72">
         <v>52</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="72">
         <v>38</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="72">
         <v>14</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="72">
         <v>13</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="72">
         <v>56</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="72">
         <v>-4.29</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="72">
         <v>23</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="72">
         <v>51.71</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="72">
         <v>44.06</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="72">
         <v>88.02</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="72">
         <v>73.08</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="72">
         <v>207</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="73">
         <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
+      <c r="A9" s="69"/>
+      <c r="B9" s="70">
         <v>8</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="22">
+      <c r="D9" s="71"/>
+      <c r="E9" s="72">
         <v>55</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="72">
         <v>34</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="72">
         <v>21</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="72">
         <v>10</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="72">
         <v>48</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="72">
         <v>-1.98</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="72">
         <v>18</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="72">
         <v>46.02</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="72">
         <v>39.200000000000003</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="72">
         <v>81.680000000000007</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="72">
         <v>61.82</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="72">
         <v>82</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="73">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70">
         <v>9</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="22">
+      <c r="D10" s="71"/>
+      <c r="E10" s="72">
         <v>58</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="72">
         <v>45</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="72">
         <v>13</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="72">
         <v>7</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="72">
         <v>65</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="72">
         <v>-5.28</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="72">
         <v>12</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="72">
         <v>59.72</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="72">
         <v>42.88</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="72">
         <v>86.02</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="72">
         <v>77.59</v>
       </c>
-      <c r="P10" s="29">
+      <c r="P10" s="72">
         <v>43</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="73">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
+      <c r="A11" s="69"/>
+      <c r="B11" s="70">
         <v>10</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="22">
+      <c r="D11" s="71"/>
+      <c r="E11" s="72">
         <v>60</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="72">
         <v>42</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="72">
         <v>18</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="72">
         <v>5</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="72">
         <v>62</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="72">
         <v>-4.62</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="72">
         <v>9</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="72">
         <v>57.38</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="72">
         <v>43.61</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="72">
         <v>83.02</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="72">
         <v>70</v>
       </c>
-      <c r="P11" s="29">
+      <c r="P11" s="72">
         <v>171</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="73">
         <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
+      <c r="A12" s="69"/>
+      <c r="B12" s="70">
         <v>11</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="22">
+      <c r="D12" s="71"/>
+      <c r="E12" s="72">
         <v>56</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="72">
         <v>42</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="72">
         <v>14</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="72">
         <v>9</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="72">
         <v>62</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="72">
         <v>-2.31</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="72">
         <v>17</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="72">
         <v>59.69</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="72">
         <v>50.53</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="72">
         <v>90</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="72">
         <v>75</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="72">
         <v>218</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="73">
         <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70">
         <v>12</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="22">
+      <c r="D13" s="71"/>
+      <c r="E13" s="72">
         <v>56</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="72">
         <v>45</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="72">
         <v>11</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="72">
         <v>9</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="72">
         <v>68</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="72">
         <v>-3.3</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="72">
         <v>15</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="72">
         <v>64.7</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="72">
         <v>52.6</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="72">
         <v>89.34</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="72">
         <v>80.36</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="72">
         <v>141</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="73">
         <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70">
         <v>13</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="22">
+      <c r="D14" s="71"/>
+      <c r="E14" s="72">
         <v>56</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="72">
         <v>43</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="72">
         <v>13</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="72">
         <v>9</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="72">
         <v>63</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="72">
         <v>-2.64</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="72">
         <v>15</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="72">
         <v>60.36</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="72">
         <v>46.4</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="72">
         <v>84.35</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="72">
         <v>76.790000000000006</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="72">
         <v>114</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="73">
         <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70">
         <v>14</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="22">
+      <c r="D15" s="71"/>
+      <c r="E15" s="72">
         <v>50</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="72">
         <v>40</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="72">
         <v>10</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="72">
         <v>15</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="72">
         <v>65</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="72">
         <v>-3</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26">
+      <c r="K15" s="72"/>
+      <c r="L15" s="72">
         <v>62</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="72">
         <v>40.450000000000003</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="72">
         <v>78.81</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="29">
+      <c r="O15" s="72"/>
+      <c r="P15" s="72">
         <v>139</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="73">
         <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70">
         <v>15</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="22">
+      <c r="D16" s="71"/>
+      <c r="E16" s="72">
         <v>56</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="72">
         <v>50</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="72">
         <v>6</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="72">
         <v>9</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="72">
         <v>71</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="72">
         <v>-1.33</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26">
+      <c r="K16" s="72"/>
+      <c r="L16" s="72">
         <v>69.66</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="72">
         <v>47.81</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="72">
         <v>83.09</v>
       </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29">
+      <c r="O16" s="72"/>
+      <c r="P16" s="72">
         <v>170</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="73">
         <v>100000</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70">
         <v>16</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="22">
+      <c r="D17" s="71"/>
+      <c r="E17" s="72">
         <v>53</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="72">
         <v>43</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="72">
         <v>10</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="72">
         <v>12</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="72">
         <v>64</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="72">
         <v>-1.67</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26">
+      <c r="K17" s="72"/>
+      <c r="L17" s="72">
         <v>62.33</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="72">
         <v>43.84</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="72">
         <v>82.46</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29">
+      <c r="O17" s="72"/>
+      <c r="P17" s="72">
         <v>201</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="73">
         <v>150000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70">
         <v>17</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="22">
+      <c r="D18" s="71"/>
+      <c r="E18" s="72">
         <v>58</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="72">
         <v>41</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="72">
         <v>17</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="72">
         <v>7</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="72">
         <v>62</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="72">
         <v>-2.97</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="72">
         <v>13</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="72">
         <v>59.03</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="72">
         <v>48.22</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="72">
         <v>88.68</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="72">
         <v>70.69</v>
       </c>
-      <c r="P18" s="29">
+      <c r="P18" s="72">
         <v>397</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="73">
         <v>1335</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70">
         <v>18</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="22">
+      <c r="D19" s="71"/>
+      <c r="E19" s="72">
         <v>60</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="72">
         <v>51</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="72">
         <v>9</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="72">
         <v>5</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="72">
         <v>79</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="72">
         <v>-1.32</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="72">
         <v>8</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="72">
         <v>77.680000000000007</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="72">
         <v>49.92</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="72">
         <v>86.68</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="72">
         <v>85</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="72">
         <v>31</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="Q19" s="73">
         <v>1315</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
+      <c r="B20" s="70">
         <v>19</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="22">
+      <c r="D20" s="71"/>
+      <c r="E20" s="72">
         <v>59</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="72">
         <v>44</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="72">
         <v>15</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="72">
         <v>6</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="72">
         <v>67</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="72">
         <v>-2.64</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="72">
         <v>11</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="72">
         <v>64.36</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="72">
         <v>46.71</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="72">
         <v>83</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="72">
         <v>74.58</v>
       </c>
-      <c r="P20" s="29">
+      <c r="P20" s="72">
         <v>137</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q20" s="73">
         <v>865</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4">
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="74"/>
+      <c r="B21" s="75">
         <v>20</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="22">
+      <c r="D21" s="76"/>
+      <c r="E21" s="77">
         <v>56</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="77">
         <v>43</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="77">
         <v>13</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="77">
         <v>9</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="77">
         <v>64</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="77">
         <v>-3.3</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="77">
         <v>15</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="77">
         <v>60.7</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="77">
         <v>41.19</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="77">
         <v>82.02</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O21" s="77">
         <v>76.790000000000006</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21" s="77">
         <v>120</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="78">
         <v>826</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="52">
+        <v>44808</v>
+      </c>
+      <c r="B22" s="53">
         <v>21</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="C22" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="54">
+        <v>57</v>
+      </c>
+      <c r="F22" s="55">
+        <v>43</v>
+      </c>
+      <c r="G22" s="56">
+        <v>14</v>
+      </c>
+      <c r="H22" s="57">
+        <v>8</v>
+      </c>
+      <c r="I22" s="58">
+        <v>64</v>
+      </c>
+      <c r="J22" s="59">
+        <v>-3.96</v>
+      </c>
+      <c r="K22" s="60">
+        <v>15</v>
+      </c>
+      <c r="L22" s="61">
+        <v>60.04</v>
+      </c>
+      <c r="M22" s="62">
+        <v>9.25</v>
+      </c>
+      <c r="N22" s="62">
+        <v>76.36</v>
+      </c>
+      <c r="O22" s="63">
+        <v>75.44</v>
+      </c>
+      <c r="P22" s="58">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="58">
+        <v>385</v>
+      </c>
+      <c r="R22" s="31">
+        <f t="shared" ref="R22:R30" si="0" xml:space="preserve"> (Q22-P22+1)/(Q22)*100</f>
+        <v>98.701298701298697</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="36">
+        <v>44816</v>
+      </c>
+      <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="C23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="12">
+        <v>58</v>
+      </c>
+      <c r="F23" s="13">
+        <v>44</v>
+      </c>
+      <c r="G23" s="14">
+        <v>14</v>
+      </c>
+      <c r="H23" s="39">
+        <v>7</v>
+      </c>
+      <c r="I23" s="19">
+        <v>66</v>
+      </c>
+      <c r="J23" s="28">
+        <v>-1.65</v>
+      </c>
+      <c r="K23" s="40">
+        <v>14</v>
+      </c>
+      <c r="L23" s="16">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="M23" s="17">
+        <v>30.77</v>
+      </c>
+      <c r="N23" s="17">
+        <v>73.34</v>
+      </c>
+      <c r="O23" s="18">
+        <v>75.86</v>
+      </c>
+      <c r="P23" s="19">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>42</v>
+      </c>
+      <c r="R23" s="31">
+        <f t="shared" si="0"/>
+        <v>90.476190476190482</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
+        <v>44822</v>
+      </c>
+      <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="12">
+        <v>64</v>
+      </c>
+      <c r="F24" s="13">
+        <v>46</v>
+      </c>
+      <c r="G24" s="14">
+        <v>18</v>
+      </c>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
+      <c r="I24" s="19">
+        <v>71</v>
+      </c>
+      <c r="J24" s="28">
+        <v>-2.97</v>
+      </c>
+      <c r="K24" s="40">
+        <v>2</v>
+      </c>
+      <c r="L24" s="16">
+        <v>68.03</v>
+      </c>
+      <c r="M24" s="17">
+        <v>26.27</v>
+      </c>
+      <c r="N24" s="17">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="O24" s="18">
+        <v>71.88</v>
+      </c>
+      <c r="P24" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>11</v>
+      </c>
+      <c r="R24" s="31">
+        <f t="shared" si="0"/>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="S24" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="31"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="38"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="31"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" s="31"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="38"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" s="31"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" s="31"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="31" t="e">
+        <f xml:space="preserve"> (P31-O31+1)/(P31)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="31" t="e">
+        <f xml:space="preserve"> (P32-O32+1)/(P32)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="31" t="e">
+        <f xml:space="preserve"> (P33-O33+1)/(P33)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="31" t="e">
+        <f xml:space="preserve"> (P34-O34+1)/(P34)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="22">
-        <f t="shared" ref="E24:K24" si="0">AVERAGE(E2:E23)</f>
-        <v>53.3</v>
-      </c>
-      <c r="F24" s="23">
-        <f t="shared" si="0"/>
-        <v>39.89473684210526</v>
-      </c>
-      <c r="G24" s="24">
-        <f t="shared" si="0"/>
-        <v>13.6</v>
-      </c>
-      <c r="H24" s="25">
-        <f t="shared" si="0"/>
-        <v>11.7</v>
-      </c>
-      <c r="I24" s="29">
-        <f t="shared" si="0"/>
-        <v>59.25</v>
-      </c>
-      <c r="J24" s="39">
-        <f t="shared" si="0"/>
-        <v>-3.0739999999999998</v>
-      </c>
-      <c r="K24" s="25">
-        <f t="shared" si="0"/>
-        <v>19.8125</v>
-      </c>
-      <c r="L24" s="26">
-        <f>AVERAGE(L2:L22)</f>
-        <v>56.275500000000001</v>
-      </c>
-      <c r="M24" s="27">
-        <f>AVERAGE(M2:M23)</f>
-        <v>43.503157894736852</v>
-      </c>
-      <c r="N24" s="27">
-        <f>AVERAGE(N2:N23)</f>
-        <v>84.575263157894739</v>
-      </c>
-      <c r="O24" s="28">
-        <f>AVERAGE(O2:O23)</f>
-        <v>72.678749999999994</v>
-      </c>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="12">
+        <f>AVERAGE(E2:E34)</f>
+        <v>54.130434782608695</v>
+      </c>
+      <c r="F35" s="13">
+        <f>AVERAGE(F2:F34)</f>
+        <v>40.5</v>
+      </c>
+      <c r="G35" s="14">
+        <f>AVERAGE(G2:G34)</f>
+        <v>13.826086956521738</v>
+      </c>
+      <c r="H35" s="15">
+        <f>AVERAGE(H2:H34)</f>
+        <v>10.869565217391305</v>
+      </c>
+      <c r="I35" s="19">
+        <f>AVERAGE(I2:I34)</f>
+        <v>60.260869565217391</v>
+      </c>
+      <c r="J35" s="28">
+        <f>AVERAGE(J2:J34)</f>
+        <v>-3.0460869565217394</v>
+      </c>
+      <c r="K35" s="15">
+        <f>AVERAGE(K2:K34)</f>
+        <v>18.315789473684209</v>
+      </c>
+      <c r="L35" s="16">
+        <f>AVERAGE(L2:L34)</f>
+        <v>57.301304347826083</v>
+      </c>
+      <c r="M35" s="17">
+        <f>AVERAGE(M2:M34)</f>
+        <v>40.584090909090918</v>
+      </c>
+      <c r="N35" s="17">
+        <f>AVERAGE(N2:N34)</f>
+        <v>83.180909090909083</v>
+      </c>
+      <c r="O35" s="18">
+        <f>AVERAGE(O2:O34)</f>
+        <v>72.949473684210531</v>
+      </c>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
-        <v>24</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
-        <v>25</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C24:D24"/>
+  <mergeCells count="35">
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -3984,9 +4888,181 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2:L23">
+  <conditionalFormatting sqref="M2:M14">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:M30">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:L30">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22:O30">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I30">
+    <cfRule type="dataBar" priority="32">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9EF3CC5B-331B-4BCE-857E-175AE3327E90}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J30">
+    <cfRule type="iconSet" priority="32">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F30">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="34" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:N30">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22:R30">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThan">
+      <formula>79.27673274</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="24" operator="greaterThan">
+      <formula>79.27673274</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="12" priority="26" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22:R30">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22:R30">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="between">
+      <formula>1</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22:T30">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22:P30">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="between">
+      <formula>1</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22:S30">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22:S30">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31:L34">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3998,8 +5074,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O23">
-    <cfRule type="iconSet" priority="8">
+  <conditionalFormatting sqref="O31:O34">
+    <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -4007,8 +5083,143 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I23">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="I31:I34">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C961B77-F7AC-473E-A0E7-99E2D3513BB3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:J34">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F34">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31:N34">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M31:M34">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31:R34">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+      <formula>79.27673274</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>79.27673274</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="top10" dxfId="3" priority="7" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31:R34">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31:R34">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>1</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1000"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T31:T34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L21">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O21">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I21">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4021,8 +5232,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J23">
-    <cfRule type="iconSet" priority="6">
+  <conditionalFormatting sqref="J2:J21">
+    <cfRule type="iconSet" priority="48">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -4030,11 +5241,23 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F23">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>$F$24</formula>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="greaterThan">
+      <formula>$F$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N21">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4045,32 +5268,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N23">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M14">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M23">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="M2:M21">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4088,6 +5287,28 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9EF3CC5B-331B-4BCE-857E-175AE3327E90}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I22:I30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C961B77-F7AC-473E-A0E7-99E2D3513BB3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I31:I34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ED18865B-B343-4750-8437-A6376E4FD07F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -4096,7 +5317,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I23</xm:sqref>
+          <xm:sqref>I2:I21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C05C8C-9147-424D-8DA4-28B690EE0D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8E2F4C-6517-43E0-ADEA-C6A755C03DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -588,23 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,9 +596,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,9 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,9 +668,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -701,10 +676,35 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3233,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3257,1060 +3257,1060 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="11" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="O1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58">
         <v>1</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67">
+      <c r="D2" s="75"/>
+      <c r="E2" s="59">
         <v>41</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="59">
         <v>27</v>
       </c>
-      <c r="G2" s="67">
+      <c r="G2" s="59">
         <v>14</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="59">
         <v>24</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="59">
         <v>40</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="59">
         <v>-4.29</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="59">
         <v>39</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="59">
         <v>35.71</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="59">
         <v>39.869999999999997</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="59">
         <v>86.34</v>
       </c>
-      <c r="O2" s="67">
+      <c r="O2" s="59">
         <v>65.849999999999994</v>
       </c>
-      <c r="P2" s="67">
+      <c r="P2" s="59">
         <v>157</v>
       </c>
-      <c r="Q2" s="68">
+      <c r="Q2" s="60">
         <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70">
+      <c r="A3" s="61"/>
+      <c r="B3" s="62">
         <v>2</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72">
+      <c r="D3" s="73"/>
+      <c r="E3" s="63">
         <v>40</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="63">
         <v>27</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="63">
         <v>13</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="63">
         <v>25</v>
       </c>
-      <c r="I3" s="72">
+      <c r="I3" s="63">
         <v>41</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="63">
         <v>-3.3</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="63">
         <v>41</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="63">
         <v>37.700000000000003</v>
       </c>
-      <c r="M3" s="72">
+      <c r="M3" s="63">
         <v>39.18</v>
       </c>
-      <c r="N3" s="72">
+      <c r="N3" s="63">
         <v>84.69</v>
       </c>
-      <c r="O3" s="72">
+      <c r="O3" s="63">
         <v>67.5</v>
       </c>
-      <c r="P3" s="72">
+      <c r="P3" s="63">
         <v>114</v>
       </c>
-      <c r="Q3" s="73">
+      <c r="Q3" s="64">
         <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62">
         <v>3</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72">
+      <c r="D4" s="73"/>
+      <c r="E4" s="63">
         <v>51</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="63">
         <v>33</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="63">
         <v>18</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="63">
         <v>14</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="63">
         <v>52</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="63">
         <v>-4.62</v>
       </c>
-      <c r="K4" s="72">
+      <c r="K4" s="63">
         <v>24</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="63">
         <v>47.38</v>
       </c>
-      <c r="M4" s="72">
+      <c r="M4" s="63">
         <v>33.14</v>
       </c>
-      <c r="N4" s="72">
+      <c r="N4" s="63">
         <v>81.7</v>
       </c>
-      <c r="O4" s="72">
+      <c r="O4" s="63">
         <v>64.709999999999994</v>
       </c>
-      <c r="P4" s="72">
+      <c r="P4" s="63">
         <v>285</v>
       </c>
-      <c r="Q4" s="73">
+      <c r="Q4" s="64">
         <v>1233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62">
         <v>4</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72">
+      <c r="D5" s="73"/>
+      <c r="E5" s="63">
         <v>51</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="63">
         <v>15</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="63">
         <v>14</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="63">
         <v>54</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="63">
         <v>-3.67</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72">
+      <c r="K5" s="63"/>
+      <c r="L5" s="63">
         <v>52.33</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="73"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70">
+      <c r="A6" s="61"/>
+      <c r="B6" s="62">
         <v>5</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72">
+      <c r="D6" s="73"/>
+      <c r="E6" s="63">
         <v>47</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="63">
         <v>35</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="63">
         <v>12</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="63">
         <v>18</v>
       </c>
-      <c r="I6" s="72">
+      <c r="I6" s="63">
         <v>51</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="63">
         <v>-1.65</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="63">
         <v>33</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="63">
         <v>49.35</v>
       </c>
-      <c r="M6" s="72">
+      <c r="M6" s="63">
         <v>39.799999999999997</v>
       </c>
-      <c r="N6" s="72">
+      <c r="N6" s="63">
         <v>87.36</v>
       </c>
-      <c r="O6" s="72">
+      <c r="O6" s="63">
         <v>74.47</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="63">
         <v>290</v>
       </c>
-      <c r="Q6" s="73">
+      <c r="Q6" s="64">
         <v>913</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62">
         <v>6</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72">
+      <c r="D7" s="73"/>
+      <c r="E7" s="63">
         <v>51</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="63">
         <v>35</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="63">
         <v>16</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="63">
         <v>14</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="63">
         <v>51</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="63">
         <v>-3.3</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="63">
         <v>24</v>
       </c>
-      <c r="L7" s="72">
+      <c r="L7" s="63">
         <v>47.7</v>
       </c>
-      <c r="M7" s="72">
+      <c r="M7" s="63">
         <v>37.15</v>
       </c>
-      <c r="N7" s="72">
+      <c r="N7" s="63">
         <v>79.67</v>
       </c>
-      <c r="O7" s="72">
+      <c r="O7" s="63">
         <v>68.63</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="63">
         <v>186</v>
       </c>
-      <c r="Q7" s="73">
+      <c r="Q7" s="64">
         <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70">
+      <c r="A8" s="61"/>
+      <c r="B8" s="62">
         <v>7</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72">
+      <c r="D8" s="73"/>
+      <c r="E8" s="63">
         <v>52</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="63">
         <v>38</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="63">
         <v>14</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="63">
         <v>13</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="63">
         <v>56</v>
       </c>
-      <c r="J8" s="72">
+      <c r="J8" s="63">
         <v>-4.29</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="63">
         <v>23</v>
       </c>
-      <c r="L8" s="72">
+      <c r="L8" s="63">
         <v>51.71</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="63">
         <v>44.06</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="63">
         <v>88.02</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="63">
         <v>73.08</v>
       </c>
-      <c r="P8" s="72">
+      <c r="P8" s="63">
         <v>207</v>
       </c>
-      <c r="Q8" s="73">
+      <c r="Q8" s="64">
         <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62">
         <v>8</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72">
+      <c r="D9" s="73"/>
+      <c r="E9" s="63">
         <v>55</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="63">
         <v>34</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="63">
         <v>21</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="63">
         <v>10</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="63">
         <v>48</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="63">
         <v>-1.98</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="63">
         <v>18</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="63">
         <v>46.02</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="63">
         <v>39.200000000000003</v>
       </c>
-      <c r="N9" s="72">
+      <c r="N9" s="63">
         <v>81.680000000000007</v>
       </c>
-      <c r="O9" s="72">
+      <c r="O9" s="63">
         <v>61.82</v>
       </c>
-      <c r="P9" s="72">
+      <c r="P9" s="63">
         <v>82</v>
       </c>
-      <c r="Q9" s="73">
+      <c r="Q9" s="64">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70">
+      <c r="A10" s="61"/>
+      <c r="B10" s="62">
         <v>9</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72">
+      <c r="D10" s="73"/>
+      <c r="E10" s="63">
         <v>58</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="63">
         <v>45</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="63">
         <v>13</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="63">
         <v>7</v>
       </c>
-      <c r="I10" s="72">
+      <c r="I10" s="63">
         <v>65</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="63">
         <v>-5.28</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="63">
         <v>12</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="63">
         <v>59.72</v>
       </c>
-      <c r="M10" s="72">
+      <c r="M10" s="63">
         <v>42.88</v>
       </c>
-      <c r="N10" s="72">
+      <c r="N10" s="63">
         <v>86.02</v>
       </c>
-      <c r="O10" s="72">
+      <c r="O10" s="63">
         <v>77.59</v>
       </c>
-      <c r="P10" s="72">
+      <c r="P10" s="63">
         <v>43</v>
       </c>
-      <c r="Q10" s="73">
+      <c r="Q10" s="64">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70">
+      <c r="A11" s="61"/>
+      <c r="B11" s="62">
         <v>10</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72">
+      <c r="D11" s="73"/>
+      <c r="E11" s="63">
         <v>60</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="63">
         <v>42</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="63">
         <v>18</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="63">
         <v>5</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="63">
         <v>62</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="63">
         <v>-4.62</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="63">
         <v>9</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="63">
         <v>57.38</v>
       </c>
-      <c r="M11" s="72">
+      <c r="M11" s="63">
         <v>43.61</v>
       </c>
-      <c r="N11" s="72">
+      <c r="N11" s="63">
         <v>83.02</v>
       </c>
-      <c r="O11" s="72">
+      <c r="O11" s="63">
         <v>70</v>
       </c>
-      <c r="P11" s="72">
+      <c r="P11" s="63">
         <v>171</v>
       </c>
-      <c r="Q11" s="73">
+      <c r="Q11" s="64">
         <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70">
+      <c r="A12" s="61"/>
+      <c r="B12" s="62">
         <v>11</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72">
+      <c r="D12" s="73"/>
+      <c r="E12" s="63">
         <v>56</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="63">
         <v>42</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="63">
         <v>14</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="63">
         <v>9</v>
       </c>
-      <c r="I12" s="72">
+      <c r="I12" s="63">
         <v>62</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="63">
         <v>-2.31</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="63">
         <v>17</v>
       </c>
-      <c r="L12" s="72">
+      <c r="L12" s="63">
         <v>59.69</v>
       </c>
-      <c r="M12" s="72">
+      <c r="M12" s="63">
         <v>50.53</v>
       </c>
-      <c r="N12" s="72">
+      <c r="N12" s="63">
         <v>90</v>
       </c>
-      <c r="O12" s="72">
+      <c r="O12" s="63">
         <v>75</v>
       </c>
-      <c r="P12" s="72">
+      <c r="P12" s="63">
         <v>218</v>
       </c>
-      <c r="Q12" s="73">
+      <c r="Q12" s="64">
         <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70">
+      <c r="A13" s="61"/>
+      <c r="B13" s="62">
         <v>12</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72">
+      <c r="D13" s="73"/>
+      <c r="E13" s="63">
         <v>56</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="63">
         <v>45</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="63">
         <v>11</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="63">
         <v>9</v>
       </c>
-      <c r="I13" s="72">
+      <c r="I13" s="63">
         <v>68</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="63">
         <v>-3.3</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="63">
         <v>15</v>
       </c>
-      <c r="L13" s="72">
+      <c r="L13" s="63">
         <v>64.7</v>
       </c>
-      <c r="M13" s="72">
+      <c r="M13" s="63">
         <v>52.6</v>
       </c>
-      <c r="N13" s="72">
+      <c r="N13" s="63">
         <v>89.34</v>
       </c>
-      <c r="O13" s="72">
+      <c r="O13" s="63">
         <v>80.36</v>
       </c>
-      <c r="P13" s="72">
+      <c r="P13" s="63">
         <v>141</v>
       </c>
-      <c r="Q13" s="73">
+      <c r="Q13" s="64">
         <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62">
         <v>13</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72">
+      <c r="D14" s="73"/>
+      <c r="E14" s="63">
         <v>56</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="63">
         <v>43</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="63">
         <v>13</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="63">
         <v>9</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="63">
         <v>63</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="63">
         <v>-2.64</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="63">
         <v>15</v>
       </c>
-      <c r="L14" s="72">
+      <c r="L14" s="63">
         <v>60.36</v>
       </c>
-      <c r="M14" s="72">
+      <c r="M14" s="63">
         <v>46.4</v>
       </c>
-      <c r="N14" s="72">
+      <c r="N14" s="63">
         <v>84.35</v>
       </c>
-      <c r="O14" s="72">
+      <c r="O14" s="63">
         <v>76.790000000000006</v>
       </c>
-      <c r="P14" s="72">
+      <c r="P14" s="63">
         <v>114</v>
       </c>
-      <c r="Q14" s="73">
+      <c r="Q14" s="64">
         <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62">
         <v>14</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72">
+      <c r="D15" s="73"/>
+      <c r="E15" s="63">
         <v>50</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="63">
         <v>40</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="63">
         <v>10</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="63">
         <v>15</v>
       </c>
-      <c r="I15" s="72">
+      <c r="I15" s="63">
         <v>65</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="63">
         <v>-3</v>
       </c>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72">
+      <c r="K15" s="63"/>
+      <c r="L15" s="63">
         <v>62</v>
       </c>
-      <c r="M15" s="72">
+      <c r="M15" s="63">
         <v>40.450000000000003</v>
       </c>
-      <c r="N15" s="72">
+      <c r="N15" s="63">
         <v>78.81</v>
       </c>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72">
+      <c r="O15" s="63"/>
+      <c r="P15" s="63">
         <v>139</v>
       </c>
-      <c r="Q15" s="73">
+      <c r="Q15" s="64">
         <v>100000</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70">
+      <c r="A16" s="61"/>
+      <c r="B16" s="62">
         <v>15</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72">
+      <c r="D16" s="73"/>
+      <c r="E16" s="63">
         <v>56</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="63">
         <v>50</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="63">
         <v>6</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="63">
         <v>9</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="63">
         <v>71</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="63">
         <v>-1.33</v>
       </c>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72">
+      <c r="K16" s="63"/>
+      <c r="L16" s="63">
         <v>69.66</v>
       </c>
-      <c r="M16" s="72">
+      <c r="M16" s="63">
         <v>47.81</v>
       </c>
-      <c r="N16" s="72">
+      <c r="N16" s="63">
         <v>83.09</v>
       </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72">
+      <c r="O16" s="63"/>
+      <c r="P16" s="63">
         <v>170</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="Q16" s="64">
         <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62">
         <v>16</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72">
+      <c r="D17" s="73"/>
+      <c r="E17" s="63">
         <v>53</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="63">
         <v>43</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="63">
         <v>10</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="63">
         <v>12</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="63">
         <v>64</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="63">
         <v>-1.67</v>
       </c>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72">
+      <c r="K17" s="63"/>
+      <c r="L17" s="63">
         <v>62.33</v>
       </c>
-      <c r="M17" s="72">
+      <c r="M17" s="63">
         <v>43.84</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="63">
         <v>82.46</v>
       </c>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72">
+      <c r="O17" s="63"/>
+      <c r="P17" s="63">
         <v>201</v>
       </c>
-      <c r="Q17" s="73">
+      <c r="Q17" s="64">
         <v>150000</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70">
+      <c r="A18" s="61"/>
+      <c r="B18" s="62">
         <v>17</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72">
+      <c r="D18" s="73"/>
+      <c r="E18" s="63">
         <v>58</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="63">
         <v>41</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="63">
         <v>17</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="63">
         <v>7</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="63">
         <v>62</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="63">
         <v>-2.97</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="63">
         <v>13</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="63">
         <v>59.03</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M18" s="63">
         <v>48.22</v>
       </c>
-      <c r="N18" s="72">
+      <c r="N18" s="63">
         <v>88.68</v>
       </c>
-      <c r="O18" s="72">
+      <c r="O18" s="63">
         <v>70.69</v>
       </c>
-      <c r="P18" s="72">
+      <c r="P18" s="63">
         <v>397</v>
       </c>
-      <c r="Q18" s="73">
+      <c r="Q18" s="64">
         <v>1335</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62">
         <v>18</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72">
+      <c r="D19" s="73"/>
+      <c r="E19" s="63">
         <v>60</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="63">
         <v>51</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="63">
         <v>9</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="63">
         <v>5</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="63">
         <v>79</v>
       </c>
-      <c r="J19" s="72">
+      <c r="J19" s="63">
         <v>-1.32</v>
       </c>
-      <c r="K19" s="72">
+      <c r="K19" s="63">
         <v>8</v>
       </c>
-      <c r="L19" s="72">
+      <c r="L19" s="63">
         <v>77.680000000000007</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="63">
         <v>49.92</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="63">
         <v>86.68</v>
       </c>
-      <c r="O19" s="72">
+      <c r="O19" s="63">
         <v>85</v>
       </c>
-      <c r="P19" s="72">
+      <c r="P19" s="63">
         <v>31</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="64">
         <v>1315</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70">
+      <c r="A20" s="61"/>
+      <c r="B20" s="62">
         <v>19</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72">
+      <c r="D20" s="73"/>
+      <c r="E20" s="63">
         <v>59</v>
       </c>
-      <c r="F20" s="72">
+      <c r="F20" s="63">
         <v>44</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="63">
         <v>15</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="63">
         <v>6</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="63">
         <v>67</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="63">
         <v>-2.64</v>
       </c>
-      <c r="K20" s="72">
+      <c r="K20" s="63">
         <v>11</v>
       </c>
-      <c r="L20" s="72">
+      <c r="L20" s="63">
         <v>64.36</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M20" s="63">
         <v>46.71</v>
       </c>
-      <c r="N20" s="72">
+      <c r="N20" s="63">
         <v>83</v>
       </c>
-      <c r="O20" s="72">
+      <c r="O20" s="63">
         <v>74.58</v>
       </c>
-      <c r="P20" s="72">
+      <c r="P20" s="63">
         <v>137</v>
       </c>
-      <c r="Q20" s="73">
+      <c r="Q20" s="64">
         <v>865</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66">
         <v>20</v>
       </c>
       <c r="C21" s="76" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="76"/>
-      <c r="E21" s="77">
+      <c r="E21" s="67">
         <v>56</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="67">
         <v>43</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="67">
         <v>13</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="67">
         <v>9</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="67">
         <v>64</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="67">
         <v>-3.3</v>
       </c>
-      <c r="K21" s="77">
+      <c r="K21" s="67">
         <v>15</v>
       </c>
-      <c r="L21" s="77">
+      <c r="L21" s="67">
         <v>60.7</v>
       </c>
-      <c r="M21" s="77">
+      <c r="M21" s="67">
         <v>41.19</v>
       </c>
-      <c r="N21" s="77">
+      <c r="N21" s="67">
         <v>82.02</v>
       </c>
-      <c r="O21" s="77">
+      <c r="O21" s="67">
         <v>76.790000000000006</v>
       </c>
-      <c r="P21" s="77">
+      <c r="P21" s="67">
         <v>120</v>
       </c>
-      <c r="Q21" s="78">
+      <c r="Q21" s="68">
         <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="52">
+      <c r="A22" s="45">
         <v>44808</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="46">
         <v>21</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="54">
+      <c r="D22" s="78"/>
+      <c r="E22" s="47">
         <v>57</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="48">
         <v>43</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="49">
         <v>14</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="50">
         <v>8</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="51">
         <v>64</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="52">
         <v>-3.96</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="53">
         <v>15</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="54">
         <v>60.04</v>
       </c>
-      <c r="M22" s="62">
+      <c r="M22" s="55">
         <v>9.25</v>
       </c>
-      <c r="N22" s="62">
+      <c r="N22" s="55">
         <v>76.36</v>
       </c>
-      <c r="O22" s="63">
+      <c r="O22" s="56">
         <v>75.44</v>
       </c>
-      <c r="P22" s="58">
+      <c r="P22" s="51">
         <v>6</v>
       </c>
-      <c r="Q22" s="58">
+      <c r="Q22" s="51">
         <v>385</v>
       </c>
       <c r="R22" s="31">
@@ -4322,16 +4322,16 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
+      <c r="A23" s="32">
         <v>44816</v>
       </c>
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="12">
         <v>58</v>
       </c>
@@ -4341,7 +4341,7 @@
       <c r="G23" s="14">
         <v>14</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="33">
         <v>7</v>
       </c>
       <c r="I23" s="19">
@@ -4350,7 +4350,7 @@
       <c r="J23" s="28">
         <v>-1.65</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="34">
         <v>14</v>
       </c>
       <c r="L23" s="16">
@@ -4380,16 +4380,16 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
+      <c r="A24" s="32">
         <v>44822</v>
       </c>
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="12">
         <v>64</v>
       </c>
@@ -4399,7 +4399,7 @@
       <c r="G24" s="14">
         <v>18</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="33">
         <v>1</v>
       </c>
       <c r="I24" s="19">
@@ -4408,7 +4408,7 @@
       <c r="J24" s="28">
         <v>-2.97</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="34">
         <v>2</v>
       </c>
       <c r="L24" s="16">
@@ -4438,21 +4438,21 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="19"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="40"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="16"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
@@ -4466,21 +4466,21 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="19"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="40"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
@@ -4494,21 +4494,21 @@
       <c r="S26" s="31"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="19"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="40"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
@@ -4522,21 +4522,21 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="39"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="19"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="40"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="16"/>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
@@ -4550,21 +4550,21 @@
       <c r="S28" s="31"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="33"/>
       <c r="I29" s="19"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="40"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="16"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
@@ -4578,21 +4578,21 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="39"/>
+      <c r="H30" s="33"/>
       <c r="I30" s="19"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="40"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="16"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -4606,21 +4606,21 @@
       <c r="S30" s="31"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="39"/>
+      <c r="H31" s="33"/>
       <c r="I31" s="19"/>
       <c r="J31" s="28"/>
-      <c r="K31" s="40"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
@@ -4633,21 +4633,21 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="33"/>
       <c r="I32" s="19"/>
       <c r="J32" s="28"/>
-      <c r="K32" s="40"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="16"/>
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
@@ -4660,21 +4660,21 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="39"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="19"/>
       <c r="J33" s="28"/>
-      <c r="K33" s="40"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="16"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
@@ -4687,21 +4687,21 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="19"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="40"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="16"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
@@ -4718,55 +4718,58 @@
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="33"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="12">
-        <f>AVERAGE(E2:E34)</f>
+        <f t="shared" ref="E35:O35" si="1">AVERAGE(E2:E34)</f>
         <v>54.130434782608695</v>
       </c>
       <c r="F35" s="13">
-        <f>AVERAGE(F2:F34)</f>
+        <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
       <c r="G35" s="14">
-        <f>AVERAGE(G2:G34)</f>
+        <f t="shared" si="1"/>
         <v>13.826086956521738</v>
       </c>
       <c r="H35" s="15">
-        <f>AVERAGE(H2:H34)</f>
+        <f t="shared" si="1"/>
         <v>10.869565217391305</v>
       </c>
       <c r="I35" s="19">
-        <f>AVERAGE(I2:I34)</f>
+        <f t="shared" si="1"/>
         <v>60.260869565217391</v>
       </c>
       <c r="J35" s="28">
-        <f>AVERAGE(J2:J34)</f>
+        <f t="shared" si="1"/>
         <v>-3.0460869565217394</v>
       </c>
       <c r="K35" s="15">
-        <f>AVERAGE(K2:K34)</f>
+        <f t="shared" si="1"/>
         <v>18.315789473684209</v>
       </c>
       <c r="L35" s="16">
-        <f>AVERAGE(L2:L34)</f>
+        <f t="shared" si="1"/>
         <v>57.301304347826083</v>
       </c>
       <c r="M35" s="17">
-        <f>AVERAGE(M2:M34)</f>
+        <f t="shared" si="1"/>
         <v>40.584090909090918</v>
       </c>
       <c r="N35" s="17">
-        <f>AVERAGE(N2:N34)</f>
+        <f t="shared" si="1"/>
         <v>83.180909090909083</v>
       </c>
       <c r="O35" s="18">
-        <f>AVERAGE(O2:O34)</f>
+        <f t="shared" si="1"/>
         <v>72.949473684210531</v>
       </c>
-      <c r="P35" s="19"/>
+      <c r="P35" s="19">
+        <f>AVERAGE(P2:P34)</f>
+        <v>146.18181818181819</v>
+      </c>
       <c r="Q35" s="19"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -4863,16 +4866,15 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -4889,15 +4891,16 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M14">
     <cfRule type="colorScale" priority="38">
@@ -4959,7 +4962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J30">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="39">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -4968,7 +4971,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F30">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4978,12 +4981,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="40" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N30">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8E2F4C-6517-43E0-ADEA-C6A755C03DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FEC46-12A5-4C44-85AB-84828F800569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Test Name</t>
   </si>
@@ -192,12 +192,15 @@
   <si>
     <t>GATE MOCK TEST 4 (GATE 2023)</t>
   </si>
+  <si>
+    <t>Diff with Topper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +216,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,8 +303,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -422,40 +443,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -500,9 +491,31 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -511,11 +524,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,9 +610,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,23 +682,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -685,33 +704,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="108">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -723,9 +785,225 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -805,13 +1083,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -849,6 +1120,649 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1134,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>68.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,50 +2368,21 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4773808558417115E-2"/>
+          <c:y val="0.16098054147151869"/>
+          <c:w val="0.89796920052704332"/>
+          <c:h val="0.71530542735735547"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1518,7 +2406,6 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
@@ -1583,6 +2470,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>71.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.430000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,18 +2492,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
         <c:axId val="284523040"/>
         <c:axId val="284520544"/>
-        <c:axId val="46756703"/>
-      </c:bar3DChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="284523040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1654,6 +2542,361 @@
       </c:catAx>
       <c:valAx>
         <c:axId val="284520544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284523040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff with Topper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>50.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.660000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.639999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.430000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.9900000000000091</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6500000000000057</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA10-4E95-BBF6-B6C9A117EB7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="278380368"/>
+        <c:axId val="278375792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="278380368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278375792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="278375792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,50 +2947,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284523040"/>
+        <c:crossAx val="278380368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="46756703"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="284520544"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1839,6 +3042,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
@@ -2825,6 +4068,522 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2898,15 +4657,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>230393</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>144556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>542813</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144556</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2926,6 +4685,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>354106</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C46BC1-6A47-6BDF-D095-A29E6F6A864D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3231,10 +5026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3251,1087 +5046,1259 @@
     <col min="11" max="11" width="12.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="6"/>
     <col min="13" max="13" width="17.77734375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="9"/>
+    <col min="14" max="14" width="8.88671875" style="89"/>
     <col min="15" max="15" width="10.5546875" style="10" customWidth="1"/>
     <col min="16" max="17" width="8.88671875" style="7"/>
+    <col min="18" max="18" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="76" t="s">
         <v>22</v>
       </c>
+      <c r="R1" s="3"/>
+      <c r="T1" s="75" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58">
+    <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57">
         <v>1</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="59">
+      <c r="D2" s="72"/>
+      <c r="E2" s="58">
         <v>41</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="58">
         <v>27</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="58">
         <v>14</v>
       </c>
-      <c r="H2" s="59">
+      <c r="H2" s="58">
         <v>24</v>
       </c>
-      <c r="I2" s="59">
+      <c r="I2" s="58">
         <v>40</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="58">
         <v>-4.29</v>
       </c>
-      <c r="K2" s="59">
+      <c r="K2" s="58">
         <v>39</v>
       </c>
-      <c r="L2" s="59">
+      <c r="L2" s="58">
         <v>35.71</v>
       </c>
-      <c r="M2" s="59">
+      <c r="M2" s="58">
         <v>39.869999999999997</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="84">
         <v>86.34</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="58">
         <v>65.849999999999994</v>
       </c>
-      <c r="P2" s="59">
+      <c r="P2" s="58">
         <v>157</v>
       </c>
-      <c r="Q2" s="60">
+      <c r="Q2" s="77">
         <v>268</v>
       </c>
+      <c r="R2" s="3">
+        <f t="shared" ref="R2:R21" si="0" xml:space="preserve"> (Q2-P2+1)/(Q2)*100</f>
+        <v>41.791044776119399</v>
+      </c>
+      <c r="T2" s="3">
+        <f>N2-L2</f>
+        <v>50.63</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="62">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60">
         <v>2</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="63">
+      <c r="D3" s="69"/>
+      <c r="E3" s="61">
         <v>40</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="61">
         <v>27</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="61">
         <v>13</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="61">
         <v>25</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="61">
         <v>41</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="61">
         <v>-3.3</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="61">
         <v>41</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L3" s="61">
         <v>37.700000000000003</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="61">
         <v>39.18</v>
       </c>
-      <c r="N3" s="63">
+      <c r="N3" s="85">
         <v>84.69</v>
       </c>
-      <c r="O3" s="63">
+      <c r="O3" s="61">
         <v>67.5</v>
       </c>
-      <c r="P3" s="63">
+      <c r="P3" s="61">
         <v>114</v>
       </c>
-      <c r="Q3" s="64">
+      <c r="Q3" s="78">
         <v>201</v>
       </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>43.781094527363187</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" ref="T3:T35" si="1">N3-L3</f>
+        <v>46.989999999999995</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60">
         <v>3</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="63">
+      <c r="D4" s="69"/>
+      <c r="E4" s="61">
         <v>51</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="61">
         <v>33</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="61">
         <v>18</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="61">
         <v>14</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="61">
         <v>52</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="61">
         <v>-4.62</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="61">
         <v>24</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="61">
         <v>47.38</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="61">
         <v>33.14</v>
       </c>
-      <c r="N4" s="63">
+      <c r="N4" s="85">
         <v>81.7</v>
       </c>
-      <c r="O4" s="63">
+      <c r="O4" s="61">
         <v>64.709999999999994</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="61">
         <v>285</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="78">
         <v>1233</v>
       </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>76.966747769667478</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="1"/>
+        <v>34.32</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60">
         <v>4</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="63">
+      <c r="D5" s="69"/>
+      <c r="E5" s="61">
         <v>51</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="61">
         <v>15</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="61">
         <v>14</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="61">
         <v>54</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="61">
         <v>-3.67</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63">
+      <c r="K5" s="61"/>
+      <c r="L5" s="61">
         <v>52.33</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="85">
+        <v>91</v>
+      </c>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="1"/>
+        <v>38.67</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60">
         <v>5</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="63">
+      <c r="D6" s="69"/>
+      <c r="E6" s="61">
         <v>47</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="61">
         <v>35</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="61">
         <v>12</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="61">
         <v>18</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="61">
         <v>51</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="61">
         <v>-1.65</v>
       </c>
-      <c r="K6" s="63">
+      <c r="K6" s="61">
         <v>33</v>
       </c>
-      <c r="L6" s="63">
+      <c r="L6" s="61">
         <v>49.35</v>
       </c>
-      <c r="M6" s="63">
+      <c r="M6" s="61">
         <v>39.799999999999997</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="85">
         <v>87.36</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="61">
         <v>74.47</v>
       </c>
-      <c r="P6" s="63">
+      <c r="P6" s="61">
         <v>290</v>
       </c>
-      <c r="Q6" s="64">
+      <c r="Q6" s="78">
         <v>913</v>
       </c>
+      <c r="R6" s="3">
+        <f t="shared" si="0"/>
+        <v>68.346111719605702</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="1"/>
+        <v>38.01</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="59"/>
+      <c r="B7" s="60">
         <v>6</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="63">
+      <c r="D7" s="69"/>
+      <c r="E7" s="61">
         <v>51</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="61">
         <v>35</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="61">
         <v>16</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="61">
         <v>14</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="61">
         <v>51</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="61">
         <v>-3.3</v>
       </c>
-      <c r="K7" s="63">
+      <c r="K7" s="61">
         <v>24</v>
       </c>
-      <c r="L7" s="63">
+      <c r="L7" s="61">
         <v>47.7</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="61">
         <v>37.15</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="85">
         <v>79.67</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="61">
         <v>68.63</v>
       </c>
-      <c r="P7" s="63">
+      <c r="P7" s="61">
         <v>186</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="78">
         <v>714</v>
       </c>
+      <c r="R7" s="3">
+        <f t="shared" si="0"/>
+        <v>74.089635854341736</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="1"/>
+        <v>31.97</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60">
         <v>7</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="63">
+      <c r="D8" s="69"/>
+      <c r="E8" s="61">
         <v>52</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="61">
         <v>38</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="61">
         <v>14</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="61">
         <v>13</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="61">
         <v>56</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="61">
         <v>-4.29</v>
       </c>
-      <c r="K8" s="63">
+      <c r="K8" s="61">
         <v>23</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="61">
         <v>51.71</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="61">
         <v>44.06</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="85">
         <v>88.02</v>
       </c>
-      <c r="O8" s="63">
+      <c r="O8" s="61">
         <v>73.08</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="61">
         <v>207</v>
       </c>
-      <c r="Q8" s="64">
+      <c r="Q8" s="78">
         <v>549</v>
       </c>
+      <c r="R8" s="3">
+        <f t="shared" si="0"/>
+        <v>62.477231329690341</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="1"/>
+        <v>36.309999999999995</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="60">
         <v>8</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="63">
+      <c r="D9" s="69"/>
+      <c r="E9" s="61">
         <v>55</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="61">
         <v>34</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="61">
         <v>21</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="61">
         <v>10</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="61">
         <v>48</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="61">
         <v>-1.98</v>
       </c>
-      <c r="K9" s="63">
+      <c r="K9" s="61">
         <v>18</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="61">
         <v>46.02</v>
       </c>
-      <c r="M9" s="63">
+      <c r="M9" s="61">
         <v>39.200000000000003</v>
       </c>
-      <c r="N9" s="63">
+      <c r="N9" s="85">
         <v>81.680000000000007</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="61">
         <v>61.82</v>
       </c>
-      <c r="P9" s="63">
+      <c r="P9" s="61">
         <v>82</v>
       </c>
-      <c r="Q9" s="64">
+      <c r="Q9" s="78">
         <v>203</v>
       </c>
+      <c r="R9" s="3">
+        <f t="shared" si="0"/>
+        <v>60.098522167487687</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="1"/>
+        <v>35.660000000000004</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60">
         <v>9</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="63">
+      <c r="D10" s="69"/>
+      <c r="E10" s="61">
         <v>58</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="61">
         <v>45</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="61">
         <v>13</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="61">
         <v>7</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="61">
         <v>65</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="61">
         <v>-5.28</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="61">
         <v>12</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="61">
         <v>59.72</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="61">
         <v>42.88</v>
       </c>
-      <c r="N10" s="63">
+      <c r="N10" s="85">
         <v>86.02</v>
       </c>
-      <c r="O10" s="63">
+      <c r="O10" s="61">
         <v>77.59</v>
       </c>
-      <c r="P10" s="63">
+      <c r="P10" s="61">
         <v>43</v>
       </c>
-      <c r="Q10" s="64">
+      <c r="Q10" s="78">
         <v>166</v>
       </c>
+      <c r="R10" s="3">
+        <f t="shared" si="0"/>
+        <v>74.698795180722882</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="1"/>
+        <v>26.299999999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60">
         <v>10</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="63">
+      <c r="D11" s="69"/>
+      <c r="E11" s="61">
         <v>60</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="61">
         <v>42</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="61">
         <v>18</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="61">
         <v>5</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="61">
         <v>62</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="61">
         <v>-4.62</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="61">
         <v>9</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="61">
         <v>57.38</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="61">
         <v>43.61</v>
       </c>
-      <c r="N11" s="63">
+      <c r="N11" s="85">
         <v>83.02</v>
       </c>
-      <c r="O11" s="63">
+      <c r="O11" s="61">
         <v>70</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="61">
         <v>171</v>
       </c>
-      <c r="Q11" s="64">
+      <c r="Q11" s="78">
         <v>823</v>
       </c>
+      <c r="R11" s="3">
+        <f t="shared" si="0"/>
+        <v>79.343863912515189</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="1"/>
+        <v>25.639999999999993</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
+      <c r="B12" s="60">
         <v>11</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="63">
+      <c r="D12" s="69"/>
+      <c r="E12" s="61">
         <v>56</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="61">
         <v>42</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="61">
         <v>14</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="61">
         <v>9</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="61">
         <v>62</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="61">
         <v>-2.31</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="61">
         <v>17</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="61">
         <v>59.69</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M12" s="61">
         <v>50.53</v>
       </c>
-      <c r="N12" s="63">
+      <c r="N12" s="85">
         <v>90</v>
       </c>
-      <c r="O12" s="63">
+      <c r="O12" s="61">
         <v>75</v>
       </c>
-      <c r="P12" s="63">
+      <c r="P12" s="61">
         <v>218</v>
       </c>
-      <c r="Q12" s="64">
+      <c r="Q12" s="78">
         <v>616</v>
       </c>
+      <c r="R12" s="3">
+        <f t="shared" si="0"/>
+        <v>64.772727272727266</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="1"/>
+        <v>30.310000000000002</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60">
         <v>12</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="63">
+      <c r="D13" s="69"/>
+      <c r="E13" s="61">
         <v>56</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="61">
         <v>45</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="61">
         <v>11</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="61">
         <v>9</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="61">
         <v>68</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="61">
         <v>-3.3</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="61">
         <v>15</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="61">
         <v>64.7</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="61">
         <v>52.6</v>
       </c>
-      <c r="N13" s="63">
+      <c r="N13" s="85">
         <v>89.34</v>
       </c>
-      <c r="O13" s="63">
+      <c r="O13" s="61">
         <v>80.36</v>
       </c>
-      <c r="P13" s="63">
+      <c r="P13" s="61">
         <v>141</v>
       </c>
-      <c r="Q13" s="64">
+      <c r="Q13" s="78">
         <v>437</v>
       </c>
+      <c r="R13" s="3">
+        <f t="shared" si="0"/>
+        <v>67.963386727688786</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="1"/>
+        <v>24.64</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60">
         <v>13</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="63">
+      <c r="D14" s="69"/>
+      <c r="E14" s="61">
         <v>56</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="61">
         <v>43</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="61">
         <v>13</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="61">
         <v>9</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="61">
         <v>63</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="61">
         <v>-2.64</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="61">
         <v>15</v>
       </c>
-      <c r="L14" s="63">
+      <c r="L14" s="61">
         <v>60.36</v>
       </c>
-      <c r="M14" s="63">
+      <c r="M14" s="61">
         <v>46.4</v>
       </c>
-      <c r="N14" s="63">
+      <c r="N14" s="85">
         <v>84.35</v>
       </c>
-      <c r="O14" s="63">
+      <c r="O14" s="61">
         <v>76.790000000000006</v>
       </c>
-      <c r="P14" s="63">
+      <c r="P14" s="61">
         <v>114</v>
       </c>
-      <c r="Q14" s="64">
+      <c r="Q14" s="78">
         <v>402</v>
       </c>
+      <c r="R14" s="3">
+        <f t="shared" si="0"/>
+        <v>71.890547263681597</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="1"/>
+        <v>23.989999999999995</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60">
         <v>14</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="63">
+      <c r="D15" s="69"/>
+      <c r="E15" s="61">
         <v>50</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="61">
         <v>40</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="61">
         <v>10</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="61">
         <v>15</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="61">
         <v>65</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="61">
         <v>-3</v>
       </c>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63">
+      <c r="K15" s="61"/>
+      <c r="L15" s="61">
         <v>62</v>
       </c>
-      <c r="M15" s="63">
+      <c r="M15" s="61">
         <v>40.450000000000003</v>
       </c>
-      <c r="N15" s="63">
+      <c r="N15" s="85">
         <v>78.81</v>
       </c>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63">
+      <c r="O15" s="61"/>
+      <c r="P15" s="61">
         <v>139</v>
       </c>
-      <c r="Q15" s="64">
+      <c r="Q15" s="78">
         <v>100000</v>
       </c>
+      <c r="R15" s="3">
+        <f t="shared" si="0"/>
+        <v>99.861999999999995</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="1"/>
+        <v>16.810000000000002</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60">
         <v>15</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="63">
+      <c r="D16" s="69"/>
+      <c r="E16" s="61">
         <v>56</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="61">
         <v>50</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="61">
         <v>6</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="61">
         <v>9</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="61">
         <v>71</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="61">
         <v>-1.33</v>
       </c>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63">
+      <c r="K16" s="61"/>
+      <c r="L16" s="61">
         <v>69.66</v>
       </c>
-      <c r="M16" s="63">
+      <c r="M16" s="61">
         <v>47.81</v>
       </c>
-      <c r="N16" s="63">
+      <c r="N16" s="85">
         <v>83.09</v>
       </c>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63">
+      <c r="O16" s="61"/>
+      <c r="P16" s="61">
         <v>170</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="78">
         <v>100000</v>
       </c>
+      <c r="R16" s="3">
+        <f t="shared" si="0"/>
+        <v>99.831000000000003</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="1"/>
+        <v>13.430000000000007</v>
+      </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60">
         <v>16</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="63">
+      <c r="D17" s="69"/>
+      <c r="E17" s="61">
         <v>53</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="61">
         <v>43</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="61">
         <v>10</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="61">
         <v>12</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="61">
         <v>64</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="61">
         <v>-1.67</v>
       </c>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63">
+      <c r="K17" s="61"/>
+      <c r="L17" s="61">
         <v>62.33</v>
       </c>
-      <c r="M17" s="63">
+      <c r="M17" s="61">
         <v>43.84</v>
       </c>
-      <c r="N17" s="63">
+      <c r="N17" s="85">
         <v>82.46</v>
       </c>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63">
+      <c r="O17" s="61"/>
+      <c r="P17" s="61">
         <v>201</v>
       </c>
-      <c r="Q17" s="64">
+      <c r="Q17" s="78">
         <v>150000</v>
       </c>
+      <c r="R17" s="3">
+        <f t="shared" si="0"/>
+        <v>99.866666666666674</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="1"/>
+        <v>20.129999999999995</v>
+      </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60">
         <v>17</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="63">
+      <c r="D18" s="69"/>
+      <c r="E18" s="61">
         <v>58</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="61">
         <v>41</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="61">
         <v>17</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="61">
         <v>7</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="61">
         <v>62</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="61">
         <v>-2.97</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="61">
         <v>13</v>
       </c>
-      <c r="L18" s="63">
+      <c r="L18" s="61">
         <v>59.03</v>
       </c>
-      <c r="M18" s="63">
+      <c r="M18" s="61">
         <v>48.22</v>
       </c>
-      <c r="N18" s="63">
+      <c r="N18" s="85">
         <v>88.68</v>
       </c>
-      <c r="O18" s="63">
+      <c r="O18" s="61">
         <v>70.69</v>
       </c>
-      <c r="P18" s="63">
+      <c r="P18" s="61">
         <v>397</v>
       </c>
-      <c r="Q18" s="64">
+      <c r="Q18" s="78">
         <v>1335</v>
       </c>
+      <c r="R18" s="3">
+        <f t="shared" si="0"/>
+        <v>70.337078651685388</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="1"/>
+        <v>29.650000000000006</v>
+      </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60">
         <v>18</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="63">
+      <c r="D19" s="69"/>
+      <c r="E19" s="61">
         <v>60</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="61">
         <v>51</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="61">
         <v>9</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="61">
         <v>5</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="61">
         <v>79</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="61">
         <v>-1.32</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="61">
         <v>8</v>
       </c>
-      <c r="L19" s="63">
+      <c r="L19" s="61">
         <v>77.680000000000007</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="61">
         <v>49.92</v>
       </c>
-      <c r="N19" s="63">
+      <c r="N19" s="85">
         <v>86.68</v>
       </c>
-      <c r="O19" s="63">
+      <c r="O19" s="61">
         <v>85</v>
       </c>
-      <c r="P19" s="63">
+      <c r="P19" s="61">
         <v>31</v>
       </c>
-      <c r="Q19" s="64">
+      <c r="Q19" s="78">
         <v>1315</v>
       </c>
+      <c r="R19" s="3">
+        <f t="shared" si="0"/>
+        <v>97.718631178707227</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="59"/>
+      <c r="B20" s="60">
         <v>19</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="63">
+      <c r="D20" s="69"/>
+      <c r="E20" s="61">
         <v>59</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="61">
         <v>44</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="61">
         <v>15</v>
       </c>
-      <c r="H20" s="63">
+      <c r="H20" s="61">
         <v>6</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="61">
         <v>67</v>
       </c>
-      <c r="J20" s="63">
+      <c r="J20" s="61">
         <v>-2.64</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="61">
         <v>11</v>
       </c>
-      <c r="L20" s="63">
+      <c r="L20" s="61">
         <v>64.36</v>
       </c>
-      <c r="M20" s="63">
+      <c r="M20" s="61">
         <v>46.71</v>
       </c>
-      <c r="N20" s="63">
+      <c r="N20" s="85">
         <v>83</v>
       </c>
-      <c r="O20" s="63">
+      <c r="O20" s="61">
         <v>74.58</v>
       </c>
-      <c r="P20" s="63">
+      <c r="P20" s="61">
         <v>137</v>
       </c>
-      <c r="Q20" s="64">
+      <c r="Q20" s="78">
         <v>865</v>
       </c>
+      <c r="R20" s="3">
+        <f t="shared" si="0"/>
+        <v>84.277456647398836</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="1"/>
+        <v>18.64</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66">
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63">
         <v>20</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="67">
+      <c r="D21" s="73"/>
+      <c r="E21" s="64">
         <v>56</v>
       </c>
-      <c r="F21" s="67">
+      <c r="F21" s="64">
         <v>43</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="64">
         <v>13</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="64">
         <v>9</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="64">
         <v>64</v>
       </c>
-      <c r="J21" s="67">
+      <c r="J21" s="64">
         <v>-3.3</v>
       </c>
-      <c r="K21" s="67">
+      <c r="K21" s="64">
         <v>15</v>
       </c>
-      <c r="L21" s="67">
+      <c r="L21" s="64">
         <v>60.7</v>
       </c>
-      <c r="M21" s="67">
+      <c r="M21" s="64">
         <v>41.19</v>
       </c>
-      <c r="N21" s="67">
+      <c r="N21" s="86">
         <v>82.02</v>
       </c>
-      <c r="O21" s="67">
+      <c r="O21" s="64">
         <v>76.790000000000006</v>
       </c>
-      <c r="P21" s="67">
+      <c r="P21" s="64">
         <v>120</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="79">
         <v>826</v>
       </c>
+      <c r="R21" s="3">
+        <f t="shared" si="0"/>
+        <v>85.593220338983059</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="1"/>
+        <v>21.319999999999993</v>
+      </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="44">
         <v>44808</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="45">
         <v>21</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="47">
+      <c r="D22" s="66"/>
+      <c r="E22" s="46">
         <v>57</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="47">
         <v>43</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="48">
         <v>14</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="49">
         <v>8</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="50">
         <v>64</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="51">
         <v>-3.96</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="52">
         <v>15</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="53">
         <v>60.04</v>
       </c>
-      <c r="M22" s="55">
+      <c r="M22" s="54">
         <v>9.25</v>
       </c>
-      <c r="N22" s="55">
+      <c r="N22" s="87">
         <v>76.36</v>
       </c>
-      <c r="O22" s="56">
+      <c r="O22" s="55">
         <v>75.44</v>
       </c>
-      <c r="P22" s="51">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="51">
-        <v>385</v>
-      </c>
-      <c r="R22" s="31">
-        <f t="shared" ref="R22:R30" si="0" xml:space="preserve"> (Q22-P22+1)/(Q22)*100</f>
-        <v>98.701298701298697</v>
-      </c>
-      <c r="S22" s="31" t="s">
+      <c r="P22" s="50">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="80">
+        <v>595</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" ref="R22:R30" si="2" xml:space="preserve"> (Q22-P22+1)/(Q22)*100</f>
+        <v>98.319327731092429</v>
+      </c>
+      <c r="S22" s="82" t="s">
         <v>39</v>
       </c>
+      <c r="T22" s="3">
+        <f t="shared" si="1"/>
+        <v>16.32</v>
+      </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="32">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
         <v>44816</v>
       </c>
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="12">
         <v>58</v>
       </c>
@@ -4341,7 +6308,7 @@
       <c r="G23" s="14">
         <v>14</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H23" s="32">
         <v>7</v>
       </c>
       <c r="I23" s="19">
@@ -4350,7 +6317,7 @@
       <c r="J23" s="28">
         <v>-1.65</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <v>14</v>
       </c>
       <c r="L23" s="16">
@@ -4359,37 +6326,41 @@
       <c r="M23" s="17">
         <v>30.77</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="85">
         <v>73.34</v>
       </c>
       <c r="O23" s="18">
         <v>75.86</v>
       </c>
       <c r="P23" s="19">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="19">
-        <v>42</v>
-      </c>
-      <c r="R23" s="31">
-        <f t="shared" si="0"/>
-        <v>90.476190476190482</v>
-      </c>
-      <c r="S23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="81">
+        <v>88</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="2"/>
+        <v>89.772727272727266</v>
+      </c>
+      <c r="S23" s="82" t="s">
         <v>39</v>
       </c>
+      <c r="T23" s="3">
+        <f t="shared" si="1"/>
+        <v>8.9900000000000091</v>
+      </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
         <v>44822</v>
       </c>
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="12">
         <v>64</v>
       </c>
@@ -4399,7 +6370,7 @@
       <c r="G24" s="14">
         <v>18</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <v>1</v>
       </c>
       <c r="I24" s="19">
@@ -4408,7 +6379,7 @@
       <c r="J24" s="28">
         <v>-2.97</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="33">
         <v>2</v>
       </c>
       <c r="L24" s="16">
@@ -4417,362 +6388,438 @@
       <c r="M24" s="17">
         <v>26.27</v>
       </c>
-      <c r="N24" s="17">
-        <v>73.349999999999994</v>
+      <c r="N24" s="85">
+        <v>77.680000000000007</v>
       </c>
       <c r="O24" s="18">
         <v>71.88</v>
       </c>
       <c r="P24" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>11</v>
-      </c>
-      <c r="R24" s="31">
-        <f t="shared" si="0"/>
-        <v>90.909090909090907</v>
-      </c>
-      <c r="S24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="81">
+        <v>52</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="2"/>
+        <v>90.384615384615387</v>
+      </c>
+      <c r="S24" s="82" t="s">
         <v>42</v>
       </c>
+      <c r="T24" s="3">
+        <f t="shared" si="1"/>
+        <v>9.6500000000000057</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
       <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="31"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="12">
+        <v>63</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45</v>
+      </c>
+      <c r="G25" s="14">
+        <v>18</v>
+      </c>
+      <c r="H25" s="32">
+        <v>2</v>
+      </c>
+      <c r="I25" s="19">
+        <v>65</v>
+      </c>
+      <c r="J25" s="28">
+        <v>-3.3</v>
+      </c>
+      <c r="K25" s="33">
+        <v>3</v>
+      </c>
+      <c r="L25" s="16">
+        <v>61.7</v>
+      </c>
+      <c r="M25" s="17">
+        <v>35.83</v>
+      </c>
+      <c r="N25" s="85">
+        <v>62.03</v>
+      </c>
+      <c r="O25" s="18">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="P25" s="19">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="81">
+        <v>26</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="2"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="S25" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.32999999999999829</v>
+      </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
       <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="70"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="33"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="19"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="34"/>
+      <c r="K26" s="33"/>
       <c r="L26" s="16"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="N26" s="85"/>
       <c r="O26" s="18"/>
       <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="31" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" s="31"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
       <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="70"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="33"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="19"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="34"/>
+      <c r="K27" s="33"/>
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="N27" s="85"/>
       <c r="O27" s="18"/>
       <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="31" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="31"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
       <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="70"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="33"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="19"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="34"/>
+      <c r="K28" s="33"/>
       <c r="L28" s="16"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
+      <c r="N28" s="85"/>
       <c r="O28" s="18"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="31" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S28" s="31"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="70"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="33"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="19"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="34"/>
+      <c r="K29" s="33"/>
       <c r="L29" s="16"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="N29" s="85"/>
       <c r="O29" s="18"/>
       <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="31" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="31"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="33"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="19"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="34"/>
+      <c r="K30" s="33"/>
       <c r="L30" s="16"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="N30" s="85"/>
       <c r="O30" s="18"/>
       <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="31" t="e">
-        <f t="shared" si="0"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="3" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="31"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="71"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="33"/>
+      <c r="H31" s="32"/>
       <c r="I31" s="19"/>
       <c r="J31" s="28"/>
-      <c r="K31" s="34"/>
+      <c r="K31" s="33"/>
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
+      <c r="N31" s="85"/>
       <c r="O31" s="18"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="31" t="e">
+      <c r="Q31" s="81"/>
+      <c r="R31" s="3" t="e">
         <f xml:space="preserve"> (P31-O31+1)/(P31)*100</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="T31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="71"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="33"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="19"/>
       <c r="J32" s="28"/>
-      <c r="K32" s="34"/>
+      <c r="K32" s="33"/>
       <c r="L32" s="16"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="N32" s="85"/>
       <c r="O32" s="18"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="31" t="e">
+      <c r="Q32" s="81"/>
+      <c r="R32" s="3" t="e">
         <f xml:space="preserve"> (P32-O32+1)/(P32)*100</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="T32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="32"/>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
       <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="71"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
-      <c r="H33" s="33"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="19"/>
       <c r="J33" s="28"/>
-      <c r="K33" s="34"/>
+      <c r="K33" s="33"/>
       <c r="L33" s="16"/>
       <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
+      <c r="N33" s="85"/>
       <c r="O33" s="18"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="31" t="e">
+      <c r="Q33" s="81"/>
+      <c r="R33" s="3" t="e">
         <f xml:space="preserve"> (P33-O33+1)/(P33)*100</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="T33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
       <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="71"/>
+      <c r="D34" s="74"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="33"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="19"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="34"/>
+      <c r="K34" s="33"/>
       <c r="L34" s="16"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="N34" s="85"/>
       <c r="O34" s="18"/>
       <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="31" t="e">
+      <c r="Q34" s="81"/>
+      <c r="R34" s="3" t="e">
         <f xml:space="preserve"> (P34-O34+1)/(P34)*100</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="T34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="72"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="12">
-        <f t="shared" ref="E35:O35" si="1">AVERAGE(E2:E34)</f>
-        <v>54.130434782608695</v>
+        <f t="shared" ref="E35:O35" si="3">AVERAGE(E2:E34)</f>
+        <v>54.5</v>
       </c>
       <c r="F35" s="13">
-        <f t="shared" si="1"/>
-        <v>40.5</v>
+        <f t="shared" si="3"/>
+        <v>40.695652173913047</v>
       </c>
       <c r="G35" s="14">
-        <f t="shared" si="1"/>
-        <v>13.826086956521738</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="1"/>
-        <v>10.869565217391305</v>
+        <f t="shared" si="3"/>
+        <v>10.5</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="1"/>
-        <v>60.260869565217391</v>
+        <f t="shared" si="3"/>
+        <v>60.458333333333336</v>
       </c>
       <c r="J35" s="28">
-        <f t="shared" si="1"/>
-        <v>-3.0460869565217394</v>
+        <f t="shared" si="3"/>
+        <v>-3.0566666666666666</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="1"/>
-        <v>18.315789473684209</v>
+        <f t="shared" si="3"/>
+        <v>17.55</v>
       </c>
       <c r="L35" s="16">
-        <f t="shared" si="1"/>
-        <v>57.301304347826083</v>
+        <f t="shared" si="3"/>
+        <v>57.484583333333326</v>
       </c>
       <c r="M35" s="17">
-        <f t="shared" si="1"/>
-        <v>40.584090909090918</v>
-      </c>
-      <c r="N35" s="17">
-        <f t="shared" si="1"/>
-        <v>83.180909090909083</v>
+        <f t="shared" si="3"/>
+        <v>40.377391304347832</v>
+      </c>
+      <c r="N35" s="85">
+        <f t="shared" si="3"/>
+        <v>82.805833333333325</v>
       </c>
       <c r="O35" s="18">
-        <f t="shared" si="1"/>
-        <v>72.949473684210531</v>
+        <f t="shared" si="3"/>
+        <v>72.873500000000007</v>
       </c>
       <c r="P35" s="19">
         <f>AVERAGE(P2:P34)</f>
-        <v>146.18181818181819</v>
-      </c>
-      <c r="Q35" s="19"/>
+        <v>140.56521739130434</v>
+      </c>
+      <c r="Q35" s="81"/>
+      <c r="T35" s="3">
+        <f t="shared" si="1"/>
+        <v>25.321249999999999</v>
+      </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
@@ -4783,12 +6830,12 @@
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
+      <c r="N36" s="88"/>
       <c r="O36" s="26"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
@@ -4799,12 +6846,12 @@
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
+      <c r="N37" s="88"/>
       <c r="O37" s="26"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
@@ -4814,12 +6861,12 @@
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
+      <c r="N38" s="88"/>
       <c r="O38" s="26"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E39" s="20"/>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
@@ -4829,12 +6876,12 @@
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
       <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
+      <c r="N39" s="88"/>
       <c r="O39" s="26"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="27"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
@@ -4844,12 +6891,12 @@
       <c r="K40" s="23"/>
       <c r="L40" s="24"/>
       <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
+      <c r="N40" s="88"/>
       <c r="O40" s="26"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="27"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
@@ -4859,22 +6906,23 @@
       <c r="K41" s="23"/>
       <c r="L41" s="24"/>
       <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
+      <c r="N41" s="88"/>
       <c r="O41" s="26"/>
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -4891,19 +6939,18 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M14">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4914,8 +6961,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M30">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="M22:M24 M26:M30">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4926,8 +6973,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L30">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="L22:L24 L26:L30">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4938,8 +6985,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O30">
-    <cfRule type="iconSet" priority="33">
+  <conditionalFormatting sqref="O22:O24 O26:O30">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -4947,8 +6994,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I30">
-    <cfRule type="dataBar" priority="32">
+  <conditionalFormatting sqref="I22:I24 I26:I30">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4961,8 +7008,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J30">
-    <cfRule type="iconSet" priority="39">
+  <conditionalFormatting sqref="J22:J24 J26:J30">
+    <cfRule type="iconSet" priority="53">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -4970,8 +7017,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F30">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="F22:F24 F26:F30">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4981,92 +7028,28 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="54" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N30">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22:R30">
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThan">
-      <formula>79.27673274</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="24" operator="greaterThan">
-      <formula>79.27673274</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="12" priority="26" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22:R30">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R22:R30">
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="between">
-      <formula>1</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="1000"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T22:T30">
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P30">
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="between">
+  <conditionalFormatting sqref="P22:P24 P26:P30">
+    <cfRule type="cellIs" dxfId="14" priority="33" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:S30">
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:S30">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:L34">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5078,7 +7061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O34">
-    <cfRule type="iconSet" priority="10">
+    <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5087,7 +7070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I34">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5101,7 +7084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:J34">
-    <cfRule type="iconSet" priority="12">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5110,7 +7093,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F34">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5120,12 +7103,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="28" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N31:N34">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="M31:M34">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5136,72 +7119,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31:M34">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31:R34">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
-      <formula>79.27673274</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>79.27673274</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="top10" dxfId="3" priority="7" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31:R34">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31:R34">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
-      <formula>1</formula>
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="1"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="1000"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T31:T34">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L2:L21">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5213,7 +7132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O21">
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5222,7 +7141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I21">
-    <cfRule type="dataBar" priority="47">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5236,7 +7155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J21">
-    <cfRule type="iconSet" priority="48">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5245,7 +7164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="colorScale" priority="49">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5255,12 +7174,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="64" operator="greaterThan">
       <formula>$F$35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N21">
-    <cfRule type="colorScale" priority="51">
+  <conditionalFormatting sqref="M2:M21">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5271,14 +7190,115 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M21">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="M25">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF651322-2FB3-441B-BDAE-CF996C88610A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+      <formula>1</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -5298,7 +7318,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I22:I30</xm:sqref>
+          <xm:sqref>I22:I24 I26:I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C961B77-F7AC-473E-A0E7-99E2D3513BB3}">
@@ -5322,6 +7342,17 @@
           </x14:cfRule>
           <xm:sqref>I2:I21</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF651322-2FB3-441B-BDAE-CF996C88610A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I25</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FEC46-12A5-4C44-85AB-84828F800569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A483C-CB59-4D19-AE8C-F7CC55786BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Test Name</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Diff with Topper</t>
+  </si>
+  <si>
+    <t>#Percentile</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,34 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,12 +736,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -808,944 +813,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2051,6 +1118,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>61.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2474,6 +1544,9 @@
                 <c:pt idx="23">
                   <c:v>71.430000000000007</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.430000000000007</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2796,7 +1869,7 @@
                   <c:v>0.32999999999999829</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>8.6599999999999966</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2996,6 +2069,406 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#Percentile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>41.791044776119399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.781094527363187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.966747769667478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.346111719605702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.089635854341736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.477231329690341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.098522167487687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.698795180722882</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.343863912515189</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.772727272727266</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.963386727688786</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.890547263681597</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.861999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.831000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99.866666666666674</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.337078651685388</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.718631178707227</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.277456647398836</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85.593220338983059</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.319327731092429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.772727272727266</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90.384615384615387</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>92.307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-964A-42BC-B88F-B2E79615D280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="930156304"/>
+        <c:axId val="930143824"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="930156304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930143824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="930143824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930156304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
@@ -3082,6 +2555,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
@@ -4612,6 +4125,502 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="283">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4721,6 +4730,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>103093</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CD4FFD-89BD-82A9-1D70-80C1221BCEB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5028,13 +5073,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" style="2" customWidth="1"/>
@@ -5046,7 +5092,7 @@
     <col min="11" max="11" width="12.6640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="6"/>
     <col min="13" max="13" width="17.77734375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="89"/>
+    <col min="14" max="14" width="8.88671875" style="79"/>
     <col min="15" max="15" width="10.5546875" style="10" customWidth="1"/>
     <col min="16" max="17" width="8.88671875" style="7"/>
     <col min="18" max="18" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
@@ -5060,10 +5106,10 @@
       <c r="B1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="71"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
@@ -5091,7 +5137,7 @@
       <c r="M1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="73" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="43" t="s">
@@ -5100,11 +5146,13 @@
       <c r="P1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="T1" s="75" t="s">
+      <c r="R1" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="65" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5113,10 +5161,10 @@
       <c r="B2" s="57">
         <v>1</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="58">
         <v>41</v>
       </c>
@@ -5144,7 +5192,7 @@
       <c r="M2" s="58">
         <v>39.869999999999997</v>
       </c>
-      <c r="N2" s="84">
+      <c r="N2" s="74">
         <v>86.34</v>
       </c>
       <c r="O2" s="58">
@@ -5153,7 +5201,7 @@
       <c r="P2" s="58">
         <v>157</v>
       </c>
-      <c r="Q2" s="77">
+      <c r="Q2" s="67">
         <v>268</v>
       </c>
       <c r="R2" s="3">
@@ -5170,10 +5218,10 @@
       <c r="B3" s="60">
         <v>2</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="61">
         <v>40</v>
       </c>
@@ -5201,7 +5249,7 @@
       <c r="M3" s="61">
         <v>39.18</v>
       </c>
-      <c r="N3" s="85">
+      <c r="N3" s="75">
         <v>84.69</v>
       </c>
       <c r="O3" s="61">
@@ -5210,7 +5258,7 @@
       <c r="P3" s="61">
         <v>114</v>
       </c>
-      <c r="Q3" s="78">
+      <c r="Q3" s="68">
         <v>201</v>
       </c>
       <c r="R3" s="3">
@@ -5218,7 +5266,7 @@
         <v>43.781094527363187</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T35" si="1">N3-L3</f>
+        <f>N3-L3</f>
         <v>46.989999999999995</v>
       </c>
     </row>
@@ -5227,10 +5275,10 @@
       <c r="B4" s="60">
         <v>3</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="61">
         <v>51</v>
       </c>
@@ -5258,7 +5306,7 @@
       <c r="M4" s="61">
         <v>33.14</v>
       </c>
-      <c r="N4" s="85">
+      <c r="N4" s="75">
         <v>81.7</v>
       </c>
       <c r="O4" s="61">
@@ -5267,7 +5315,7 @@
       <c r="P4" s="61">
         <v>285</v>
       </c>
-      <c r="Q4" s="78">
+      <c r="Q4" s="68">
         <v>1233</v>
       </c>
       <c r="R4" s="3">
@@ -5275,7 +5323,7 @@
         <v>76.966747769667478</v>
       </c>
       <c r="T4" s="3">
-        <f t="shared" si="1"/>
+        <f>N4-L4</f>
         <v>34.32</v>
       </c>
     </row>
@@ -5284,10 +5332,10 @@
       <c r="B5" s="60">
         <v>4</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="61">
         <v>51</v>
       </c>
@@ -5311,18 +5359,18 @@
         <v>52.33</v>
       </c>
       <c r="M5" s="61"/>
-      <c r="N5" s="85">
+      <c r="N5" s="75">
         <v>91</v>
       </c>
       <c r="O5" s="61"/>
       <c r="P5" s="61"/>
-      <c r="Q5" s="78"/>
+      <c r="Q5" s="68"/>
       <c r="R5" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="1"/>
+        <f>N5-L5</f>
         <v>38.67</v>
       </c>
     </row>
@@ -5331,10 +5379,10 @@
       <c r="B6" s="60">
         <v>5</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="61">
         <v>47</v>
       </c>
@@ -5362,7 +5410,7 @@
       <c r="M6" s="61">
         <v>39.799999999999997</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="75">
         <v>87.36</v>
       </c>
       <c r="O6" s="61">
@@ -5371,7 +5419,7 @@
       <c r="P6" s="61">
         <v>290</v>
       </c>
-      <c r="Q6" s="78">
+      <c r="Q6" s="68">
         <v>913</v>
       </c>
       <c r="R6" s="3">
@@ -5379,7 +5427,7 @@
         <v>68.346111719605702</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="1"/>
+        <f>N6-L6</f>
         <v>38.01</v>
       </c>
     </row>
@@ -5388,10 +5436,10 @@
       <c r="B7" s="60">
         <v>6</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="61">
         <v>51</v>
       </c>
@@ -5419,7 +5467,7 @@
       <c r="M7" s="61">
         <v>37.15</v>
       </c>
-      <c r="N7" s="85">
+      <c r="N7" s="75">
         <v>79.67</v>
       </c>
       <c r="O7" s="61">
@@ -5428,7 +5476,7 @@
       <c r="P7" s="61">
         <v>186</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="Q7" s="68">
         <v>714</v>
       </c>
       <c r="R7" s="3">
@@ -5436,7 +5484,7 @@
         <v>74.089635854341736</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="1"/>
+        <f>N7-L7</f>
         <v>31.97</v>
       </c>
     </row>
@@ -5445,10 +5493,10 @@
       <c r="B8" s="60">
         <v>7</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="61">
         <v>52</v>
       </c>
@@ -5476,7 +5524,7 @@
       <c r="M8" s="61">
         <v>44.06</v>
       </c>
-      <c r="N8" s="85">
+      <c r="N8" s="75">
         <v>88.02</v>
       </c>
       <c r="O8" s="61">
@@ -5485,7 +5533,7 @@
       <c r="P8" s="61">
         <v>207</v>
       </c>
-      <c r="Q8" s="78">
+      <c r="Q8" s="68">
         <v>549</v>
       </c>
       <c r="R8" s="3">
@@ -5493,7 +5541,7 @@
         <v>62.477231329690341</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="1"/>
+        <f>N8-L8</f>
         <v>36.309999999999995</v>
       </c>
     </row>
@@ -5502,10 +5550,10 @@
       <c r="B9" s="60">
         <v>8</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="69"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="61">
         <v>55</v>
       </c>
@@ -5533,7 +5581,7 @@
       <c r="M9" s="61">
         <v>39.200000000000003</v>
       </c>
-      <c r="N9" s="85">
+      <c r="N9" s="75">
         <v>81.680000000000007</v>
       </c>
       <c r="O9" s="61">
@@ -5542,7 +5590,7 @@
       <c r="P9" s="61">
         <v>82</v>
       </c>
-      <c r="Q9" s="78">
+      <c r="Q9" s="68">
         <v>203</v>
       </c>
       <c r="R9" s="3">
@@ -5550,7 +5598,7 @@
         <v>60.098522167487687</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="1"/>
+        <f>N9-L9</f>
         <v>35.660000000000004</v>
       </c>
     </row>
@@ -5559,10 +5607,10 @@
       <c r="B10" s="60">
         <v>9</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="69"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="61">
         <v>58</v>
       </c>
@@ -5590,7 +5638,7 @@
       <c r="M10" s="61">
         <v>42.88</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="75">
         <v>86.02</v>
       </c>
       <c r="O10" s="61">
@@ -5599,7 +5647,7 @@
       <c r="P10" s="61">
         <v>43</v>
       </c>
-      <c r="Q10" s="78">
+      <c r="Q10" s="68">
         <v>166</v>
       </c>
       <c r="R10" s="3">
@@ -5607,7 +5655,7 @@
         <v>74.698795180722882</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="1"/>
+        <f>N10-L10</f>
         <v>26.299999999999997</v>
       </c>
     </row>
@@ -5616,10 +5664,10 @@
       <c r="B11" s="60">
         <v>10</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="69"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="61">
         <v>60</v>
       </c>
@@ -5647,7 +5695,7 @@
       <c r="M11" s="61">
         <v>43.61</v>
       </c>
-      <c r="N11" s="85">
+      <c r="N11" s="75">
         <v>83.02</v>
       </c>
       <c r="O11" s="61">
@@ -5656,7 +5704,7 @@
       <c r="P11" s="61">
         <v>171</v>
       </c>
-      <c r="Q11" s="78">
+      <c r="Q11" s="68">
         <v>823</v>
       </c>
       <c r="R11" s="3">
@@ -5664,7 +5712,7 @@
         <v>79.343863912515189</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="1"/>
+        <f>N11-L11</f>
         <v>25.639999999999993</v>
       </c>
     </row>
@@ -5673,10 +5721,10 @@
       <c r="B12" s="60">
         <v>11</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="61">
         <v>56</v>
       </c>
@@ -5704,7 +5752,7 @@
       <c r="M12" s="61">
         <v>50.53</v>
       </c>
-      <c r="N12" s="85">
+      <c r="N12" s="75">
         <v>90</v>
       </c>
       <c r="O12" s="61">
@@ -5713,7 +5761,7 @@
       <c r="P12" s="61">
         <v>218</v>
       </c>
-      <c r="Q12" s="78">
+      <c r="Q12" s="68">
         <v>616</v>
       </c>
       <c r="R12" s="3">
@@ -5721,7 +5769,7 @@
         <v>64.772727272727266</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="1"/>
+        <f>N12-L12</f>
         <v>30.310000000000002</v>
       </c>
     </row>
@@ -5730,10 +5778,10 @@
       <c r="B13" s="60">
         <v>12</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="69"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="61">
         <v>56</v>
       </c>
@@ -5761,7 +5809,7 @@
       <c r="M13" s="61">
         <v>52.6</v>
       </c>
-      <c r="N13" s="85">
+      <c r="N13" s="75">
         <v>89.34</v>
       </c>
       <c r="O13" s="61">
@@ -5770,7 +5818,7 @@
       <c r="P13" s="61">
         <v>141</v>
       </c>
-      <c r="Q13" s="78">
+      <c r="Q13" s="68">
         <v>437</v>
       </c>
       <c r="R13" s="3">
@@ -5778,7 +5826,7 @@
         <v>67.963386727688786</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="1"/>
+        <f>N13-L13</f>
         <v>24.64</v>
       </c>
     </row>
@@ -5787,10 +5835,10 @@
       <c r="B14" s="60">
         <v>13</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="69"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="61">
         <v>56</v>
       </c>
@@ -5818,7 +5866,7 @@
       <c r="M14" s="61">
         <v>46.4</v>
       </c>
-      <c r="N14" s="85">
+      <c r="N14" s="75">
         <v>84.35</v>
       </c>
       <c r="O14" s="61">
@@ -5827,7 +5875,7 @@
       <c r="P14" s="61">
         <v>114</v>
       </c>
-      <c r="Q14" s="78">
+      <c r="Q14" s="68">
         <v>402</v>
       </c>
       <c r="R14" s="3">
@@ -5835,7 +5883,7 @@
         <v>71.890547263681597</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="1"/>
+        <f>N14-L14</f>
         <v>23.989999999999995</v>
       </c>
     </row>
@@ -5844,10 +5892,10 @@
       <c r="B15" s="60">
         <v>14</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="69"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="61">
         <v>50</v>
       </c>
@@ -5873,14 +5921,14 @@
       <c r="M15" s="61">
         <v>40.450000000000003</v>
       </c>
-      <c r="N15" s="85">
+      <c r="N15" s="75">
         <v>78.81</v>
       </c>
       <c r="O15" s="61"/>
       <c r="P15" s="61">
         <v>139</v>
       </c>
-      <c r="Q15" s="78">
+      <c r="Q15" s="68">
         <v>100000</v>
       </c>
       <c r="R15" s="3">
@@ -5888,7 +5936,7 @@
         <v>99.861999999999995</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="1"/>
+        <f>N15-L15</f>
         <v>16.810000000000002</v>
       </c>
     </row>
@@ -5897,10 +5945,10 @@
       <c r="B16" s="60">
         <v>15</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="69"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="61">
         <v>56</v>
       </c>
@@ -5926,14 +5974,14 @@
       <c r="M16" s="61">
         <v>47.81</v>
       </c>
-      <c r="N16" s="85">
+      <c r="N16" s="75">
         <v>83.09</v>
       </c>
       <c r="O16" s="61"/>
       <c r="P16" s="61">
         <v>170</v>
       </c>
-      <c r="Q16" s="78">
+      <c r="Q16" s="68">
         <v>100000</v>
       </c>
       <c r="R16" s="3">
@@ -5941,7 +5989,7 @@
         <v>99.831000000000003</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="1"/>
+        <f>N16-L16</f>
         <v>13.430000000000007</v>
       </c>
     </row>
@@ -5950,10 +5998,10 @@
       <c r="B17" s="60">
         <v>16</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="61">
         <v>53</v>
       </c>
@@ -5979,14 +6027,14 @@
       <c r="M17" s="61">
         <v>43.84</v>
       </c>
-      <c r="N17" s="85">
+      <c r="N17" s="75">
         <v>82.46</v>
       </c>
       <c r="O17" s="61"/>
       <c r="P17" s="61">
         <v>201</v>
       </c>
-      <c r="Q17" s="78">
+      <c r="Q17" s="68">
         <v>150000</v>
       </c>
       <c r="R17" s="3">
@@ -5994,7 +6042,7 @@
         <v>99.866666666666674</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="1"/>
+        <f>N17-L17</f>
         <v>20.129999999999995</v>
       </c>
     </row>
@@ -6003,10 +6051,10 @@
       <c r="B18" s="60">
         <v>17</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="69"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="61">
         <v>58</v>
       </c>
@@ -6034,7 +6082,7 @@
       <c r="M18" s="61">
         <v>48.22</v>
       </c>
-      <c r="N18" s="85">
+      <c r="N18" s="75">
         <v>88.68</v>
       </c>
       <c r="O18" s="61">
@@ -6043,7 +6091,7 @@
       <c r="P18" s="61">
         <v>397</v>
       </c>
-      <c r="Q18" s="78">
+      <c r="Q18" s="68">
         <v>1335</v>
       </c>
       <c r="R18" s="3">
@@ -6051,7 +6099,7 @@
         <v>70.337078651685388</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="1"/>
+        <f>N18-L18</f>
         <v>29.650000000000006</v>
       </c>
     </row>
@@ -6060,10 +6108,10 @@
       <c r="B19" s="60">
         <v>18</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="69"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="61">
         <v>60</v>
       </c>
@@ -6091,7 +6139,7 @@
       <c r="M19" s="61">
         <v>49.92</v>
       </c>
-      <c r="N19" s="85">
+      <c r="N19" s="75">
         <v>86.68</v>
       </c>
       <c r="O19" s="61">
@@ -6100,7 +6148,7 @@
       <c r="P19" s="61">
         <v>31</v>
       </c>
-      <c r="Q19" s="78">
+      <c r="Q19" s="68">
         <v>1315</v>
       </c>
       <c r="R19" s="3">
@@ -6108,7 +6156,7 @@
         <v>97.718631178707227</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="1"/>
+        <f>N19-L19</f>
         <v>9</v>
       </c>
     </row>
@@ -6117,10 +6165,10 @@
       <c r="B20" s="60">
         <v>19</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="69"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="61">
         <v>59</v>
       </c>
@@ -6148,7 +6196,7 @@
       <c r="M20" s="61">
         <v>46.71</v>
       </c>
-      <c r="N20" s="85">
+      <c r="N20" s="75">
         <v>83</v>
       </c>
       <c r="O20" s="61">
@@ -6157,7 +6205,7 @@
       <c r="P20" s="61">
         <v>137</v>
       </c>
-      <c r="Q20" s="78">
+      <c r="Q20" s="68">
         <v>865</v>
       </c>
       <c r="R20" s="3">
@@ -6165,7 +6213,7 @@
         <v>84.277456647398836</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="1"/>
+        <f>N20-L20</f>
         <v>18.64</v>
       </c>
     </row>
@@ -6174,10 +6222,10 @@
       <c r="B21" s="63">
         <v>20</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="73"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="64">
         <v>56</v>
       </c>
@@ -6205,7 +6253,7 @@
       <c r="M21" s="64">
         <v>41.19</v>
       </c>
-      <c r="N21" s="86">
+      <c r="N21" s="76">
         <v>82.02</v>
       </c>
       <c r="O21" s="64">
@@ -6214,7 +6262,7 @@
       <c r="P21" s="64">
         <v>120</v>
       </c>
-      <c r="Q21" s="79">
+      <c r="Q21" s="69">
         <v>826</v>
       </c>
       <c r="R21" s="3">
@@ -6222,7 +6270,7 @@
         <v>85.593220338983059</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="1"/>
+        <f>N21-L21</f>
         <v>21.319999999999993</v>
       </c>
     </row>
@@ -6233,10 +6281,10 @@
       <c r="B22" s="45">
         <v>21</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="46">
         <v>57</v>
       </c>
@@ -6264,7 +6312,7 @@
       <c r="M22" s="54">
         <v>9.25</v>
       </c>
-      <c r="N22" s="87">
+      <c r="N22" s="77">
         <v>76.36</v>
       </c>
       <c r="O22" s="55">
@@ -6273,18 +6321,18 @@
       <c r="P22" s="50">
         <v>11</v>
       </c>
-      <c r="Q22" s="80">
+      <c r="Q22" s="70">
         <v>595</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" ref="R22:R30" si="2" xml:space="preserve"> (Q22-P22+1)/(Q22)*100</f>
+        <f xml:space="preserve"> (Q22-P22+1)/(Q22)*100</f>
         <v>98.319327731092429</v>
       </c>
-      <c r="S22" s="82" t="s">
+      <c r="S22" s="72" t="s">
         <v>39</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="1"/>
+        <f>N22-L22</f>
         <v>16.32</v>
       </c>
     </row>
@@ -6295,10 +6343,10 @@
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="12">
         <v>58</v>
       </c>
@@ -6326,7 +6374,7 @@
       <c r="M23" s="17">
         <v>30.77</v>
       </c>
-      <c r="N23" s="85">
+      <c r="N23" s="75">
         <v>73.34</v>
       </c>
       <c r="O23" s="18">
@@ -6335,18 +6383,18 @@
       <c r="P23" s="19">
         <v>10</v>
       </c>
-      <c r="Q23" s="81">
+      <c r="Q23" s="71">
         <v>88</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> (Q23-P23+1)/(Q23)*100</f>
         <v>89.772727272727266</v>
       </c>
-      <c r="S23" s="82" t="s">
+      <c r="S23" s="72" t="s">
         <v>39</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="1"/>
+        <f>N23-L23</f>
         <v>8.9900000000000091</v>
       </c>
     </row>
@@ -6357,10 +6405,10 @@
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="12">
         <v>64</v>
       </c>
@@ -6388,7 +6436,7 @@
       <c r="M24" s="17">
         <v>26.27</v>
       </c>
-      <c r="N24" s="85">
+      <c r="N24" s="75">
         <v>77.680000000000007</v>
       </c>
       <c r="O24" s="18">
@@ -6397,30 +6445,32 @@
       <c r="P24" s="19">
         <v>6</v>
       </c>
-      <c r="Q24" s="81">
+      <c r="Q24" s="71">
         <v>52</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> (Q24-P24+1)/(Q24)*100</f>
         <v>90.384615384615387</v>
       </c>
-      <c r="S24" s="82" t="s">
+      <c r="S24" s="72" t="s">
         <v>42</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="1"/>
+        <f>N24-L24</f>
         <v>9.6500000000000057</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
+      <c r="A25" s="31">
+        <v>44857</v>
+      </c>
       <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="12">
         <v>63</v>
       </c>
@@ -6448,7 +6498,7 @@
       <c r="M25" s="17">
         <v>35.83</v>
       </c>
-      <c r="N25" s="85">
+      <c r="N25" s="75">
         <v>62.03</v>
       </c>
       <c r="O25" s="18">
@@ -6457,51 +6507,80 @@
       <c r="P25" s="19">
         <v>3</v>
       </c>
-      <c r="Q25" s="81">
+      <c r="Q25" s="71">
         <v>26</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> (Q25-P25+1)/(Q25)*100</f>
         <v>92.307692307692307</v>
       </c>
-      <c r="S25" s="82" t="s">
+      <c r="S25" s="72" t="s">
         <v>42</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="1"/>
+        <f>N25-L25</f>
         <v>0.32999999999999829</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="3">
+      <c r="A26" s="31">
+        <v>44871</v>
+      </c>
+      <c r="B26" s="90">
         <v>25</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="81"/>
-      <c r="R26" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="82"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="12">
+        <v>63</v>
+      </c>
+      <c r="F26" s="13">
+        <v>45</v>
+      </c>
+      <c r="G26" s="14">
+        <v>18</v>
+      </c>
+      <c r="H26" s="32">
+        <v>2</v>
+      </c>
+      <c r="I26" s="19">
+        <v>69</v>
+      </c>
+      <c r="J26" s="28">
+        <v>-2.64</v>
+      </c>
+      <c r="K26" s="33">
+        <v>3</v>
+      </c>
+      <c r="L26" s="16">
+        <v>66.36</v>
+      </c>
+      <c r="M26" s="17">
+        <v>47.2</v>
+      </c>
+      <c r="N26" s="75">
+        <v>75.02</v>
+      </c>
+      <c r="O26" s="18">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="P26" s="19">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="71">
+        <v>40</v>
+      </c>
+      <c r="R26" s="3">
+        <v>85</v>
+      </c>
+      <c r="S26" s="72" t="s">
+        <v>42</v>
+      </c>
       <c r="T26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>N26-L26</f>
+        <v>8.6599999999999966</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -6509,10 +6588,10 @@
       <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="68"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
       <c r="G27" s="14"/>
@@ -6522,17 +6601,17 @@
       <c r="K27" s="33"/>
       <c r="L27" s="16"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="85"/>
+      <c r="N27" s="75"/>
       <c r="O27" s="18"/>
       <c r="P27" s="19"/>
-      <c r="Q27" s="81"/>
+      <c r="Q27" s="71"/>
       <c r="R27" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> (Q27-P27+1)/(Q27)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="82"/>
+      <c r="S27" s="72"/>
       <c r="T27" s="3">
-        <f t="shared" si="1"/>
+        <f>N27-L27</f>
         <v>0</v>
       </c>
     </row>
@@ -6541,10 +6620,10 @@
       <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
       <c r="G28" s="14"/>
@@ -6554,17 +6633,17 @@
       <c r="K28" s="33"/>
       <c r="L28" s="16"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="85"/>
+      <c r="N28" s="75"/>
       <c r="O28" s="18"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="81"/>
+      <c r="Q28" s="71"/>
       <c r="R28" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> (Q28-P28+1)/(Q28)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S28" s="82"/>
+      <c r="S28" s="72"/>
       <c r="T28" s="3">
-        <f t="shared" si="1"/>
+        <f>N28-L28</f>
         <v>0</v>
       </c>
     </row>
@@ -6573,10 +6652,10 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="68"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
@@ -6586,17 +6665,17 @@
       <c r="K29" s="33"/>
       <c r="L29" s="16"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="85"/>
+      <c r="N29" s="75"/>
       <c r="O29" s="18"/>
       <c r="P29" s="19"/>
-      <c r="Q29" s="81"/>
+      <c r="Q29" s="71"/>
       <c r="R29" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> (Q29-P29+1)/(Q29)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="82"/>
+      <c r="S29" s="72"/>
       <c r="T29" s="3">
-        <f t="shared" si="1"/>
+        <f>N29-L29</f>
         <v>0</v>
       </c>
     </row>
@@ -6605,10 +6684,10 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="68"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -6618,17 +6697,17 @@
       <c r="K30" s="33"/>
       <c r="L30" s="16"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="85"/>
+      <c r="N30" s="75"/>
       <c r="O30" s="18"/>
       <c r="P30" s="19"/>
-      <c r="Q30" s="81"/>
+      <c r="Q30" s="71"/>
       <c r="R30" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f xml:space="preserve"> (Q30-P30+1)/(Q30)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="82"/>
+      <c r="S30" s="72"/>
       <c r="T30" s="3">
-        <f t="shared" si="1"/>
+        <f>N30-L30</f>
         <v>0</v>
       </c>
     </row>
@@ -6637,10 +6716,10 @@
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="74"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
@@ -6650,16 +6729,16 @@
       <c r="K31" s="33"/>
       <c r="L31" s="16"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="85"/>
+      <c r="N31" s="75"/>
       <c r="O31" s="18"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="81"/>
+      <c r="Q31" s="71"/>
       <c r="R31" s="3" t="e">
         <f xml:space="preserve"> (P31-O31+1)/(P31)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="1"/>
+        <f>N31-L31</f>
         <v>0</v>
       </c>
     </row>
@@ -6668,10 +6747,10 @@
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="74"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
@@ -6681,16 +6760,16 @@
       <c r="K32" s="33"/>
       <c r="L32" s="16"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="85"/>
+      <c r="N32" s="75"/>
       <c r="O32" s="18"/>
       <c r="P32" s="19"/>
-      <c r="Q32" s="81"/>
+      <c r="Q32" s="71"/>
       <c r="R32" s="3" t="e">
         <f xml:space="preserve"> (P32-O32+1)/(P32)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="3">
-        <f t="shared" si="1"/>
+        <f>N32-L32</f>
         <v>0</v>
       </c>
     </row>
@@ -6699,10 +6778,10 @@
       <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="74"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
@@ -6712,16 +6791,16 @@
       <c r="K33" s="33"/>
       <c r="L33" s="16"/>
       <c r="M33" s="17"/>
-      <c r="N33" s="85"/>
+      <c r="N33" s="75"/>
       <c r="O33" s="18"/>
       <c r="P33" s="19"/>
-      <c r="Q33" s="81"/>
+      <c r="Q33" s="71"/>
       <c r="R33" s="3" t="e">
         <f xml:space="preserve"> (P33-O33+1)/(P33)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="3">
-        <f t="shared" si="1"/>
+        <f>N33-L33</f>
         <v>0</v>
       </c>
     </row>
@@ -6730,10 +6809,10 @@
       <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="74"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
@@ -6743,16 +6822,16 @@
       <c r="K34" s="33"/>
       <c r="L34" s="16"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="85"/>
+      <c r="N34" s="75"/>
       <c r="O34" s="18"/>
       <c r="P34" s="19"/>
-      <c r="Q34" s="81"/>
+      <c r="Q34" s="71"/>
       <c r="R34" s="3" t="e">
         <f xml:space="preserve"> (P34-O34+1)/(P34)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" si="1"/>
+        <f>N34-L34</f>
         <v>0</v>
       </c>
     </row>
@@ -6761,62 +6840,62 @@
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="70"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="12">
-        <f t="shared" ref="E35:O35" si="3">AVERAGE(E2:E34)</f>
-        <v>54.5</v>
+        <f t="shared" ref="E35:O35" si="1">AVERAGE(E2:E34)</f>
+        <v>54.84</v>
       </c>
       <c r="F35" s="13">
-        <f t="shared" si="3"/>
-        <v>40.695652173913047</v>
+        <f t="shared" si="1"/>
+        <v>40.875</v>
       </c>
       <c r="G35" s="14">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>14.16</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="3"/>
-        <v>10.5</v>
+        <f t="shared" si="1"/>
+        <v>10.16</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="3"/>
-        <v>60.458333333333336</v>
+        <f t="shared" si="1"/>
+        <v>60.8</v>
       </c>
       <c r="J35" s="28">
-        <f t="shared" si="3"/>
-        <v>-3.0566666666666666</v>
+        <f t="shared" si="1"/>
+        <v>-3.04</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="3"/>
-        <v>17.55</v>
+        <f t="shared" si="1"/>
+        <v>16.857142857142858</v>
       </c>
       <c r="L35" s="16">
-        <f t="shared" si="3"/>
-        <v>57.484583333333326</v>
+        <f t="shared" si="1"/>
+        <v>57.83959999999999</v>
       </c>
       <c r="M35" s="17">
-        <f t="shared" si="3"/>
-        <v>40.377391304347832</v>
-      </c>
-      <c r="N35" s="85">
-        <f t="shared" si="3"/>
-        <v>82.805833333333325</v>
+        <f t="shared" si="1"/>
+        <v>40.661666666666676</v>
+      </c>
+      <c r="N35" s="75">
+        <f t="shared" si="1"/>
+        <v>82.494399999999985</v>
       </c>
       <c r="O35" s="18">
-        <f t="shared" si="3"/>
-        <v>72.873500000000007</v>
+        <f t="shared" si="1"/>
+        <v>72.804761904761904</v>
       </c>
       <c r="P35" s="19">
         <f>AVERAGE(P2:P34)</f>
-        <v>140.56521739130434</v>
-      </c>
-      <c r="Q35" s="81"/>
+        <v>135</v>
+      </c>
+      <c r="Q35" s="71"/>
       <c r="T35" s="3">
-        <f t="shared" si="1"/>
-        <v>25.321249999999999</v>
+        <f>N35-L35</f>
+        <v>24.654799999999994</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -6830,7 +6909,7 @@
       <c r="K36" s="23"/>
       <c r="L36" s="24"/>
       <c r="M36" s="25"/>
-      <c r="N36" s="88"/>
+      <c r="N36" s="78"/>
       <c r="O36" s="26"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
@@ -6846,7 +6925,7 @@
       <c r="K37" s="23"/>
       <c r="L37" s="24"/>
       <c r="M37" s="25"/>
-      <c r="N37" s="88"/>
+      <c r="N37" s="78"/>
       <c r="O37" s="26"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
@@ -6861,7 +6940,7 @@
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="25"/>
-      <c r="N38" s="88"/>
+      <c r="N38" s="78"/>
       <c r="O38" s="26"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
@@ -6876,7 +6955,7 @@
       <c r="K39" s="23"/>
       <c r="L39" s="24"/>
       <c r="M39" s="25"/>
-      <c r="N39" s="88"/>
+      <c r="N39" s="78"/>
       <c r="O39" s="26"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="27"/>
@@ -6891,7 +6970,7 @@
       <c r="K40" s="23"/>
       <c r="L40" s="24"/>
       <c r="M40" s="25"/>
-      <c r="N40" s="88"/>
+      <c r="N40" s="78"/>
       <c r="O40" s="26"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="27"/>
@@ -6906,23 +6985,22 @@
       <c r="K41" s="23"/>
       <c r="L41" s="24"/>
       <c r="M41" s="25"/>
-      <c r="N41" s="88"/>
+      <c r="N41" s="78"/>
       <c r="O41" s="26"/>
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -6939,15 +7017,16 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M14">
     <cfRule type="colorScale" priority="52">
@@ -7028,23 +7107,23 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="54" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:P24 P26:P30">
-    <cfRule type="cellIs" dxfId="14" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="33" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:S30">
-    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:S30">
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7103,7 +7182,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="28" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7174,7 +7253,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="64" operator="greaterThan">
       <formula>$F$35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7238,7 +7317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="iconSet" priority="11">
+    <cfRule type="iconSet" priority="67">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7247,7 +7326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7257,12 +7336,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82A483C-CB59-4D19-AE8C-F7CC55786BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA795DE-385B-48C6-85A6-A8711E1CD71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Test Name</t>
   </si>
@@ -543,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,19 +736,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,20 +765,508 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -830,6 +1325,88 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1121,6 +1698,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>66.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.01</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>83.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,6 +2130,12 @@
                 <c:pt idx="24">
                   <c:v>71.430000000000007</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>68.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86.15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1872,7 +2461,7 @@
                   <c:v>8.6599999999999966</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>14.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
@@ -2259,10 +2848,10 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>84.782608695652172</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -5073,8 +5662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5106,10 +5695,10 @@
       <c r="B1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="85"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
@@ -5149,7 +5738,7 @@
       <c r="Q1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="91" t="s">
+      <c r="R1" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T1" s="65" t="s">
@@ -5161,10 +5750,10 @@
       <c r="B2" s="57">
         <v>1</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="58">
         <v>41</v>
       </c>
@@ -5209,7 +5798,7 @@
         <v>41.791044776119399</v>
       </c>
       <c r="T2" s="3">
-        <f>N2-L2</f>
+        <f t="shared" ref="T2:T35" si="1">N2-L2</f>
         <v>50.63</v>
       </c>
     </row>
@@ -5218,10 +5807,10 @@
       <c r="B3" s="60">
         <v>2</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="84"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="61">
         <v>40</v>
       </c>
@@ -5266,7 +5855,7 @@
         <v>43.781094527363187</v>
       </c>
       <c r="T3" s="3">
-        <f>N3-L3</f>
+        <f t="shared" si="1"/>
         <v>46.989999999999995</v>
       </c>
     </row>
@@ -5275,10 +5864,10 @@
       <c r="B4" s="60">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="61">
         <v>51</v>
       </c>
@@ -5323,7 +5912,7 @@
         <v>76.966747769667478</v>
       </c>
       <c r="T4" s="3">
-        <f>N4-L4</f>
+        <f t="shared" si="1"/>
         <v>34.32</v>
       </c>
     </row>
@@ -5332,10 +5921,10 @@
       <c r="B5" s="60">
         <v>4</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="84"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="61">
         <v>51</v>
       </c>
@@ -5370,7 +5959,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T5" s="3">
-        <f>N5-L5</f>
+        <f t="shared" si="1"/>
         <v>38.67</v>
       </c>
     </row>
@@ -5379,10 +5968,10 @@
       <c r="B6" s="60">
         <v>5</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="84"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="61">
         <v>47</v>
       </c>
@@ -5427,7 +6016,7 @@
         <v>68.346111719605702</v>
       </c>
       <c r="T6" s="3">
-        <f>N6-L6</f>
+        <f t="shared" si="1"/>
         <v>38.01</v>
       </c>
     </row>
@@ -5436,10 +6025,10 @@
       <c r="B7" s="60">
         <v>6</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="61">
         <v>51</v>
       </c>
@@ -5484,7 +6073,7 @@
         <v>74.089635854341736</v>
       </c>
       <c r="T7" s="3">
-        <f>N7-L7</f>
+        <f t="shared" si="1"/>
         <v>31.97</v>
       </c>
     </row>
@@ -5493,10 +6082,10 @@
       <c r="B8" s="60">
         <v>7</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="61">
         <v>52</v>
       </c>
@@ -5541,7 +6130,7 @@
         <v>62.477231329690341</v>
       </c>
       <c r="T8" s="3">
-        <f>N8-L8</f>
+        <f t="shared" si="1"/>
         <v>36.309999999999995</v>
       </c>
     </row>
@@ -5550,10 +6139,10 @@
       <c r="B9" s="60">
         <v>8</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="61">
         <v>55</v>
       </c>
@@ -5598,7 +6187,7 @@
         <v>60.098522167487687</v>
       </c>
       <c r="T9" s="3">
-        <f>N9-L9</f>
+        <f t="shared" si="1"/>
         <v>35.660000000000004</v>
       </c>
     </row>
@@ -5607,10 +6196,10 @@
       <c r="B10" s="60">
         <v>9</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="61">
         <v>58</v>
       </c>
@@ -5655,7 +6244,7 @@
         <v>74.698795180722882</v>
       </c>
       <c r="T10" s="3">
-        <f>N10-L10</f>
+        <f t="shared" si="1"/>
         <v>26.299999999999997</v>
       </c>
     </row>
@@ -5664,10 +6253,10 @@
       <c r="B11" s="60">
         <v>10</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="61">
         <v>60</v>
       </c>
@@ -5712,7 +6301,7 @@
         <v>79.343863912515189</v>
       </c>
       <c r="T11" s="3">
-        <f>N11-L11</f>
+        <f t="shared" si="1"/>
         <v>25.639999999999993</v>
       </c>
     </row>
@@ -5721,10 +6310,10 @@
       <c r="B12" s="60">
         <v>11</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="61">
         <v>56</v>
       </c>
@@ -5769,7 +6358,7 @@
         <v>64.772727272727266</v>
       </c>
       <c r="T12" s="3">
-        <f>N12-L12</f>
+        <f t="shared" si="1"/>
         <v>30.310000000000002</v>
       </c>
     </row>
@@ -5778,10 +6367,10 @@
       <c r="B13" s="60">
         <v>12</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="61">
         <v>56</v>
       </c>
@@ -5826,7 +6415,7 @@
         <v>67.963386727688786</v>
       </c>
       <c r="T13" s="3">
-        <f>N13-L13</f>
+        <f t="shared" si="1"/>
         <v>24.64</v>
       </c>
     </row>
@@ -5835,10 +6424,10 @@
       <c r="B14" s="60">
         <v>13</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="61">
         <v>56</v>
       </c>
@@ -5883,7 +6472,7 @@
         <v>71.890547263681597</v>
       </c>
       <c r="T14" s="3">
-        <f>N14-L14</f>
+        <f t="shared" si="1"/>
         <v>23.989999999999995</v>
       </c>
     </row>
@@ -5892,10 +6481,10 @@
       <c r="B15" s="60">
         <v>14</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="84"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="61">
         <v>50</v>
       </c>
@@ -5936,7 +6525,7 @@
         <v>99.861999999999995</v>
       </c>
       <c r="T15" s="3">
-        <f>N15-L15</f>
+        <f t="shared" si="1"/>
         <v>16.810000000000002</v>
       </c>
     </row>
@@ -5945,10 +6534,10 @@
       <c r="B16" s="60">
         <v>15</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="61">
         <v>56</v>
       </c>
@@ -5989,7 +6578,7 @@
         <v>99.831000000000003</v>
       </c>
       <c r="T16" s="3">
-        <f>N16-L16</f>
+        <f t="shared" si="1"/>
         <v>13.430000000000007</v>
       </c>
     </row>
@@ -5998,10 +6587,10 @@
       <c r="B17" s="60">
         <v>16</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="61">
         <v>53</v>
       </c>
@@ -6042,7 +6631,7 @@
         <v>99.866666666666674</v>
       </c>
       <c r="T17" s="3">
-        <f>N17-L17</f>
+        <f t="shared" si="1"/>
         <v>20.129999999999995</v>
       </c>
     </row>
@@ -6051,10 +6640,10 @@
       <c r="B18" s="60">
         <v>17</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="61">
         <v>58</v>
       </c>
@@ -6099,7 +6688,7 @@
         <v>70.337078651685388</v>
       </c>
       <c r="T18" s="3">
-        <f>N18-L18</f>
+        <f t="shared" si="1"/>
         <v>29.650000000000006</v>
       </c>
     </row>
@@ -6108,10 +6697,10 @@
       <c r="B19" s="60">
         <v>18</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="84"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="61">
         <v>60</v>
       </c>
@@ -6156,7 +6745,7 @@
         <v>97.718631178707227</v>
       </c>
       <c r="T19" s="3">
-        <f>N19-L19</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -6165,10 +6754,10 @@
       <c r="B20" s="60">
         <v>19</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="84"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="61">
         <v>59</v>
       </c>
@@ -6213,7 +6802,7 @@
         <v>84.277456647398836</v>
       </c>
       <c r="T20" s="3">
-        <f>N20-L20</f>
+        <f t="shared" si="1"/>
         <v>18.64</v>
       </c>
     </row>
@@ -6222,10 +6811,10 @@
       <c r="B21" s="63">
         <v>20</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="64">
         <v>56</v>
       </c>
@@ -6270,7 +6859,7 @@
         <v>85.593220338983059</v>
       </c>
       <c r="T21" s="3">
-        <f>N21-L21</f>
+        <f t="shared" si="1"/>
         <v>21.319999999999993</v>
       </c>
     </row>
@@ -6281,10 +6870,10 @@
       <c r="B22" s="45">
         <v>21</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="89"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="46">
         <v>57</v>
       </c>
@@ -6332,7 +6921,7 @@
         <v>39</v>
       </c>
       <c r="T22" s="3">
-        <f>N22-L22</f>
+        <f t="shared" si="1"/>
         <v>16.32</v>
       </c>
     </row>
@@ -6343,10 +6932,10 @@
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="12">
         <v>58</v>
       </c>
@@ -6394,7 +6983,7 @@
         <v>39</v>
       </c>
       <c r="T23" s="3">
-        <f>N23-L23</f>
+        <f t="shared" si="1"/>
         <v>8.9900000000000091</v>
       </c>
     </row>
@@ -6405,10 +6994,10 @@
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="12">
         <v>64</v>
       </c>
@@ -6456,7 +7045,7 @@
         <v>42</v>
       </c>
       <c r="T24" s="3">
-        <f>N24-L24</f>
+        <f t="shared" si="1"/>
         <v>9.6500000000000057</v>
       </c>
     </row>
@@ -6467,10 +7056,10 @@
       <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="12">
         <v>63</v>
       </c>
@@ -6518,7 +7107,7 @@
         <v>42</v>
       </c>
       <c r="T25" s="3">
-        <f>N25-L25</f>
+        <f t="shared" si="1"/>
         <v>0.32999999999999829</v>
       </c>
     </row>
@@ -6526,13 +7115,13 @@
       <c r="A26" s="31">
         <v>44871</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="81"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="12">
         <v>63</v>
       </c>
@@ -6573,77 +7162,138 @@
         <v>40</v>
       </c>
       <c r="R26" s="3">
+        <f xml:space="preserve"> (Q26-P26+1)/(Q26)*100</f>
         <v>85</v>
       </c>
       <c r="S26" s="72" t="s">
         <v>42</v>
       </c>
       <c r="T26" s="3">
-        <f>N26-L26</f>
+        <f t="shared" si="1"/>
         <v>8.6599999999999966</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="3">
+      <c r="A27" s="31">
+        <v>44874</v>
+      </c>
+      <c r="B27" s="92">
         <v>26</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="3" t="e">
+      <c r="D27" s="85"/>
+      <c r="E27" s="12">
+        <v>61</v>
+      </c>
+      <c r="F27" s="13">
+        <v>42</v>
+      </c>
+      <c r="G27" s="14">
+        <v>19</v>
+      </c>
+      <c r="H27" s="32">
+        <v>4</v>
+      </c>
+      <c r="I27" s="19">
+        <v>62</v>
+      </c>
+      <c r="J27" s="28">
+        <v>-0.99</v>
+      </c>
+      <c r="K27" s="33">
+        <v>5</v>
+      </c>
+      <c r="L27" s="16">
+        <v>61.01</v>
+      </c>
+      <c r="M27" s="17">
+        <v>44.62</v>
+      </c>
+      <c r="N27" s="17">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="O27" s="18">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="P27" s="19">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>46</v>
+      </c>
+      <c r="R27" s="3">
         <f xml:space="preserve"> (Q27-P27+1)/(Q27)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="72"/>
+        <v>84.782608695652172</v>
+      </c>
+      <c r="S27" s="80" t="s">
+        <v>42</v>
+      </c>
       <c r="T27" s="3">
-        <f>N27-L27</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14.000000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="3">
+      <c r="A28" s="31">
+        <v>44878</v>
+      </c>
+      <c r="B28" s="92">
         <v>27</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="3" t="e">
+      <c r="D28" s="91"/>
+      <c r="E28" s="12">
+        <v>65</v>
+      </c>
+      <c r="F28" s="13">
+        <v>56</v>
+      </c>
+      <c r="G28" s="14">
+        <v>9</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>85</v>
+      </c>
+      <c r="J28" s="28">
+        <v>-1.65</v>
+      </c>
+      <c r="K28" s="33">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>83.35</v>
+      </c>
+      <c r="M28" s="17">
+        <v>45.78</v>
+      </c>
+      <c r="N28" s="17">
+        <v>83.35</v>
+      </c>
+      <c r="O28" s="18">
+        <v>86.15</v>
+      </c>
+      <c r="P28" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>34</v>
+      </c>
+      <c r="R28" s="3">
         <f xml:space="preserve"> (Q28-P28+1)/(Q28)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="72"/>
+        <v>100</v>
+      </c>
+      <c r="S28" s="80" t="s">
+        <v>42</v>
+      </c>
       <c r="T28" s="3">
-        <f>N28-L28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6652,10 +7302,10 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="81"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
@@ -6675,7 +7325,7 @@
       </c>
       <c r="S29" s="72"/>
       <c r="T29" s="3">
-        <f>N29-L29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6684,10 +7334,10 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="81"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -6707,7 +7357,7 @@
       </c>
       <c r="S30" s="72"/>
       <c r="T30" s="3">
-        <f>N30-L30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6716,10 +7366,10 @@
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="82"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
       <c r="G31" s="14"/>
@@ -6738,7 +7388,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T31" s="3">
-        <f>N31-L31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6747,10 +7397,10 @@
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="82"/>
+      <c r="D32" s="91"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
       <c r="G32" s="14"/>
@@ -6769,7 +7419,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T32" s="3">
-        <f>N32-L32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6778,10 +7428,10 @@
       <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="82"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
@@ -6800,7 +7450,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T33" s="3">
-        <f>N33-L33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6809,10 +7459,10 @@
       <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="82"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
@@ -6831,7 +7481,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="T34" s="3">
-        <f>N34-L34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6840,62 +7490,62 @@
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="83"/>
+      <c r="D35" s="87"/>
       <c r="E35" s="12">
-        <f t="shared" ref="E35:O35" si="1">AVERAGE(E2:E34)</f>
-        <v>54.84</v>
+        <f t="shared" ref="E35:O35" si="2">AVERAGE(E2:E34)</f>
+        <v>55.444444444444443</v>
       </c>
       <c r="F35" s="13">
-        <f t="shared" si="1"/>
-        <v>40.875</v>
+        <f t="shared" si="2"/>
+        <v>41.5</v>
       </c>
       <c r="G35" s="14">
-        <f t="shared" si="1"/>
-        <v>14.16</v>
+        <f t="shared" si="2"/>
+        <v>14.148148148148149</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="1"/>
-        <v>10.16</v>
+        <f t="shared" si="2"/>
+        <v>9.5555555555555554</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="1"/>
-        <v>60.8</v>
+        <f t="shared" si="2"/>
+        <v>61.74074074074074</v>
       </c>
       <c r="J35" s="28">
-        <f t="shared" si="1"/>
-        <v>-3.04</v>
+        <f t="shared" si="2"/>
+        <v>-2.9125925925925924</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="1"/>
-        <v>16.857142857142858</v>
+        <f t="shared" si="2"/>
+        <v>15.608695652173912</v>
       </c>
       <c r="L35" s="16">
-        <f t="shared" si="1"/>
-        <v>57.83959999999999</v>
+        <f t="shared" si="2"/>
+        <v>58.901851851851838</v>
       </c>
       <c r="M35" s="17">
-        <f t="shared" si="1"/>
-        <v>40.661666666666676</v>
+        <f t="shared" si="2"/>
+        <v>41.010769230769242</v>
       </c>
       <c r="N35" s="75">
-        <f t="shared" si="1"/>
-        <v>82.494399999999985</v>
+        <f t="shared" si="2"/>
+        <v>82.248888888888885</v>
       </c>
       <c r="O35" s="18">
-        <f t="shared" si="1"/>
-        <v>72.804761904761904</v>
+        <f t="shared" si="2"/>
+        <v>73.213043478260872</v>
       </c>
       <c r="P35" s="19">
         <f>AVERAGE(P2:P34)</f>
-        <v>135</v>
+        <v>124.96153846153847</v>
       </c>
       <c r="Q35" s="71"/>
       <c r="T35" s="3">
-        <f>N35-L35</f>
-        <v>24.654799999999994</v>
+        <f t="shared" si="1"/>
+        <v>23.347037037037047</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -6992,15 +7642,16 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -7017,19 +7668,18 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M14">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7040,8 +7690,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M24 M26:M30">
-    <cfRule type="colorScale" priority="49">
+  <conditionalFormatting sqref="M22:M24 M26 M29:M30">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7052,8 +7702,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L24 L26:L30">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="L22:L24 L26 L29:L30">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7064,8 +7714,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O24 O26:O30">
-    <cfRule type="iconSet" priority="47">
+  <conditionalFormatting sqref="O22:O24 O26 O29:O30">
+    <cfRule type="iconSet" priority="85">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7073,8 +7723,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I24 I26:I30">
-    <cfRule type="dataBar" priority="46">
+  <conditionalFormatting sqref="I22:I24 I26 I29:I30">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7087,8 +7737,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J24 J26:J30">
-    <cfRule type="iconSet" priority="53">
+  <conditionalFormatting sqref="J22:J24 J26 J29:J30">
+    <cfRule type="iconSet" priority="91">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7096,8 +7746,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F24 F26:F30">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="F22:F24 F26 F29:F30">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7107,28 +7757,28 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="92" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P24 P26:P30">
-    <cfRule type="cellIs" dxfId="6" priority="33" operator="between">
+  <conditionalFormatting sqref="P22:P24 P26 P29:P30">
+    <cfRule type="cellIs" dxfId="60" priority="71" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S30">
-    <cfRule type="cellIs" dxfId="5" priority="32" operator="equal">
+  <conditionalFormatting sqref="S22:S26 S29:S30">
+    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S30">
-    <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
+  <conditionalFormatting sqref="S22:S26 S29:S30">
+    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:L34">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7140,7 +7790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31:O34">
-    <cfRule type="iconSet" priority="24">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7149,7 +7799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I34">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7163,7 +7813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:J34">
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7172,7 +7822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F34">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7182,12 +7832,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="66" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:M34">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7199,7 +7849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L21">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7211,7 +7861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O21">
-    <cfRule type="iconSet" priority="60">
+    <cfRule type="iconSet" priority="98">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7220,7 +7870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I21">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7234,7 +7884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J21">
-    <cfRule type="iconSet" priority="62">
+    <cfRule type="iconSet" priority="100">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7243,7 +7893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="colorScale" priority="63">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7253,12 +7903,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="102" operator="greaterThan">
       <formula>$F$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M21">
-    <cfRule type="colorScale" priority="66">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7270,7 +7920,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7282,7 +7932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7294,7 +7944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="iconSet" priority="12">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7303,7 +7953,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7317,7 +7967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="iconSet" priority="67">
+    <cfRule type="iconSet" priority="105">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7326,7 +7976,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7336,18 +7986,18 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="106" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="44" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T35">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7359,7 +8009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7370,8 +8020,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="N1:N26 N29:N1048576">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7380,6 +8030,204 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6200BEA9-BA40-4F1D-A0BC-58C35B8CE181}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="37" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="between">
+      <formula>1</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
+    <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A89FECAD-39E5-497E-AB6D-687D0589247B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>1</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7397,7 +8245,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I22:I24 I26:I30</xm:sqref>
+          <xm:sqref>I22:I24 I26 I29:I30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C961B77-F7AC-473E-A0E7-99E2D3513BB3}">
@@ -7432,6 +8280,28 @@
           </x14:cfRule>
           <xm:sqref>I25</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6200BEA9-BA40-4F1D-A0BC-58C35B8CE181}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A89FECAD-39E5-497E-AB6D-687D0589247B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I28</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA795DE-385B-48C6-85A6-A8711E1CD71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A66A9F-9ADE-4E76-846D-5B36B1F78AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Test Name</t>
   </si>
@@ -197,6 +190,12 @@
   </si>
   <si>
     <t>#Percentile</t>
+  </si>
+  <si>
+    <t>GO CLASSES MOCK - 2</t>
+  </si>
+  <si>
+    <t>GO CLASSES MOCK - 3</t>
   </si>
 </sst>
 </file>
@@ -740,22 +739,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,525 +761,21 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1363,20 +855,19 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1391,22 +882,26 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1620,10 +1115,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$34</c:f>
+              <c:f>Sheet1!$L$2:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>35.71</c:v>
                 </c:pt>
@@ -1704,6 +1199,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>83.35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57.33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2063,10 +1564,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$34</c:f>
+              <c:f>Sheet1!$O$2:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>65.849999999999994</c:v>
                 </c:pt>
@@ -2381,10 +1882,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$34</c:f>
+              <c:f>Sheet1!$T$2:$T$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>50.63</c:v>
                 </c:pt>
@@ -2472,16 +1973,16 @@
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2768,10 +2269,10 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$41</c:f>
+              <c:f>Sheet1!$R$2:$R$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>41.791044776119399</c:v>
                 </c:pt>
@@ -2860,7 +2361,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>80.808080808080803</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -2869,6 +2370,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5220,13 +4736,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5256,13 +4772,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>230393</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>144556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542813</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>144556</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5292,13 +4808,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>354106</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5328,13 +4844,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>103093</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>161365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>35860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5660,10 +5176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5695,10 +5211,10 @@
       <c r="B1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="88"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
@@ -5750,10 +5266,10 @@
       <c r="B2" s="57">
         <v>1</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="58">
         <v>41</v>
       </c>
@@ -5798,7 +5314,7 @@
         <v>41.791044776119399</v>
       </c>
       <c r="T2" s="3">
-        <f t="shared" ref="T2:T35" si="1">N2-L2</f>
+        <f t="shared" ref="T2:T39" si="1">N2-L2</f>
         <v>50.63</v>
       </c>
     </row>
@@ -6811,10 +6327,10 @@
       <c r="B21" s="63">
         <v>20</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="64">
         <v>56</v>
       </c>
@@ -6870,10 +6386,10 @@
       <c r="B22" s="45">
         <v>21</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="83"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="46">
         <v>57</v>
       </c>
@@ -6914,7 +6430,7 @@
         <v>595</v>
       </c>
       <c r="R22" s="3">
-        <f xml:space="preserve"> (Q22-P22+1)/(Q22)*100</f>
+        <f t="shared" ref="R22:R39" si="2" xml:space="preserve"> (Q22-P22+1)/(Q22)*100</f>
         <v>98.319327731092429</v>
       </c>
       <c r="S22" s="72" t="s">
@@ -6932,10 +6448,10 @@
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="85"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="12">
         <v>58</v>
       </c>
@@ -6976,7 +6492,7 @@
         <v>88</v>
       </c>
       <c r="R23" s="3">
-        <f xml:space="preserve"> (Q23-P23+1)/(Q23)*100</f>
+        <f t="shared" si="2"/>
         <v>89.772727272727266</v>
       </c>
       <c r="S23" s="72" t="s">
@@ -6994,10 +6510,10 @@
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="12">
         <v>64</v>
       </c>
@@ -7038,7 +6554,7 @@
         <v>52</v>
       </c>
       <c r="R24" s="3">
-        <f xml:space="preserve"> (Q24-P24+1)/(Q24)*100</f>
+        <f t="shared" si="2"/>
         <v>90.384615384615387</v>
       </c>
       <c r="S24" s="72" t="s">
@@ -7056,10 +6572,10 @@
       <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="85"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="12">
         <v>63</v>
       </c>
@@ -7100,7 +6616,7 @@
         <v>26</v>
       </c>
       <c r="R25" s="3">
-        <f xml:space="preserve"> (Q25-P25+1)/(Q25)*100</f>
+        <f t="shared" si="2"/>
         <v>92.307692307692307</v>
       </c>
       <c r="S25" s="72" t="s">
@@ -7118,10 +6634,10 @@
       <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="85"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="12">
         <v>63</v>
       </c>
@@ -7162,7 +6678,7 @@
         <v>40</v>
       </c>
       <c r="R26" s="3">
-        <f xml:space="preserve"> (Q26-P26+1)/(Q26)*100</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="S26" s="72" t="s">
@@ -7177,13 +6693,13 @@
       <c r="A27" s="31">
         <v>44874</v>
       </c>
-      <c r="B27" s="92">
+      <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="85"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="12">
         <v>61</v>
       </c>
@@ -7224,7 +6740,7 @@
         <v>46</v>
       </c>
       <c r="R27" s="3">
-        <f xml:space="preserve"> (Q27-P27+1)/(Q27)*100</f>
+        <f t="shared" si="2"/>
         <v>84.782608695652172</v>
       </c>
       <c r="S27" s="80" t="s">
@@ -7239,13 +6755,13 @@
       <c r="A28" s="31">
         <v>44878</v>
       </c>
-      <c r="B28" s="92">
+      <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="91"/>
+      <c r="D28" s="84"/>
       <c r="E28" s="12">
         <v>65</v>
       </c>
@@ -7286,7 +6802,7 @@
         <v>34</v>
       </c>
       <c r="R28" s="3">
-        <f xml:space="preserve"> (Q28-P28+1)/(Q28)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="S28" s="80" t="s">
@@ -7302,10 +6818,10 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="85"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
@@ -7320,7 +6836,7 @@
       <c r="P29" s="19"/>
       <c r="Q29" s="71"/>
       <c r="R29" s="3" t="e">
-        <f xml:space="preserve"> (Q29-P29+1)/(Q29)*100</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="72"/>
@@ -7334,10 +6850,10 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="85"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -7352,7 +6868,7 @@
       <c r="P30" s="19"/>
       <c r="Q30" s="71"/>
       <c r="R30" s="3" t="e">
-        <f xml:space="preserve"> (Q30-P30+1)/(Q30)*100</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S30" s="72"/>
@@ -7366,72 +6882,96 @@
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="91"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="28"/>
+      <c r="C31" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="83"/>
+      <c r="E31" s="12">
+        <v>55</v>
+      </c>
+      <c r="F31" s="13">
+        <v>41</v>
+      </c>
+      <c r="G31" s="14">
+        <v>14</v>
+      </c>
+      <c r="H31" s="32">
+        <v>10</v>
+      </c>
+      <c r="I31" s="19">
+        <v>61</v>
+      </c>
+      <c r="J31" s="28">
+        <v>-3.67</v>
+      </c>
       <c r="K31" s="33"/>
-      <c r="L31" s="16"/>
+      <c r="L31" s="16">
+        <v>57.33</v>
+      </c>
       <c r="M31" s="17"/>
       <c r="N31" s="75"/>
       <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="3" t="e">
-        <f xml:space="preserve"> (P31-O31+1)/(P31)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="P31" s="19">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="71">
+        <v>99</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="2"/>
+        <v>80.808080808080803</v>
+      </c>
+      <c r="S31" s="92"/>
+      <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="91"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="28"/>
+      <c r="C32" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="83"/>
+      <c r="E32" s="12">
+        <v>52</v>
+      </c>
+      <c r="F32" s="13">
+        <v>37</v>
+      </c>
+      <c r="G32" s="14">
+        <v>15</v>
+      </c>
+      <c r="H32" s="32">
+        <v>13</v>
+      </c>
+      <c r="I32" s="19">
+        <v>55</v>
+      </c>
+      <c r="J32" s="28">
+        <v>-3</v>
+      </c>
       <c r="K32" s="33"/>
-      <c r="L32" s="16"/>
+      <c r="L32" s="16">
+        <v>52</v>
+      </c>
       <c r="M32" s="17"/>
       <c r="N32" s="75"/>
       <c r="O32" s="18"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="71"/>
       <c r="R32" s="3" t="e">
-        <f xml:space="preserve"> (P32-O32+1)/(P32)*100</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T32" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="S32" s="92"/>
+      <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
-      <c r="B33" s="3">
-        <v>32</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="91"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
@@ -7446,23 +6986,17 @@
       <c r="P33" s="19"/>
       <c r="Q33" s="71"/>
       <c r="R33" s="3" t="e">
-        <f xml:space="preserve"> (P33-O33+1)/(P33)*100</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T33" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="S33" s="92"/>
+      <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="31"/>
-      <c r="B34" s="3">
-        <v>33</v>
-      </c>
-      <c r="C34" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="91"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
@@ -7477,140 +7011,205 @@
       <c r="P34" s="19"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="3" t="e">
-        <f xml:space="preserve"> (P34-O34+1)/(P34)*100</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T34" s="3">
+      <c r="S34" s="92"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="84"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3">
-        <v>34</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="12">
-        <f t="shared" ref="E35:O35" si="2">AVERAGE(E2:E34)</f>
-        <v>55.444444444444443</v>
-      </c>
-      <c r="F35" s="13">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+      <c r="B36" s="3">
+        <v>31</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="84"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="3" t="e">
         <f t="shared" si="2"/>
-        <v>41.5</v>
-      </c>
-      <c r="G35" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+      <c r="B37" s="3">
+        <v>32</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="84"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="3" t="e">
         <f t="shared" si="2"/>
-        <v>14.148148148148149</v>
-      </c>
-      <c r="H35" s="15">
-        <f t="shared" si="2"/>
-        <v>9.5555555555555554</v>
-      </c>
-      <c r="I35" s="19">
-        <f t="shared" si="2"/>
-        <v>61.74074074074074</v>
-      </c>
-      <c r="J35" s="28">
-        <f t="shared" si="2"/>
-        <v>-2.9125925925925924</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" si="2"/>
-        <v>15.608695652173912</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="2"/>
-        <v>58.901851851851838</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="2"/>
-        <v>41.010769230769242</v>
-      </c>
-      <c r="N35" s="75">
-        <f t="shared" si="2"/>
-        <v>82.248888888888885</v>
-      </c>
-      <c r="O35" s="18">
-        <f t="shared" si="2"/>
-        <v>73.213043478260872</v>
-      </c>
-      <c r="P35" s="19">
-        <f>AVERAGE(P2:P34)</f>
-        <v>124.96153846153847</v>
-      </c>
-      <c r="Q35" s="71"/>
-      <c r="T35" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="3">
         <f t="shared" si="1"/>
-        <v>23.347037037037047</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="3">
+        <v>33</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="84"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3">
+        <v>34</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="85"/>
+      <c r="E39" s="12">
+        <f>AVERAGE(E2:E38)</f>
+        <v>55.310344827586206</v>
+      </c>
+      <c r="F39" s="13">
+        <f>AVERAGE(F2:F38)</f>
+        <v>41.321428571428569</v>
+      </c>
+      <c r="G39" s="14">
+        <f>AVERAGE(G2:G38)</f>
+        <v>14.172413793103448</v>
+      </c>
+      <c r="H39" s="15">
+        <f>AVERAGE(H2:H38)</f>
+        <v>9.6896551724137936</v>
+      </c>
+      <c r="I39" s="19">
+        <f>AVERAGE(I2:I38)</f>
+        <v>61.482758620689658</v>
+      </c>
+      <c r="J39" s="28">
+        <f>AVERAGE(J2:J38)</f>
+        <v>-2.9417241379310344</v>
+      </c>
+      <c r="K39" s="15">
+        <f>AVERAGE(K2:K38)</f>
+        <v>15.608695652173912</v>
+      </c>
+      <c r="L39" s="16">
+        <f>AVERAGE(L2:L38)</f>
+        <v>58.609655172413781</v>
+      </c>
+      <c r="M39" s="17">
+        <f>AVERAGE(M2:M38)</f>
+        <v>41.010769230769242</v>
+      </c>
+      <c r="N39" s="75">
+        <f>AVERAGE(N2:N38)</f>
+        <v>82.248888888888885</v>
+      </c>
+      <c r="O39" s="18">
+        <f>AVERAGE(O2:O38)</f>
+        <v>73.213043478260872</v>
+      </c>
+      <c r="P39" s="19">
+        <f>AVERAGE(P2:P38)</f>
+        <v>121.07407407407408</v>
+      </c>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="3">
+        <f t="shared" si="1"/>
+        <v>23.639233716475104</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B40" s="3"/>
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
@@ -7626,6 +7225,7 @@
       <c r="Q40" s="27"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B41" s="3"/>
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
@@ -7640,19 +7240,78 @@
       <c r="P41" s="27"/>
       <c r="Q41" s="27"/>
     </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C35:D35"/>
+  <mergeCells count="39">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -7668,15 +7327,20 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M14">
     <cfRule type="colorScale" priority="90">
@@ -7690,7 +7354,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M24 M26 M29:M30">
+  <conditionalFormatting sqref="M22:M24 M26 M29:M34">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -7702,7 +7366,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L24 L26 L29:L30">
+  <conditionalFormatting sqref="L22:L24 L26 L29:L34">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -7714,7 +7378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O24 O26 O29:O30">
+  <conditionalFormatting sqref="O22:O24 O26 O29:O34">
     <cfRule type="iconSet" priority="85">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -7723,7 +7387,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I24 I26 I29:I30">
+  <conditionalFormatting sqref="I22:I24 I26 I29:I34">
     <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="min"/>
@@ -7737,7 +7401,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J24 J26 J29:J30">
+  <conditionalFormatting sqref="J22:J24 J26 J29:J34">
     <cfRule type="iconSet" priority="91">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -7746,7 +7410,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F24 F26 F29:F30">
+  <conditionalFormatting sqref="F22:F24 F26 F29:F34">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -7757,95 +7421,24 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="92" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P24 P26 P29:P30">
-    <cfRule type="cellIs" dxfId="60" priority="71" operator="between">
+  <conditionalFormatting sqref="P22:P24 P26 P29:P34">
+    <cfRule type="cellIs" dxfId="14" priority="71" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S26 S29:S30">
-    <cfRule type="cellIs" dxfId="59" priority="70" operator="equal">
+  <conditionalFormatting sqref="S22:S26 S29:S34">
+    <cfRule type="cellIs" dxfId="13" priority="70" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S26 S29:S30">
-    <cfRule type="cellIs" dxfId="58" priority="69" operator="equal">
+  <conditionalFormatting sqref="S22:S26 S29:S34">
+    <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31:L34">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O31:O34">
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31:I34">
-    <cfRule type="dataBar" priority="63">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8C961B77-F7AC-473E-A0E7-99E2D3513BB3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J34">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F34">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="66" operator="greaterThan">
-      <formula>$G$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:M34">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L21">
@@ -7890,21 +7483,6 @@
         <cfvo type="percent" val="33"/>
         <cfvo type="percent" val="67"/>
       </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F21">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="102" operator="greaterThan">
-      <formula>$F$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M21">
@@ -7986,26 +7564,14 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="106" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="44" operator="between">
       <formula>1</formula>
       <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T35">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
@@ -8080,7 +7646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="107">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -8089,7 +7655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8099,12 +7665,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="108" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8116,18 +7682,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27">
-    <cfRule type="cellIs" dxfId="47" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27">
-    <cfRule type="cellIs" dxfId="46" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27">
-    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8198,7 +7764,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8215,19 +7781,117 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:L38">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35:O38">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:I38">
+    <cfRule type="dataBar" priority="114">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C961B77-F7AC-473E-A0E7-99E2D3513BB3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:J38">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:F38">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="119" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:M38">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="125" operator="greaterThan">
+      <formula>$F$39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T39">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8245,18 +7909,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I22:I24 I26 I29:I30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8C961B77-F7AC-473E-A0E7-99E2D3513BB3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I31:I34</xm:sqref>
+          <xm:sqref>I22:I24 I26 I29:I34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ED18865B-B343-4750-8437-A6376E4FD07F}">
@@ -8302,6 +7955,17 @@
           </x14:cfRule>
           <xm:sqref>I28</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C961B77-F7AC-473E-A0E7-99E2D3513BB3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I35:I38</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A66A9F-9ADE-4E76-846D-5B36B1F78AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5D64C4-7337-49CF-867A-649B65CCE6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -542,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -739,19 +739,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,13 +764,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1201,7 +1198,7 @@
                   <c:v>83.35</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>57.33</c:v>
+                  <c:v>59.33</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>52</c:v>
@@ -2361,7 +2358,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>80.808080808080803</c:v>
+                  <c:v>74.336283185840713</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -5179,7 +5176,7 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5211,10 +5208,10 @@
       <c r="B1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="87"/>
+      <c r="D1" s="88"/>
       <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
@@ -5266,10 +5263,10 @@
       <c r="B2" s="57">
         <v>1</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="58">
         <v>41</v>
       </c>
@@ -6327,10 +6324,10 @@
       <c r="B21" s="63">
         <v>20</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="64">
         <v>56</v>
       </c>
@@ -6386,10 +6383,10 @@
       <c r="B22" s="45">
         <v>21</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="91"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="46">
         <v>57</v>
       </c>
@@ -6448,10 +6445,10 @@
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="12">
         <v>58</v>
       </c>
@@ -6510,10 +6507,10 @@
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="12">
         <v>64</v>
       </c>
@@ -6572,10 +6569,10 @@
       <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="12">
         <v>63</v>
       </c>
@@ -6634,10 +6631,10 @@
       <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="83"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="12">
         <v>63</v>
       </c>
@@ -6696,10 +6693,10 @@
       <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="12">
         <v>61</v>
       </c>
@@ -6758,10 +6755,10 @@
       <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="84"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="12">
         <v>65</v>
       </c>
@@ -6818,10 +6815,10 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="83"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
@@ -6850,10 +6847,10 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="83"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -6878,14 +6875,16 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
+      <c r="A31" s="31">
+        <v>44915</v>
+      </c>
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="83"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="12">
         <v>55</v>
       </c>
@@ -6906,33 +6905,35 @@
       </c>
       <c r="K31" s="33"/>
       <c r="L31" s="16">
-        <v>57.33</v>
+        <v>59.33</v>
       </c>
       <c r="M31" s="17"/>
       <c r="N31" s="75"/>
       <c r="O31" s="18"/>
       <c r="P31" s="19">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="71">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="R31" s="3">
         <f t="shared" si="2"/>
-        <v>80.808080808080803</v>
-      </c>
-      <c r="S31" s="92"/>
+        <v>74.336283185840713</v>
+      </c>
+      <c r="S31" s="1"/>
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
+      <c r="A32" s="31">
+        <v>44917</v>
+      </c>
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="83"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="12">
         <v>52</v>
       </c>
@@ -6964,14 +6965,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S32" s="92"/>
+      <c r="S32" s="1"/>
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
       <c r="G33" s="14"/>
@@ -6989,14 +6990,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S33" s="92"/>
+      <c r="S33" s="1"/>
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="31"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
@@ -7014,7 +7015,7 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S34" s="92"/>
+      <c r="S34" s="1"/>
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -7022,10 +7023,10 @@
       <c r="B35" s="3">
         <v>30</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="84"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
@@ -7053,10 +7054,10 @@
       <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="84"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
@@ -7084,10 +7085,10 @@
       <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="84"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
@@ -7115,10 +7116,10 @@
       <c r="B38" s="3">
         <v>33</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="84"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
       <c r="G38" s="14"/>
@@ -7146,57 +7147,57 @@
       <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="85"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="12">
-        <f>AVERAGE(E2:E38)</f>
+        <f t="shared" ref="E39:P39" si="3">AVERAGE(E2:E38)</f>
         <v>55.310344827586206</v>
       </c>
       <c r="F39" s="13">
-        <f>AVERAGE(F2:F38)</f>
+        <f t="shared" si="3"/>
         <v>41.321428571428569</v>
       </c>
       <c r="G39" s="14">
-        <f>AVERAGE(G2:G38)</f>
+        <f t="shared" si="3"/>
         <v>14.172413793103448</v>
       </c>
       <c r="H39" s="15">
-        <f>AVERAGE(H2:H38)</f>
+        <f t="shared" si="3"/>
         <v>9.6896551724137936</v>
       </c>
       <c r="I39" s="19">
-        <f>AVERAGE(I2:I38)</f>
+        <f t="shared" si="3"/>
         <v>61.482758620689658</v>
       </c>
       <c r="J39" s="28">
-        <f>AVERAGE(J2:J38)</f>
+        <f t="shared" si="3"/>
         <v>-2.9417241379310344</v>
       </c>
       <c r="K39" s="15">
-        <f>AVERAGE(K2:K38)</f>
+        <f t="shared" si="3"/>
         <v>15.608695652173912</v>
       </c>
       <c r="L39" s="16">
-        <f>AVERAGE(L2:L38)</f>
-        <v>58.609655172413781</v>
+        <f t="shared" si="3"/>
+        <v>58.678620689655162</v>
       </c>
       <c r="M39" s="17">
-        <f>AVERAGE(M2:M38)</f>
+        <f t="shared" si="3"/>
         <v>41.010769230769242</v>
       </c>
       <c r="N39" s="75">
-        <f>AVERAGE(N2:N38)</f>
+        <f t="shared" si="3"/>
         <v>82.248888888888885</v>
       </c>
       <c r="O39" s="18">
-        <f>AVERAGE(O2:O38)</f>
+        <f t="shared" si="3"/>
         <v>73.213043478260872</v>
       </c>
       <c r="P39" s="19">
-        <f>AVERAGE(P2:P38)</f>
-        <v>121.07407407407408</v>
+        <f t="shared" si="3"/>
+        <v>121.44444444444444</v>
       </c>
       <c r="Q39" s="71"/>
       <c r="R39" s="3" t="e">
@@ -7205,7 +7206,7 @@
       </c>
       <c r="T39" s="3">
         <f t="shared" si="1"/>
-        <v>23.639233716475104</v>
+        <v>23.570268199233723</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -7302,15 +7303,20 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -7327,20 +7333,15 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M14">
     <cfRule type="colorScale" priority="90">

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5D64C4-7337-49CF-867A-649B65CCE6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D4814E-53B1-4D27-B2D6-DFD8B141F354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>Test Name</t>
   </si>
@@ -153,9 +153,6 @@
     <t>FULL SYLLABUS TEST-2 (BASIC LEVEL) (GATE 2023)</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>FULL SYLLABUS TEST-3 (BASIC LEVEL) (GATE 2023)</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>GO CLASSES MOCK - 3</t>
+  </si>
+  <si>
+    <t>GO CLASSES MOCK - 4</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,26 +735,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,7 +758,10 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1202,6 +1199,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,6 +1970,18 @@
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.67</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2364,7 +2376,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>92.64705882352942</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -5175,8 +5187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5208,10 +5220,10 @@
       <c r="B1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="88"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
@@ -5251,11 +5263,11 @@
       <c r="Q1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="81" t="s">
-        <v>54</v>
+      <c r="R1" s="80" t="s">
+        <v>53</v>
       </c>
       <c r="T1" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5263,10 +5275,10 @@
       <c r="B2" s="57">
         <v>1</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="58">
         <v>41</v>
       </c>
@@ -5320,10 +5332,10 @@
       <c r="B3" s="60">
         <v>2</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="86"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="61">
         <v>40</v>
       </c>
@@ -5377,10 +5389,10 @@
       <c r="B4" s="60">
         <v>3</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="61">
         <v>51</v>
       </c>
@@ -5434,10 +5446,10 @@
       <c r="B5" s="60">
         <v>4</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="61">
         <v>51</v>
       </c>
@@ -5481,10 +5493,10 @@
       <c r="B6" s="60">
         <v>5</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="86"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="61">
         <v>47</v>
       </c>
@@ -5538,10 +5550,10 @@
       <c r="B7" s="60">
         <v>6</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="86"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="61">
         <v>51</v>
       </c>
@@ -5595,10 +5607,10 @@
       <c r="B8" s="60">
         <v>7</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="86"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="61">
         <v>52</v>
       </c>
@@ -5652,10 +5664,10 @@
       <c r="B9" s="60">
         <v>8</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="86"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="61">
         <v>55</v>
       </c>
@@ -5709,10 +5721,10 @@
       <c r="B10" s="60">
         <v>9</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="86"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="61">
         <v>58</v>
       </c>
@@ -5766,10 +5778,10 @@
       <c r="B11" s="60">
         <v>10</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="61">
         <v>60</v>
       </c>
@@ -5823,10 +5835,10 @@
       <c r="B12" s="60">
         <v>11</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="86"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="61">
         <v>56</v>
       </c>
@@ -5880,10 +5892,10 @@
       <c r="B13" s="60">
         <v>12</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="86"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="61">
         <v>56</v>
       </c>
@@ -5937,10 +5949,10 @@
       <c r="B14" s="60">
         <v>13</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="61">
         <v>56</v>
       </c>
@@ -5994,10 +6006,10 @@
       <c r="B15" s="60">
         <v>14</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="86"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="61">
         <v>50</v>
       </c>
@@ -6047,10 +6059,10 @@
       <c r="B16" s="60">
         <v>15</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="61">
         <v>56</v>
       </c>
@@ -6100,10 +6112,10 @@
       <c r="B17" s="60">
         <v>16</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="61">
         <v>53</v>
       </c>
@@ -6153,10 +6165,10 @@
       <c r="B18" s="60">
         <v>17</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="61">
         <v>58</v>
       </c>
@@ -6210,10 +6222,10 @@
       <c r="B19" s="60">
         <v>18</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="61">
         <v>60</v>
       </c>
@@ -6267,10 +6279,10 @@
       <c r="B20" s="60">
         <v>19</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="61">
         <v>59</v>
       </c>
@@ -6324,10 +6336,10 @@
       <c r="B21" s="63">
         <v>20</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="64">
         <v>56</v>
       </c>
@@ -6383,10 +6395,10 @@
       <c r="B22" s="45">
         <v>21</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="83"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="46">
         <v>57</v>
       </c>
@@ -6445,10 +6457,10 @@
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="85"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="12">
         <v>58</v>
       </c>
@@ -6507,10 +6519,10 @@
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="12">
         <v>64</v>
       </c>
@@ -6555,7 +6567,7 @@
         <v>90.384615384615387</v>
       </c>
       <c r="S24" s="72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T24" s="3">
         <f t="shared" si="1"/>
@@ -6569,10 +6581,10 @@
       <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="85"/>
+      <c r="C25" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="82"/>
       <c r="E25" s="12">
         <v>63</v>
       </c>
@@ -6617,7 +6629,7 @@
         <v>92.307692307692307</v>
       </c>
       <c r="S25" s="72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" si="1"/>
@@ -6631,10 +6643,10 @@
       <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="85"/>
+      <c r="C26" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="82"/>
       <c r="E26" s="12">
         <v>63</v>
       </c>
@@ -6679,7 +6691,7 @@
         <v>85</v>
       </c>
       <c r="S26" s="72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" si="1"/>
@@ -6693,10 +6705,10 @@
       <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="85"/>
+      <c r="C27" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="82"/>
       <c r="E27" s="12">
         <v>61</v>
       </c>
@@ -6740,8 +6752,8 @@
         <f t="shared" si="2"/>
         <v>84.782608695652172</v>
       </c>
-      <c r="S27" s="80" t="s">
-        <v>42</v>
+      <c r="S27" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" si="1"/>
@@ -6755,10 +6767,10 @@
       <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="91"/>
+      <c r="C28" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="83"/>
       <c r="E28" s="12">
         <v>65</v>
       </c>
@@ -6802,8 +6814,8 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="S28" s="80" t="s">
-        <v>42</v>
+      <c r="S28" s="72" t="s">
+        <v>39</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" si="1"/>
@@ -6815,10 +6827,10 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="85"/>
+      <c r="C29" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="82"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
       <c r="G29" s="14"/>
@@ -6847,10 +6859,10 @@
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="85"/>
+      <c r="C30" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="82"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
       <c r="G30" s="14"/>
@@ -6881,10 +6893,10 @@
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="85"/>
+      <c r="C31" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="82"/>
       <c r="E31" s="12">
         <v>55</v>
       </c>
@@ -6908,7 +6920,9 @@
         <v>59.33</v>
       </c>
       <c r="M31" s="17"/>
-      <c r="N31" s="75"/>
+      <c r="N31" s="75">
+        <v>81</v>
+      </c>
       <c r="O31" s="18"/>
       <c r="P31" s="19">
         <v>30</v>
@@ -6920,8 +6934,13 @@
         <f t="shared" si="2"/>
         <v>74.336283185840713</v>
       </c>
-      <c r="S31" s="1"/>
-      <c r="T31" s="3"/>
+      <c r="S31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" si="1"/>
+        <v>21.67</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
@@ -6930,10 +6949,10 @@
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="85"/>
+      <c r="C32" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="82"/>
       <c r="E32" s="12">
         <v>52</v>
       </c>
@@ -6957,7 +6976,9 @@
         <v>52</v>
       </c>
       <c r="M32" s="17"/>
-      <c r="N32" s="75"/>
+      <c r="N32" s="75">
+        <v>81</v>
+      </c>
       <c r="O32" s="18"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="71"/>
@@ -6965,39 +6986,79 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="3"/>
+      <c r="S32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="75"/>
+      <c r="A33" s="31">
+        <v>44925</v>
+      </c>
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="82"/>
+      <c r="E33" s="12">
+        <v>58</v>
+      </c>
+      <c r="F33" s="13">
+        <v>48</v>
+      </c>
+      <c r="G33" s="14">
+        <v>10</v>
+      </c>
+      <c r="H33" s="32">
+        <v>7</v>
+      </c>
+      <c r="I33" s="19">
+        <v>71</v>
+      </c>
+      <c r="J33" s="28">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="33">
+        <v>28</v>
+      </c>
+      <c r="L33" s="16">
+        <v>70</v>
+      </c>
+      <c r="M33" s="17">
+        <v>44.97</v>
+      </c>
+      <c r="N33" s="75">
+        <v>79</v>
+      </c>
       <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="3" t="e">
+      <c r="P33" s="19">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="71">
+        <v>68</v>
+      </c>
+      <c r="R33" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="3"/>
+        <v>92.64705882352942</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="31"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
@@ -7016,17 +7077,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S34" s="1"/>
-      <c r="T34" s="3"/>
+      <c r="T34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="31"/>
       <c r="B35" s="3">
         <v>30</v>
       </c>
-      <c r="C35" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="91"/>
+      <c r="C35" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="83"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
       <c r="G35" s="14"/>
@@ -7054,10 +7118,10 @@
       <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="C36" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="91"/>
+      <c r="C36" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="83"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
       <c r="G36" s="14"/>
@@ -7085,10 +7149,10 @@
       <c r="B37" s="3">
         <v>32</v>
       </c>
-      <c r="C37" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="91"/>
+      <c r="C37" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="83"/>
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
       <c r="G37" s="14"/>
@@ -7116,10 +7180,10 @@
       <c r="B38" s="3">
         <v>33</v>
       </c>
-      <c r="C38" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="91"/>
+      <c r="C38" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="83"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
       <c r="G38" s="14"/>
@@ -7147,49 +7211,49 @@
       <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="87"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="12">
         <f t="shared" ref="E39:P39" si="3">AVERAGE(E2:E38)</f>
-        <v>55.310344827586206</v>
+        <v>55.4</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>41.321428571428569</v>
+        <v>41.551724137931032</v>
       </c>
       <c r="G39" s="14">
         <f t="shared" si="3"/>
-        <v>14.172413793103448</v>
+        <v>14.033333333333333</v>
       </c>
       <c r="H39" s="15">
         <f t="shared" si="3"/>
-        <v>9.6896551724137936</v>
+        <v>9.6</v>
       </c>
       <c r="I39" s="19">
         <f t="shared" si="3"/>
-        <v>61.482758620689658</v>
+        <v>61.8</v>
       </c>
       <c r="J39" s="28">
         <f t="shared" si="3"/>
-        <v>-2.9417241379310344</v>
+        <v>-2.8770000000000002</v>
       </c>
       <c r="K39" s="15">
         <f t="shared" si="3"/>
-        <v>15.608695652173912</v>
+        <v>16.125</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="3"/>
-        <v>58.678620689655162</v>
+        <v>59.05599999999999</v>
       </c>
       <c r="M39" s="17">
         <f t="shared" si="3"/>
-        <v>41.010769230769242</v>
+        <v>41.157407407407419</v>
       </c>
       <c r="N39" s="75">
         <f t="shared" si="3"/>
-        <v>82.248888888888885</v>
+        <v>82.057333333333332</v>
       </c>
       <c r="O39" s="18">
         <f t="shared" si="3"/>
@@ -7197,7 +7261,7 @@
       </c>
       <c r="P39" s="19">
         <f t="shared" si="3"/>
-        <v>121.44444444444444</v>
+        <v>117.32142857142857</v>
       </c>
       <c r="Q39" s="71"/>
       <c r="R39" s="3" t="e">
@@ -7206,7 +7270,7 @@
       </c>
       <c r="T39" s="3">
         <f t="shared" si="1"/>
-        <v>23.570268199233723</v>
+        <v>23.001333333333342</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -7303,20 +7367,15 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -7333,15 +7392,20 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="M2:M14">
     <cfRule type="colorScale" priority="90">
@@ -7432,12 +7496,12 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S26 S29:S34">
+  <conditionalFormatting sqref="S22:S34">
     <cfRule type="cellIs" dxfId="13" priority="70" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S26 S29:S34">
+  <conditionalFormatting sqref="S22:S34">
     <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -7688,16 +7752,6 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
-    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M28">
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -7785,16 +7839,6 @@
     <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
       <formula>1</formula>
       <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:L38">

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D4814E-53B1-4D27-B2D6-DFD8B141F354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9616B7-C1A0-4713-9CDC-27451F565A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>Test Name</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Test No.</t>
-  </si>
-  <si>
-    <t>Unatt Marks</t>
   </si>
   <si>
     <t>Topper</t>
@@ -197,12 +194,21 @@
   <si>
     <t>GO CLASSES MOCK - 4</t>
   </si>
+  <si>
+    <t>GO CLASSES MOCK - 5</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Analyzed?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +231,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,18 +296,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,9 +540,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,15 +557,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,12 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,26 +633,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,32 +648,32 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,52 +685,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -769,7 +774,7 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -777,6 +782,57 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -825,9 +881,29 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -986,7 +1062,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1109,7 +1185,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$38</c:f>
+              <c:f>Sheet1!$K$2:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1194,6 +1270,9 @@
                 <c:pt idx="26">
                   <c:v>83.35</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>74.69</c:v>
+                </c:pt>
                 <c:pt idx="29">
                   <c:v>59.33</c:v>
                 </c:pt>
@@ -1202,6 +1281,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>70.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,7 +1622,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$1</c:f>
+              <c:f>Sheet1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1561,7 +1643,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$2:$O$38</c:f>
+              <c:f>Sheet1!$N$2:$N$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1633,6 +1715,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>86.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,14 +1934,14 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$1</c:f>
+              <c:f>Sheet1!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1875,11 +1960,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$38</c:f>
+              <c:f>Sheet1!$S$2:$S$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1968,7 +2065,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>11.310000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>21.67</c:v>
@@ -1980,7 +2077,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.67000000000000171</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -2012,6 +2109,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="278380368"/>
         <c:axId val="278375792"/>
@@ -2221,7 +2319,7 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:areaChart>
+      <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2229,7 +2327,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$1</c:f>
+              <c:f>Sheet1!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2239,34 +2337,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
               <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
@@ -2276,9 +2351,12 @@
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$45</c:f>
+              <c:f>Sheet1!$Q$2:$Q$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -2367,7 +2445,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>95.081967213114751</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>74.336283185840713</c:v>
@@ -2379,7 +2457,7 @@
                   <c:v>92.64705882352942</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>97.674418604651152</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -2399,6 +2477,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-964A-42BC-B88F-B2E79615D280}"/>
@@ -2413,9 +2492,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="930156304"/>
         <c:axId val="930143824"/>
-      </c:areaChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="930156304"/>
         <c:scaling>
@@ -2518,7 +2598,7 @@
         </c:txPr>
         <c:crossAx val="930156304"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4785,7 +4865,7 @@
       <xdr:rowOff>144556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>542813</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>144556</xdr:rowOff>
@@ -4815,13 +4895,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>354106</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
@@ -4851,16 +4931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>103093</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>551328</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44822</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5185,10 +5265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5202,2180 +5282,2286 @@
     <col min="7" max="7" width="9.77734375" style="8" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="30"/>
-    <col min="11" max="11" width="12.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="6"/>
-    <col min="13" max="13" width="17.77734375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="79"/>
-    <col min="15" max="15" width="10.5546875" style="10" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="7"/>
-    <col min="18" max="18" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="27"/>
+    <col min="11" max="11" width="8.88671875" style="6"/>
+    <col min="12" max="12" width="17.77734375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="68"/>
+    <col min="14" max="14" width="10.5546875" style="10" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="7"/>
+    <col min="17" max="17" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="76">
+        <v>41</v>
+      </c>
+      <c r="F2" s="76">
+        <v>27</v>
+      </c>
+      <c r="G2" s="77">
+        <f>E2-F2</f>
         <v>14</v>
       </c>
-      <c r="O1" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="39" t="s">
+      <c r="H2" s="47">
+        <f>65-E2</f>
+        <v>24</v>
+      </c>
+      <c r="I2" s="47">
+        <v>40</v>
+      </c>
+      <c r="J2" s="47">
+        <v>-4.29</v>
+      </c>
+      <c r="K2" s="47">
+        <v>35.71</v>
+      </c>
+      <c r="L2" s="47">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="M2" s="63">
+        <v>86.34</v>
+      </c>
+      <c r="N2" s="47">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="O2" s="47">
+        <v>157</v>
+      </c>
+      <c r="P2" s="56">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="3">
+        <f t="shared" ref="Q2:Q21" si="0" xml:space="preserve"> (P2-O2+1)/(P2)*100</f>
+        <v>41.791044776119399</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2:S39" si="1">M2-K2</f>
+        <v>50.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="Q1" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57">
-        <v>1</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="58">
+      <c r="C3" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="77">
+        <v>40</v>
+      </c>
+      <c r="F3" s="77">
+        <v>27</v>
+      </c>
+      <c r="G3" s="77">
+        <f t="shared" ref="G3:G10" si="2">E3-F3</f>
+        <v>13</v>
+      </c>
+      <c r="H3" s="47">
+        <f>65-E3</f>
+        <v>25</v>
+      </c>
+      <c r="I3" s="50">
         <v>41</v>
       </c>
-      <c r="F2" s="58">
-        <v>27</v>
-      </c>
-      <c r="G2" s="58">
-        <v>14</v>
-      </c>
-      <c r="H2" s="58">
-        <v>24</v>
-      </c>
-      <c r="I2" s="58">
-        <v>40</v>
-      </c>
-      <c r="J2" s="58">
-        <v>-4.29</v>
-      </c>
-      <c r="K2" s="58">
-        <v>39</v>
-      </c>
-      <c r="L2" s="58">
-        <v>35.71</v>
-      </c>
-      <c r="M2" s="58">
-        <v>39.869999999999997</v>
-      </c>
-      <c r="N2" s="74">
-        <v>86.34</v>
-      </c>
-      <c r="O2" s="58">
-        <v>65.849999999999994</v>
-      </c>
-      <c r="P2" s="58">
-        <v>157</v>
-      </c>
-      <c r="Q2" s="67">
-        <v>268</v>
-      </c>
-      <c r="R2" s="3">
-        <f t="shared" ref="R2:R21" si="0" xml:space="preserve"> (Q2-P2+1)/(Q2)*100</f>
-        <v>41.791044776119399</v>
-      </c>
-      <c r="T2" s="3">
-        <f t="shared" ref="T2:T39" si="1">N2-L2</f>
-        <v>50.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60">
-        <v>2</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="61">
-        <v>40</v>
-      </c>
-      <c r="F3" s="61">
-        <v>27</v>
-      </c>
-      <c r="G3" s="61">
-        <v>13</v>
-      </c>
-      <c r="H3" s="61">
-        <v>25</v>
-      </c>
-      <c r="I3" s="61">
-        <v>41</v>
-      </c>
-      <c r="J3" s="61">
+      <c r="J3" s="50">
         <v>-3.3</v>
       </c>
-      <c r="K3" s="61">
-        <v>41</v>
-      </c>
-      <c r="L3" s="61">
+      <c r="K3" s="50">
         <v>37.700000000000003</v>
       </c>
-      <c r="M3" s="61">
+      <c r="L3" s="50">
         <v>39.18</v>
       </c>
-      <c r="N3" s="75">
+      <c r="M3" s="64">
         <v>84.69</v>
       </c>
-      <c r="O3" s="61">
+      <c r="N3" s="50">
         <v>67.5</v>
       </c>
-      <c r="P3" s="61">
+      <c r="O3" s="50">
         <v>114</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="P3" s="57">
         <v>201</v>
       </c>
-      <c r="R3" s="3">
+      <c r="Q3" s="3">
         <f t="shared" si="0"/>
         <v>43.781094527363187</v>
       </c>
-      <c r="T3" s="3">
+      <c r="R3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="3">
         <f t="shared" si="1"/>
         <v>46.989999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="61">
+      <c r="C4" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="70"/>
+      <c r="E4" s="77">
         <v>51</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="77">
         <v>33</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="77">
+        <f>E4-F4</f>
         <v>18</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="47">
+        <f t="shared" ref="H4:H34" si="3">65-E4</f>
         <v>14</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="50">
         <v>52</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="50">
         <v>-4.62</v>
       </c>
-      <c r="K4" s="61">
-        <v>24</v>
-      </c>
-      <c r="L4" s="61">
+      <c r="K4" s="50">
         <v>47.38</v>
       </c>
-      <c r="M4" s="61">
+      <c r="L4" s="50">
         <v>33.14</v>
       </c>
-      <c r="N4" s="75">
+      <c r="M4" s="64">
         <v>81.7</v>
       </c>
-      <c r="O4" s="61">
+      <c r="N4" s="50">
         <v>64.709999999999994</v>
       </c>
-      <c r="P4" s="61">
+      <c r="O4" s="50">
         <v>285</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="P4" s="57">
         <v>1233</v>
       </c>
-      <c r="R4" s="3">
+      <c r="Q4" s="3">
         <f t="shared" si="0"/>
         <v>76.966747769667478</v>
       </c>
-      <c r="T4" s="3">
+      <c r="R4" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="3">
         <f t="shared" si="1"/>
         <v>34.32</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60">
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="77">
+        <v>51</v>
+      </c>
+      <c r="F5" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="61">
-        <v>51</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="61">
+      <c r="G5" s="77">
         <v>15</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="47">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="50">
         <v>54</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="50">
         <v>-3.67</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61">
+      <c r="K5" s="50">
         <v>52.33</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="75">
+      <c r="L5" s="50"/>
+      <c r="M5" s="64">
         <v>91</v>
       </c>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="3" t="e">
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T5" s="3">
+      <c r="R5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="3">
         <f t="shared" si="1"/>
         <v>38.67</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60">
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="61">
+      <c r="C6" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="77">
         <v>47</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="77">
         <v>35</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="77">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="47">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="50">
         <v>51</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="50">
         <v>-1.65</v>
       </c>
-      <c r="K6" s="61">
-        <v>33</v>
-      </c>
-      <c r="L6" s="61">
+      <c r="K6" s="50">
         <v>49.35</v>
       </c>
-      <c r="M6" s="61">
+      <c r="L6" s="50">
         <v>39.799999999999997</v>
       </c>
-      <c r="N6" s="75">
+      <c r="M6" s="64">
         <v>87.36</v>
       </c>
-      <c r="O6" s="61">
+      <c r="N6" s="50">
         <v>74.47</v>
       </c>
-      <c r="P6" s="61">
+      <c r="O6" s="50">
         <v>290</v>
       </c>
-      <c r="Q6" s="68">
+      <c r="P6" s="57">
         <v>913</v>
       </c>
-      <c r="R6" s="3">
+      <c r="Q6" s="3">
         <f t="shared" si="0"/>
         <v>68.346111719605702</v>
       </c>
-      <c r="T6" s="3">
+      <c r="R6" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="3">
         <f t="shared" si="1"/>
         <v>38.01</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60">
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49">
         <v>6</v>
       </c>
-      <c r="C7" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="61">
+      <c r="C7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="77">
         <v>51</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="77">
         <v>35</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="77">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="47">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="50">
         <v>51</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7" s="50">
         <v>-3.3</v>
       </c>
-      <c r="K7" s="61">
-        <v>24</v>
-      </c>
-      <c r="L7" s="61">
+      <c r="K7" s="50">
         <v>47.7</v>
       </c>
-      <c r="M7" s="61">
+      <c r="L7" s="50">
         <v>37.15</v>
       </c>
-      <c r="N7" s="75">
+      <c r="M7" s="64">
         <v>79.67</v>
       </c>
-      <c r="O7" s="61">
+      <c r="N7" s="50">
         <v>68.63</v>
       </c>
-      <c r="P7" s="61">
+      <c r="O7" s="50">
         <v>186</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="P7" s="57">
         <v>714</v>
       </c>
-      <c r="R7" s="3">
+      <c r="Q7" s="3">
         <f t="shared" si="0"/>
         <v>74.089635854341736</v>
       </c>
-      <c r="T7" s="3">
+      <c r="R7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="3">
         <f t="shared" si="1"/>
         <v>31.97</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49">
         <v>7</v>
       </c>
-      <c r="C8" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="61">
+      <c r="C8" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="77">
         <v>52</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="77">
         <v>38</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="77">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="47">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="50">
         <v>56</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="50">
         <v>-4.29</v>
       </c>
-      <c r="K8" s="61">
-        <v>23</v>
-      </c>
-      <c r="L8" s="61">
+      <c r="K8" s="50">
         <v>51.71</v>
       </c>
-      <c r="M8" s="61">
+      <c r="L8" s="50">
         <v>44.06</v>
       </c>
-      <c r="N8" s="75">
+      <c r="M8" s="64">
         <v>88.02</v>
       </c>
-      <c r="O8" s="61">
+      <c r="N8" s="50">
         <v>73.08</v>
       </c>
-      <c r="P8" s="61">
+      <c r="O8" s="50">
         <v>207</v>
       </c>
-      <c r="Q8" s="68">
+      <c r="P8" s="57">
         <v>549</v>
       </c>
-      <c r="R8" s="3">
+      <c r="Q8" s="3">
         <f t="shared" si="0"/>
         <v>62.477231329690341</v>
       </c>
-      <c r="T8" s="3">
+      <c r="R8" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="3">
         <f t="shared" si="1"/>
         <v>36.309999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60">
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49">
         <v>8</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="61">
+      <c r="C9" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="77">
         <v>55</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="77">
         <v>34</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="77">
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="47">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="50">
         <v>48</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="50">
         <v>-1.98</v>
       </c>
-      <c r="K9" s="61">
-        <v>18</v>
-      </c>
-      <c r="L9" s="61">
+      <c r="K9" s="50">
         <v>46.02</v>
       </c>
-      <c r="M9" s="61">
+      <c r="L9" s="50">
         <v>39.200000000000003</v>
       </c>
-      <c r="N9" s="75">
+      <c r="M9" s="64">
         <v>81.680000000000007</v>
       </c>
-      <c r="O9" s="61">
+      <c r="N9" s="50">
         <v>61.82</v>
       </c>
-      <c r="P9" s="61">
+      <c r="O9" s="50">
         <v>82</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="P9" s="57">
         <v>203</v>
       </c>
-      <c r="R9" s="3">
+      <c r="Q9" s="3">
         <f t="shared" si="0"/>
         <v>60.098522167487687</v>
       </c>
-      <c r="T9" s="3">
+      <c r="R9" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" si="1"/>
         <v>35.660000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60">
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49">
         <v>9</v>
       </c>
-      <c r="C10" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="61">
+      <c r="C10" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="77">
         <v>58</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="77">
         <v>45</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="77">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="47">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="50">
         <v>65</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="50">
         <v>-5.28</v>
       </c>
-      <c r="K10" s="61">
-        <v>12</v>
-      </c>
-      <c r="L10" s="61">
+      <c r="K10" s="50">
         <v>59.72</v>
       </c>
-      <c r="M10" s="61">
+      <c r="L10" s="50">
         <v>42.88</v>
       </c>
-      <c r="N10" s="75">
+      <c r="M10" s="64">
         <v>86.02</v>
       </c>
-      <c r="O10" s="61">
+      <c r="N10" s="50">
         <v>77.59</v>
       </c>
-      <c r="P10" s="61">
+      <c r="O10" s="50">
         <v>43</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="P10" s="57">
         <v>166</v>
       </c>
-      <c r="R10" s="3">
+      <c r="Q10" s="3">
         <f t="shared" si="0"/>
         <v>74.698795180722882</v>
       </c>
-      <c r="T10" s="3">
+      <c r="R10" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="1"/>
         <v>26.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49">
         <v>10</v>
       </c>
-      <c r="C11" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="61">
+      <c r="C11" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="77">
         <v>60</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="77">
         <v>42</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="77">
+        <f t="shared" ref="G11:G38" si="4">E11-F11</f>
         <v>18</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="47">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="50">
         <v>62</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="50">
         <v>-4.62</v>
       </c>
-      <c r="K11" s="61">
-        <v>9</v>
-      </c>
-      <c r="L11" s="61">
+      <c r="K11" s="50">
         <v>57.38</v>
       </c>
-      <c r="M11" s="61">
+      <c r="L11" s="50">
         <v>43.61</v>
       </c>
-      <c r="N11" s="75">
+      <c r="M11" s="64">
         <v>83.02</v>
       </c>
-      <c r="O11" s="61">
+      <c r="N11" s="50">
         <v>70</v>
       </c>
-      <c r="P11" s="61">
+      <c r="O11" s="50">
         <v>171</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="P11" s="57">
         <v>823</v>
       </c>
-      <c r="R11" s="3">
+      <c r="Q11" s="3">
         <f t="shared" si="0"/>
         <v>79.343863912515189</v>
       </c>
-      <c r="T11" s="3">
+      <c r="R11" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" si="1"/>
         <v>25.639999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49">
         <v>11</v>
       </c>
-      <c r="C12" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="61">
+      <c r="C12" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="77">
         <v>56</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="77">
         <v>42</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="77">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="47">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="50">
         <v>62</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="50">
         <v>-2.31</v>
       </c>
-      <c r="K12" s="61">
-        <v>17</v>
-      </c>
-      <c r="L12" s="61">
+      <c r="K12" s="50">
         <v>59.69</v>
       </c>
-      <c r="M12" s="61">
+      <c r="L12" s="50">
         <v>50.53</v>
       </c>
-      <c r="N12" s="75">
+      <c r="M12" s="64">
         <v>90</v>
       </c>
-      <c r="O12" s="61">
+      <c r="N12" s="50">
         <v>75</v>
       </c>
-      <c r="P12" s="61">
+      <c r="O12" s="50">
         <v>218</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="P12" s="57">
         <v>616</v>
       </c>
-      <c r="R12" s="3">
+      <c r="Q12" s="3">
         <f t="shared" si="0"/>
         <v>64.772727272727266</v>
       </c>
-      <c r="T12" s="3">
+      <c r="R12" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" si="1"/>
         <v>30.310000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60">
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49">
         <v>12</v>
       </c>
-      <c r="C13" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="61">
+      <c r="C13" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="77">
         <v>56</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="77">
         <v>45</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="77">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="47">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="50">
         <v>68</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="50">
         <v>-3.3</v>
       </c>
-      <c r="K13" s="61">
-        <v>15</v>
-      </c>
-      <c r="L13" s="61">
+      <c r="K13" s="50">
         <v>64.7</v>
       </c>
-      <c r="M13" s="61">
+      <c r="L13" s="50">
         <v>52.6</v>
       </c>
-      <c r="N13" s="75">
+      <c r="M13" s="64">
         <v>89.34</v>
       </c>
-      <c r="O13" s="61">
+      <c r="N13" s="50">
         <v>80.36</v>
       </c>
-      <c r="P13" s="61">
+      <c r="O13" s="50">
         <v>141</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="P13" s="57">
         <v>437</v>
       </c>
-      <c r="R13" s="3">
+      <c r="Q13" s="3">
         <f t="shared" si="0"/>
         <v>67.963386727688786</v>
       </c>
-      <c r="T13" s="3">
+      <c r="R13" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="3">
         <f t="shared" si="1"/>
         <v>24.64</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60">
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49">
         <v>13</v>
       </c>
-      <c r="C14" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="61">
+      <c r="C14" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="77">
         <v>56</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="77">
         <v>43</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="77">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="47">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="50">
         <v>63</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="50">
         <v>-2.64</v>
       </c>
-      <c r="K14" s="61">
-        <v>15</v>
-      </c>
-      <c r="L14" s="61">
+      <c r="K14" s="50">
         <v>60.36</v>
       </c>
-      <c r="M14" s="61">
+      <c r="L14" s="50">
         <v>46.4</v>
       </c>
-      <c r="N14" s="75">
+      <c r="M14" s="64">
         <v>84.35</v>
       </c>
-      <c r="O14" s="61">
+      <c r="N14" s="50">
         <v>76.790000000000006</v>
       </c>
-      <c r="P14" s="61">
+      <c r="O14" s="50">
         <v>114</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="P14" s="57">
         <v>402</v>
       </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
         <f t="shared" si="0"/>
         <v>71.890547263681597</v>
       </c>
-      <c r="T14" s="3">
+      <c r="R14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" si="1"/>
         <v>23.989999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60">
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49">
         <v>14</v>
       </c>
-      <c r="C15" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="61">
+      <c r="C15" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="77">
         <v>50</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="77">
         <v>40</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="77">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="47">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="50">
         <v>65</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="50">
         <v>-3</v>
       </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61">
+      <c r="K15" s="50">
         <v>62</v>
       </c>
-      <c r="M15" s="61">
+      <c r="L15" s="50">
         <v>40.450000000000003</v>
       </c>
-      <c r="N15" s="75">
+      <c r="M15" s="64">
         <v>78.81</v>
       </c>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61">
+      <c r="N15" s="50"/>
+      <c r="O15" s="50">
         <v>139</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="P15" s="57">
         <v>100000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="Q15" s="3">
         <f t="shared" si="0"/>
         <v>99.861999999999995</v>
       </c>
-      <c r="T15" s="3">
+      <c r="R15" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="3">
         <f t="shared" si="1"/>
         <v>16.810000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60">
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49">
         <v>15</v>
       </c>
-      <c r="C16" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="61">
+      <c r="C16" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="77">
         <v>56</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="77">
         <v>50</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="77">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="47">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="50">
         <v>71</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="50">
         <v>-1.33</v>
       </c>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61">
+      <c r="K16" s="50">
         <v>69.66</v>
       </c>
-      <c r="M16" s="61">
+      <c r="L16" s="50">
         <v>47.81</v>
       </c>
-      <c r="N16" s="75">
+      <c r="M16" s="64">
         <v>83.09</v>
       </c>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61">
+      <c r="N16" s="50"/>
+      <c r="O16" s="50">
         <v>170</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="P16" s="57">
         <v>100000</v>
       </c>
-      <c r="R16" s="3">
+      <c r="Q16" s="3">
         <f t="shared" si="0"/>
         <v>99.831000000000003</v>
       </c>
-      <c r="T16" s="3">
+      <c r="R16" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="3">
         <f t="shared" si="1"/>
         <v>13.430000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60">
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49">
         <v>16</v>
       </c>
-      <c r="C17" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="61">
+      <c r="C17" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="77">
         <v>53</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="77">
         <v>43</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="77">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="47">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="50">
         <v>64</v>
       </c>
-      <c r="J17" s="61">
+      <c r="J17" s="50">
         <v>-1.67</v>
       </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61">
+      <c r="K17" s="50">
         <v>62.33</v>
       </c>
-      <c r="M17" s="61">
+      <c r="L17" s="50">
         <v>43.84</v>
       </c>
-      <c r="N17" s="75">
+      <c r="M17" s="64">
         <v>82.46</v>
       </c>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61">
+      <c r="N17" s="50"/>
+      <c r="O17" s="50">
         <v>201</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="P17" s="57">
         <v>150000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="Q17" s="3">
         <f t="shared" si="0"/>
         <v>99.866666666666674</v>
       </c>
-      <c r="T17" s="3">
+      <c r="R17" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" si="1"/>
         <v>20.129999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49">
         <v>17</v>
       </c>
-      <c r="C18" s="85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="61">
+      <c r="C18" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="77">
         <v>58</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="77">
         <v>41</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="77">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="47">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="50">
         <v>62</v>
       </c>
-      <c r="J18" s="61">
+      <c r="J18" s="50">
         <v>-2.97</v>
       </c>
-      <c r="K18" s="61">
-        <v>13</v>
-      </c>
-      <c r="L18" s="61">
+      <c r="K18" s="50">
         <v>59.03</v>
       </c>
-      <c r="M18" s="61">
+      <c r="L18" s="50">
         <v>48.22</v>
       </c>
-      <c r="N18" s="75">
+      <c r="M18" s="64">
         <v>88.68</v>
       </c>
-      <c r="O18" s="61">
+      <c r="N18" s="50">
         <v>70.69</v>
       </c>
-      <c r="P18" s="61">
+      <c r="O18" s="50">
         <v>397</v>
       </c>
-      <c r="Q18" s="68">
+      <c r="P18" s="57">
         <v>1335</v>
       </c>
-      <c r="R18" s="3">
+      <c r="Q18" s="3">
         <f t="shared" si="0"/>
         <v>70.337078651685388</v>
       </c>
-      <c r="T18" s="3">
+      <c r="R18" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="1"/>
         <v>29.650000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49">
         <v>18</v>
       </c>
-      <c r="C19" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="61">
+      <c r="C19" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="77">
         <v>60</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="77">
         <v>51</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="77">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="47">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="50">
         <v>79</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="50">
         <v>-1.32</v>
       </c>
-      <c r="K19" s="61">
-        <v>8</v>
-      </c>
-      <c r="L19" s="61">
+      <c r="K19" s="50">
         <v>77.680000000000007</v>
       </c>
-      <c r="M19" s="61">
+      <c r="L19" s="50">
         <v>49.92</v>
       </c>
-      <c r="N19" s="75">
+      <c r="M19" s="64">
         <v>86.68</v>
       </c>
-      <c r="O19" s="61">
+      <c r="N19" s="50">
         <v>85</v>
       </c>
-      <c r="P19" s="61">
+      <c r="O19" s="50">
         <v>31</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="P19" s="57">
         <v>1315</v>
       </c>
-      <c r="R19" s="3">
+      <c r="Q19" s="3">
         <f t="shared" si="0"/>
         <v>97.718631178707227</v>
       </c>
-      <c r="T19" s="3">
+      <c r="R19" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60">
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49">
         <v>19</v>
       </c>
-      <c r="C20" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="61">
+      <c r="C20" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="77">
         <v>59</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="77">
         <v>44</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="77">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="47">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="50">
         <v>67</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="50">
         <v>-2.64</v>
       </c>
-      <c r="K20" s="61">
-        <v>11</v>
-      </c>
-      <c r="L20" s="61">
+      <c r="K20" s="50">
         <v>64.36</v>
       </c>
-      <c r="M20" s="61">
+      <c r="L20" s="50">
         <v>46.71</v>
       </c>
-      <c r="N20" s="75">
+      <c r="M20" s="64">
         <v>83</v>
       </c>
-      <c r="O20" s="61">
+      <c r="N20" s="50">
         <v>74.58</v>
       </c>
-      <c r="P20" s="61">
+      <c r="O20" s="50">
         <v>137</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="P20" s="57">
         <v>865</v>
       </c>
-      <c r="R20" s="3">
+      <c r="Q20" s="3">
         <f t="shared" si="0"/>
         <v>84.277456647398836</v>
       </c>
-      <c r="T20" s="3">
+      <c r="R20" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="3">
         <f t="shared" si="1"/>
         <v>18.64</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63">
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52">
         <v>20</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="64">
+      <c r="C21" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="74"/>
+      <c r="E21" s="78">
         <v>56</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="78">
         <v>43</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="77">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="47">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="53">
         <v>64</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J21" s="53">
         <v>-3.3</v>
       </c>
-      <c r="K21" s="64">
-        <v>15</v>
-      </c>
-      <c r="L21" s="64">
+      <c r="K21" s="53">
         <v>60.7</v>
       </c>
-      <c r="M21" s="64">
+      <c r="L21" s="53">
         <v>41.19</v>
       </c>
-      <c r="N21" s="76">
+      <c r="M21" s="65">
         <v>82.02</v>
       </c>
-      <c r="O21" s="64">
+      <c r="N21" s="53">
         <v>76.790000000000006</v>
       </c>
-      <c r="P21" s="64">
+      <c r="O21" s="53">
         <v>120</v>
       </c>
-      <c r="Q21" s="69">
+      <c r="P21" s="58">
         <v>826</v>
       </c>
-      <c r="R21" s="3">
+      <c r="Q21" s="3">
         <f t="shared" si="0"/>
         <v>85.593220338983059</v>
       </c>
-      <c r="T21" s="3">
+      <c r="R21" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="3">
         <f t="shared" si="1"/>
         <v>21.319999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="44">
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="39">
         <v>44808</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="84">
         <v>21</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="79">
+        <v>57</v>
+      </c>
+      <c r="F22" s="80">
+        <v>43</v>
+      </c>
+      <c r="G22" s="77">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H22" s="47">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I22" s="40">
+        <v>64</v>
+      </c>
+      <c r="J22" s="41">
+        <v>-3.96</v>
+      </c>
+      <c r="K22" s="42">
+        <v>60.04</v>
+      </c>
+      <c r="L22" s="43">
+        <v>9.25</v>
+      </c>
+      <c r="M22" s="66">
+        <v>76.36</v>
+      </c>
+      <c r="N22" s="44">
+        <v>75.44</v>
+      </c>
+      <c r="O22" s="40">
+        <v>11</v>
+      </c>
+      <c r="P22" s="59">
+        <v>595</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" ref="Q22:Q39" si="5" xml:space="preserve"> (P22-O22+1)/(P22)*100</f>
+        <v>98.319327731092429</v>
+      </c>
+      <c r="R22" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="46">
-        <v>57</v>
-      </c>
-      <c r="F22" s="47">
-        <v>43</v>
-      </c>
-      <c r="G22" s="48">
-        <v>14</v>
-      </c>
-      <c r="H22" s="49">
-        <v>8</v>
-      </c>
-      <c r="I22" s="50">
-        <v>64</v>
-      </c>
-      <c r="J22" s="51">
-        <v>-3.96</v>
-      </c>
-      <c r="K22" s="52">
-        <v>15</v>
-      </c>
-      <c r="L22" s="53">
-        <v>60.04</v>
-      </c>
-      <c r="M22" s="54">
-        <v>9.25</v>
-      </c>
-      <c r="N22" s="77">
-        <v>76.36</v>
-      </c>
-      <c r="O22" s="55">
-        <v>75.44</v>
-      </c>
-      <c r="P22" s="50">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="70">
-        <v>595</v>
-      </c>
-      <c r="R22" s="3">
-        <f t="shared" ref="R22:R39" si="2" xml:space="preserve"> (Q22-P22+1)/(Q22)*100</f>
-        <v>98.319327731092429</v>
-      </c>
-      <c r="S22" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="S22" s="3">
         <f t="shared" si="1"/>
         <v>16.32</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="31">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28">
         <v>44816</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="87">
         <v>22</v>
       </c>
-      <c r="C23" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="12">
+      <c r="C23" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="81">
         <v>58</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="82">
         <v>44</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="77">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="47">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="16">
         <v>66</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="25">
         <v>-1.65</v>
       </c>
-      <c r="K23" s="33">
-        <v>14</v>
-      </c>
-      <c r="L23" s="16">
+      <c r="K23" s="13">
         <v>64.349999999999994</v>
       </c>
-      <c r="M23" s="17">
+      <c r="L23" s="14">
         <v>30.77</v>
       </c>
-      <c r="N23" s="75">
+      <c r="M23" s="64">
         <v>73.34</v>
       </c>
-      <c r="O23" s="18">
+      <c r="N23" s="15">
         <v>75.86</v>
       </c>
-      <c r="P23" s="19">
+      <c r="O23" s="16">
         <v>10</v>
       </c>
-      <c r="Q23" s="71">
+      <c r="P23" s="60">
         <v>88</v>
       </c>
-      <c r="R23" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="5"/>
         <v>89.772727272727266</v>
       </c>
-      <c r="S23" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="R23" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="3">
         <f t="shared" si="1"/>
         <v>8.9900000000000091</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28">
         <v>44822</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="87">
         <v>23</v>
       </c>
-      <c r="C24" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="12">
+      <c r="C24" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="89"/>
+      <c r="E24" s="81">
         <v>64</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="82">
         <v>46</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="77">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="47">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="16">
         <v>71</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="25">
         <v>-2.97</v>
       </c>
-      <c r="K24" s="33">
-        <v>2</v>
-      </c>
-      <c r="L24" s="16">
+      <c r="K24" s="13">
         <v>68.03</v>
       </c>
-      <c r="M24" s="17">
+      <c r="L24" s="14">
         <v>26.27</v>
       </c>
-      <c r="N24" s="75">
+      <c r="M24" s="64">
         <v>77.680000000000007</v>
       </c>
-      <c r="O24" s="18">
+      <c r="N24" s="15">
         <v>71.88</v>
       </c>
-      <c r="P24" s="19">
+      <c r="O24" s="16">
         <v>6</v>
       </c>
-      <c r="Q24" s="71">
+      <c r="P24" s="60">
         <v>52</v>
       </c>
-      <c r="R24" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q24" s="3">
+        <f t="shared" si="5"/>
         <v>90.384615384615387</v>
       </c>
-      <c r="S24" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="T24" s="3">
+      <c r="R24" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" si="1"/>
         <v>9.6500000000000057</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28">
         <v>44857</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="87">
         <v>24</v>
       </c>
-      <c r="C25" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="12">
+      <c r="C25" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="89"/>
+      <c r="E25" s="81">
         <v>63</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="82">
         <v>45</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="77">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="47">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="16">
         <v>65</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="25">
         <v>-3.3</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K25" s="13">
+        <v>61.7</v>
+      </c>
+      <c r="L25" s="14">
+        <v>35.83</v>
+      </c>
+      <c r="M25" s="64">
+        <v>62.03</v>
+      </c>
+      <c r="N25" s="15">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="O25" s="16">
         <v>3</v>
       </c>
-      <c r="L25" s="16">
-        <v>61.7</v>
-      </c>
-      <c r="M25" s="17">
-        <v>35.83</v>
-      </c>
-      <c r="N25" s="75">
-        <v>62.03</v>
-      </c>
-      <c r="O25" s="18">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="P25" s="19">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="71">
+      <c r="P25" s="60">
         <v>26</v>
       </c>
-      <c r="R25" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q25" s="3">
+        <f t="shared" si="5"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="S25" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="T25" s="3">
+      <c r="R25" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" si="1"/>
         <v>0.32999999999999829</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28">
         <v>44871</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="87">
         <v>25</v>
       </c>
-      <c r="C26" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="12">
+      <c r="C26" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="89"/>
+      <c r="E26" s="81">
         <v>63</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="82">
         <v>45</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="77">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="47">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="16">
         <v>69</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="25">
         <v>-2.64</v>
       </c>
-      <c r="K26" s="33">
-        <v>3</v>
-      </c>
-      <c r="L26" s="16">
+      <c r="K26" s="13">
         <v>66.36</v>
       </c>
-      <c r="M26" s="17">
+      <c r="L26" s="14">
         <v>47.2</v>
       </c>
-      <c r="N26" s="75">
+      <c r="M26" s="64">
         <v>75.02</v>
       </c>
-      <c r="O26" s="18">
+      <c r="N26" s="15">
         <v>71.430000000000007</v>
       </c>
-      <c r="P26" s="19">
+      <c r="O26" s="16">
         <v>7</v>
       </c>
-      <c r="Q26" s="71">
+      <c r="P26" s="60">
         <v>40</v>
       </c>
-      <c r="R26" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q26" s="3">
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
-      <c r="S26" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="R26" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" si="1"/>
         <v>8.6599999999999966</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
         <v>44874</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="87">
         <v>26</v>
       </c>
-      <c r="C27" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="12">
+      <c r="C27" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="89"/>
+      <c r="E27" s="81">
         <v>61</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="82">
         <v>42</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="77">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="47">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="16">
         <v>62</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="25">
         <v>-0.99</v>
       </c>
-      <c r="K27" s="33">
-        <v>5</v>
-      </c>
-      <c r="L27" s="16">
+      <c r="K27" s="13">
         <v>61.01</v>
       </c>
-      <c r="M27" s="17">
+      <c r="L27" s="14">
         <v>44.62</v>
       </c>
-      <c r="N27" s="17">
+      <c r="M27" s="14">
         <v>75.010000000000005</v>
       </c>
-      <c r="O27" s="18">
+      <c r="N27" s="15">
         <v>68.849999999999994</v>
       </c>
-      <c r="P27" s="19">
+      <c r="O27" s="16">
         <v>8</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="P27" s="16">
         <v>46</v>
       </c>
-      <c r="R27" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q27" s="3">
+        <f t="shared" si="5"/>
         <v>84.782608695652172</v>
       </c>
-      <c r="S27" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="R27" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" s="3">
         <f t="shared" si="1"/>
         <v>14.000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
         <v>44878</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="87">
         <v>27</v>
       </c>
-      <c r="C28" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="83"/>
-      <c r="E28" s="12">
+      <c r="C28" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="90"/>
+      <c r="E28" s="81">
         <v>65</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="82">
         <v>56</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="77">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="47">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="16">
         <v>85</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="25">
         <v>-1.65</v>
       </c>
-      <c r="K28" s="33">
-        <v>0</v>
-      </c>
-      <c r="L28" s="16">
+      <c r="K28" s="13">
         <v>83.35</v>
       </c>
-      <c r="M28" s="17">
+      <c r="L28" s="14">
         <v>45.78</v>
       </c>
-      <c r="N28" s="17">
+      <c r="M28" s="14">
         <v>83.35</v>
       </c>
-      <c r="O28" s="18">
+      <c r="N28" s="15">
         <v>86.15</v>
       </c>
-      <c r="P28" s="19">
+      <c r="O28" s="16">
         <v>1</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="P28" s="16">
         <v>34</v>
       </c>
-      <c r="R28" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q28" s="3">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="S28" s="72" t="s">
-        <v>39</v>
-      </c>
-      <c r="T28" s="3">
+      <c r="R28" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="3">
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+      <c r="B29" s="91">
         <v>28</v>
       </c>
-      <c r="C29" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="3" t="e">
-        <f t="shared" si="2"/>
+      <c r="C29" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="93"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="47"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="3" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S29" s="72"/>
-      <c r="T29" s="3">
+      <c r="R29" s="61"/>
+      <c r="S29" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="3">
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28">
+        <v>44881</v>
+      </c>
+      <c r="B30" s="87">
         <v>29</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="89"/>
+      <c r="E30" s="81">
+        <v>63</v>
+      </c>
+      <c r="F30" s="82">
+        <v>51</v>
+      </c>
+      <c r="G30" s="77">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H30" s="47">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I30" s="16">
+        <v>77</v>
+      </c>
+      <c r="J30" s="25">
+        <v>-2.31</v>
+      </c>
+      <c r="K30" s="13">
+        <v>74.69</v>
+      </c>
+      <c r="L30" s="14">
+        <v>45.83</v>
+      </c>
+      <c r="M30" s="64">
+        <v>86</v>
+      </c>
+      <c r="N30" s="15">
+        <v>80.95</v>
+      </c>
+      <c r="O30" s="16">
+        <v>7</v>
+      </c>
+      <c r="P30" s="60">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="5"/>
+        <v>95.081967213114751</v>
+      </c>
+      <c r="R30" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="1"/>
+        <v>11.310000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28">
+        <v>44915</v>
+      </c>
+      <c r="B31" s="87">
+        <v>30</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="89"/>
+      <c r="E31" s="81">
+        <v>55</v>
+      </c>
+      <c r="F31" s="82">
+        <v>41</v>
+      </c>
+      <c r="G31" s="77">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H31" s="47">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I31" s="16">
+        <v>61</v>
+      </c>
+      <c r="J31" s="25">
+        <v>-3.67</v>
+      </c>
+      <c r="K31" s="13">
+        <v>59.33</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="64">
+        <v>81</v>
+      </c>
+      <c r="N31" s="15"/>
+      <c r="O31" s="16">
+        <v>30</v>
+      </c>
+      <c r="P31" s="60">
+        <v>113</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="5"/>
+        <v>74.336283185840713</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="1"/>
+        <v>21.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="28">
+        <v>44917</v>
+      </c>
+      <c r="B32" s="87">
+        <v>31</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="E32" s="81">
+        <v>52</v>
+      </c>
+      <c r="F32" s="82">
+        <v>37</v>
+      </c>
+      <c r="G32" s="77">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="H32" s="47">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I32" s="16">
+        <v>55</v>
+      </c>
+      <c r="J32" s="25">
+        <v>-3</v>
+      </c>
+      <c r="K32" s="13">
+        <v>52</v>
+      </c>
+      <c r="L32" s="14"/>
+      <c r="M32" s="64">
+        <v>81</v>
+      </c>
+      <c r="N32" s="15"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="28">
+        <v>44925</v>
+      </c>
+      <c r="B33" s="87">
+        <v>32</v>
+      </c>
+      <c r="C33" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="89"/>
+      <c r="E33" s="81">
+        <v>58</v>
+      </c>
+      <c r="F33" s="82">
+        <v>48</v>
+      </c>
+      <c r="G33" s="77">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H33" s="47">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I33" s="16">
+        <v>71</v>
+      </c>
+      <c r="J33" s="25">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="13">
+        <v>70</v>
+      </c>
+      <c r="L33" s="14">
+        <v>44.97</v>
+      </c>
+      <c r="M33" s="64">
+        <v>79</v>
+      </c>
+      <c r="N33" s="15"/>
+      <c r="O33" s="16">
+        <v>6</v>
+      </c>
+      <c r="P33" s="60">
+        <v>68</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="5"/>
+        <v>92.64705882352942</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28">
+        <v>44928</v>
+      </c>
+      <c r="B34" s="87">
+        <v>33</v>
+      </c>
+      <c r="C34" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="89"/>
+      <c r="E34" s="81">
+        <v>57</v>
+      </c>
+      <c r="F34" s="82">
+        <v>48</v>
+      </c>
+      <c r="G34" s="77">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H34" s="47">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I34" s="16">
+        <v>73</v>
+      </c>
+      <c r="J34" s="25">
+        <v>-2.33</v>
+      </c>
+      <c r="K34" s="13">
+        <v>70.66</v>
+      </c>
+      <c r="L34" s="14">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="M34" s="64">
+        <v>71.33</v>
+      </c>
+      <c r="N34" s="15"/>
+      <c r="O34" s="16">
+        <v>2</v>
+      </c>
+      <c r="P34" s="60">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="5"/>
+        <v>97.674418604651152</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.67000000000000171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28"/>
+      <c r="B35" s="3">
+        <v>30</v>
+      </c>
+      <c r="C35" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="3" t="e">
-        <f t="shared" si="2"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="3" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="72"/>
-      <c r="T30" s="3">
+      <c r="S35" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="31">
-        <v>44915</v>
-      </c>
-      <c r="B31" s="3">
-        <v>30</v>
-      </c>
-      <c r="C31" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="12">
-        <v>55</v>
-      </c>
-      <c r="F31" s="13">
-        <v>41</v>
-      </c>
-      <c r="G31" s="14">
-        <v>14</v>
-      </c>
-      <c r="H31" s="32">
-        <v>10</v>
-      </c>
-      <c r="I31" s="19">
-        <v>61</v>
-      </c>
-      <c r="J31" s="28">
-        <v>-3.67</v>
-      </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="16">
-        <v>59.33</v>
-      </c>
-      <c r="M31" s="17"/>
-      <c r="N31" s="75">
-        <v>81</v>
-      </c>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="71">
-        <v>113</v>
-      </c>
-      <c r="R31" s="3">
-        <f t="shared" si="2"/>
-        <v>74.336283185840713</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T31" s="3">
-        <f t="shared" si="1"/>
-        <v>21.67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="31">
-        <v>44917</v>
-      </c>
-      <c r="B32" s="3">
+    <row r="36" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="28"/>
+      <c r="B36" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="12">
-        <v>52</v>
-      </c>
-      <c r="F32" s="13">
-        <v>37</v>
-      </c>
-      <c r="G32" s="14">
-        <v>15</v>
-      </c>
-      <c r="H32" s="32">
-        <v>13</v>
-      </c>
-      <c r="I32" s="19">
-        <v>55</v>
-      </c>
-      <c r="J32" s="28">
-        <v>-3</v>
-      </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="16">
-        <v>52</v>
-      </c>
-      <c r="M32" s="17"/>
-      <c r="N32" s="75">
-        <v>81</v>
-      </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="3" t="e">
-        <f t="shared" si="2"/>
+      <c r="C36" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="75"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="3" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T32" s="3">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="31">
-        <v>44925</v>
-      </c>
-      <c r="B33" s="3">
-        <v>32</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="12">
-        <v>58</v>
-      </c>
-      <c r="F33" s="13">
-        <v>48</v>
-      </c>
-      <c r="G33" s="14">
-        <v>10</v>
-      </c>
-      <c r="H33" s="32">
-        <v>7</v>
-      </c>
-      <c r="I33" s="19">
-        <v>71</v>
-      </c>
-      <c r="J33" s="28">
-        <v>-1</v>
-      </c>
-      <c r="K33" s="33">
-        <v>28</v>
-      </c>
-      <c r="L33" s="16">
-        <v>70</v>
-      </c>
-      <c r="M33" s="17">
-        <v>44.97</v>
-      </c>
-      <c r="N33" s="75">
-        <v>79</v>
-      </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="71">
-        <v>68</v>
-      </c>
-      <c r="R33" s="3">
-        <f t="shared" si="2"/>
-        <v>92.64705882352942</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T33" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="3">
+      <c r="S36" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="3">
-        <v>30</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="3" t="e">
-        <f t="shared" si="2"/>
+    <row r="37" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28"/>
+      <c r="B37" s="3">
+        <v>32</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="75"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="47"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="3" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T35" s="3">
+      <c r="S37" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="3">
-        <v>31</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="3" t="e">
-        <f t="shared" si="2"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="3">
+        <v>33</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="75"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="47"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="3" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T36" s="3">
+      <c r="S38" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="3">
-        <v>32</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="83"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
-      <c r="B38" s="3">
-        <v>33</v>
-      </c>
-      <c r="C38" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="83"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3">
         <v>34</v>
       </c>
-      <c r="C39" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="84"/>
-      <c r="E39" s="12">
-        <f t="shared" ref="E39:P39" si="3">AVERAGE(E2:E38)</f>
-        <v>55.4</v>
-      </c>
-      <c r="F39" s="13">
-        <f t="shared" si="3"/>
-        <v>41.551724137931032</v>
-      </c>
-      <c r="G39" s="14">
-        <f t="shared" si="3"/>
-        <v>14.033333333333333</v>
-      </c>
-      <c r="H39" s="15">
-        <f t="shared" si="3"/>
-        <v>9.6</v>
-      </c>
-      <c r="I39" s="19">
-        <f t="shared" si="3"/>
-        <v>61.8</v>
-      </c>
-      <c r="J39" s="28">
-        <f t="shared" si="3"/>
-        <v>-2.8770000000000002</v>
-      </c>
-      <c r="K39" s="15">
-        <f t="shared" si="3"/>
-        <v>16.125</v>
-      </c>
-      <c r="L39" s="16">
-        <f t="shared" si="3"/>
-        <v>59.05599999999999</v>
-      </c>
-      <c r="M39" s="17">
-        <f t="shared" si="3"/>
-        <v>41.157407407407419</v>
-      </c>
-      <c r="N39" s="75">
-        <f t="shared" si="3"/>
-        <v>82.057333333333332</v>
-      </c>
-      <c r="O39" s="18">
-        <f t="shared" si="3"/>
-        <v>73.213043478260872</v>
-      </c>
-      <c r="P39" s="19">
-        <f t="shared" si="3"/>
-        <v>117.32142857142857</v>
-      </c>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="3" t="e">
-        <f t="shared" si="2"/>
+      <c r="C39" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="71"/>
+      <c r="E39" s="81">
+        <f t="shared" ref="E39:O39" si="6">AVERAGE(E2:E38)</f>
+        <v>55.6875</v>
+      </c>
+      <c r="F39" s="82">
+        <f t="shared" si="6"/>
+        <v>42.064516129032256</v>
+      </c>
+      <c r="G39" s="83">
+        <f t="shared" si="6"/>
+        <v>11.945945945945946</v>
+      </c>
+      <c r="H39" s="12">
+        <f t="shared" si="6"/>
+        <v>9.3125</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" si="6"/>
+        <v>62.625</v>
+      </c>
+      <c r="J39" s="25">
+        <f t="shared" si="6"/>
+        <v>-2.8421875000000001</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="6"/>
+        <v>59.907187499999992</v>
+      </c>
+      <c r="L39" s="14">
+        <f t="shared" si="6"/>
+        <v>41.300000000000004</v>
+      </c>
+      <c r="M39" s="64">
+        <f t="shared" si="6"/>
+        <v>81.845312499999991</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" si="6"/>
+        <v>73.535416666666677</v>
+      </c>
+      <c r="O39" s="16">
+        <f t="shared" si="6"/>
+        <v>109.8</v>
+      </c>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="3" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="3">
+      <c r="S39" s="3">
         <f t="shared" si="1"/>
-        <v>23.001333333333342</v>
+        <v>21.938124999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -7392,23 +7578,19 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
-  <conditionalFormatting sqref="M2:M14">
-    <cfRule type="colorScale" priority="90">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="L2:L14">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7419,7 +7601,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:M24 M26 M29:M34">
+  <conditionalFormatting sqref="L22:L24 L26 L29:L34">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:K24 K26 K29:K34">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -7431,20 +7625,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L24 L26 L29:L34">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O24 O26 O29:O34">
-    <cfRule type="iconSet" priority="85">
+  <conditionalFormatting sqref="N22:N24 N26 N29:N34">
+    <cfRule type="iconSet" priority="86">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7453,7 +7635,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I24 I26 I29:I34">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7467,7 +7649,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24 J26 J29:J34">
-    <cfRule type="iconSet" priority="91">
+    <cfRule type="iconSet" priority="92">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7476,7 +7658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F24 F26 F29:F34">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7486,28 +7668,28 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="92" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="93" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22:P24 P26 P29:P34">
-    <cfRule type="cellIs" dxfId="14" priority="71" operator="between">
+  <conditionalFormatting sqref="O22:O24 O26 O29:O34">
+    <cfRule type="cellIs" dxfId="10" priority="72" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S34">
-    <cfRule type="cellIs" dxfId="13" priority="70" operator="equal">
+  <conditionalFormatting sqref="R2:R34">
+    <cfRule type="cellIs" dxfId="9" priority="71" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S22:S34">
-    <cfRule type="cellIs" dxfId="12" priority="69" operator="equal">
+  <conditionalFormatting sqref="R2:R34">
+    <cfRule type="cellIs" dxfId="8" priority="70" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L21">
-    <cfRule type="colorScale" priority="97">
+  <conditionalFormatting sqref="K2:K21">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7518,8 +7700,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O21">
-    <cfRule type="iconSet" priority="98">
+  <conditionalFormatting sqref="N2:N21">
+    <cfRule type="iconSet" priority="99">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7528,7 +7710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I21">
-    <cfRule type="dataBar" priority="99">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7542,7 +7724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J21">
-    <cfRule type="iconSet" priority="100">
+    <cfRule type="iconSet" priority="101">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7550,8 +7732,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M21">
-    <cfRule type="colorScale" priority="104">
+  <conditionalFormatting sqref="L2:L21">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7562,7 +7744,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
+  <conditionalFormatting sqref="L25">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -7574,20 +7768,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25">
-    <cfRule type="iconSet" priority="50">
+  <conditionalFormatting sqref="N25">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7596,7 +7778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7610,7 +7792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="iconSet" priority="105">
+    <cfRule type="iconSet" priority="106">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7619,7 +7801,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7629,18 +7811,18 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="107" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
-    <cfRule type="cellIs" dxfId="10" priority="44" operator="between">
+  <conditionalFormatting sqref="O25">
+    <cfRule type="cellIs" dxfId="6" priority="45" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7651,8 +7833,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N26 N29:N1048576">
-    <cfRule type="colorScale" priority="39">
+  <conditionalFormatting sqref="M1:M26 M29:M1048576">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7663,7 +7845,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27">
+  <conditionalFormatting sqref="L27">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -7675,20 +7869,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27">
-    <cfRule type="iconSet" priority="36">
+  <conditionalFormatting sqref="N27">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7697,7 +7879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7711,7 +7893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="iconSet" priority="107">
+    <cfRule type="iconSet" priority="108">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7720,21 +7902,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="108" operator="greaterThan">
-      <formula>$G$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -7745,15 +7912,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27">
-    <cfRule type="cellIs" dxfId="8" priority="22" operator="between">
-      <formula>1</formula>
-      <formula>10</formula>
+    <cfRule type="cellIs" dxfId="5" priority="109" operator="greaterThan">
+      <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M28">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="M27">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7762,6 +7926,12 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27">
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="between">
+      <formula>1</formula>
+      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
@@ -7776,8 +7946,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O28">
-    <cfRule type="iconSet" priority="14">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7786,7 +7968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7800,7 +7982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="17">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7809,7 +7991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7819,12 +8001,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="19" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="M28">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7835,14 +8017,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+  <conditionalFormatting sqref="O28">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35:L38">
-    <cfRule type="colorScale" priority="110">
+  <conditionalFormatting sqref="K35:K38">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7853,8 +8035,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O35:O38">
-    <cfRule type="iconSet" priority="112">
+  <conditionalFormatting sqref="N35:N38">
+    <cfRule type="iconSet" priority="113">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7863,7 +8045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I38">
-    <cfRule type="dataBar" priority="114">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7877,7 +8059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J38">
-    <cfRule type="iconSet" priority="116">
+    <cfRule type="iconSet" priority="117">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7886,7 +8068,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F38">
-    <cfRule type="colorScale" priority="118">
+    <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7896,12 +8078,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="119" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="120" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35:M38">
-    <cfRule type="colorScale" priority="122">
+  <conditionalFormatting sqref="L35:L38">
+    <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7913,7 +8095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="colorScale" priority="124">
+    <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7923,12 +8105,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="125" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="126" operator="greaterThan">
       <formula>$F$39</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T39">
-    <cfRule type="colorScale" priority="126">
+  <conditionalFormatting sqref="S2:S39">
+    <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7936,6 +8118,18 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F38">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9616B7-C1A0-4713-9CDC-27451F565A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C439B7-7061-4BB3-B86C-4F7CBC503A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Test Name</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Analyzed?</t>
+  </si>
+  <si>
+    <t>GO CLASSES MOCK - 6 AIMT</t>
+  </si>
+  <si>
+    <t>GO MOCK -2</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,10 +711,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -718,55 +759,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,112 +770,7 @@
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1185,10 +1076,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$38</c:f>
+              <c:f>Sheet1!$K$2:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>35.71</c:v>
                 </c:pt>
@@ -1284,6 +1175,12 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>70.66</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,10 +1540,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$38</c:f>
+              <c:f>Sheet1!$N$2:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>65.849999999999994</c:v>
                 </c:pt>
@@ -1976,10 +1873,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$38</c:f>
+              <c:f>Sheet1!$S$2:$S$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>50.63</c:v>
                 </c:pt>
@@ -2080,15 +1977,21 @@
                   <c:v>0.67000000000000171</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>32.67</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2356,10 +2259,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$45</c:f>
+              <c:f>Sheet1!$Q$2:$Q$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>41.791044776119399</c:v>
                 </c:pt>
@@ -2460,10 +2363,10 @@
                   <c:v>97.674418604651152</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>79.467680608365015</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>84.033613445378151</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -2472,6 +2375,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4825,13 +4734,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4861,13 +4770,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>230393</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>144556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>542813</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>144556</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4897,13 +4806,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>354106</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4933,13 +4842,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>551328</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>44822</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5265,10 +5174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R72" sqref="R72"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5300,10 +5209,10 @@
       <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="72"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
@@ -5355,17 +5264,17 @@
       <c r="B2" s="46">
         <v>1</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="76">
+      <c r="D2" s="86"/>
+      <c r="E2" s="47">
         <v>41</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="47">
         <v>27</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="50">
         <f>E2-F2</f>
         <v>14</v>
       </c>
@@ -5405,7 +5314,7 @@
         <v>38</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S39" si="1">M2-K2</f>
+        <f t="shared" ref="S2:S41" si="1">M2-K2</f>
         <v>50.63</v>
       </c>
     </row>
@@ -5414,17 +5323,17 @@
       <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="77">
+      <c r="D3" s="84"/>
+      <c r="E3" s="50">
         <v>40</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="50">
         <v>27</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="50">
         <f t="shared" ref="G3:G10" si="2">E3-F3</f>
         <v>13</v>
       </c>
@@ -5473,22 +5382,22 @@
       <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="77">
+      <c r="D4" s="84"/>
+      <c r="E4" s="50">
         <v>51</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="50">
         <v>33</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="50">
         <f>E4-F4</f>
         <v>18</v>
       </c>
       <c r="H4" s="47">
-        <f t="shared" ref="H4:H34" si="3">65-E4</f>
+        <f t="shared" ref="H4:H36" si="3">65-E4</f>
         <v>14</v>
       </c>
       <c r="I4" s="50">
@@ -5532,17 +5441,17 @@
       <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="77">
+      <c r="D5" s="84"/>
+      <c r="E5" s="50">
         <v>51</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="50">
         <v>15</v>
       </c>
       <c r="H5" s="47">
@@ -5582,17 +5491,17 @@
       <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="77">
+      <c r="D6" s="84"/>
+      <c r="E6" s="50">
         <v>47</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="50">
         <v>35</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="50">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -5641,17 +5550,17 @@
       <c r="B7" s="49">
         <v>6</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="77">
+      <c r="D7" s="84"/>
+      <c r="E7" s="50">
         <v>51</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="50">
         <v>35</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="50">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -5700,17 +5609,17 @@
       <c r="B8" s="49">
         <v>7</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="77">
+      <c r="D8" s="84"/>
+      <c r="E8" s="50">
         <v>52</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="50">
         <v>38</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="50">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -5759,17 +5668,17 @@
       <c r="B9" s="49">
         <v>8</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="77">
+      <c r="D9" s="84"/>
+      <c r="E9" s="50">
         <v>55</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="50">
         <v>34</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="50">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -5818,17 +5727,17 @@
       <c r="B10" s="49">
         <v>9</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="77">
+      <c r="D10" s="84"/>
+      <c r="E10" s="50">
         <v>58</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="50">
         <v>45</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="50">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -5877,18 +5786,18 @@
       <c r="B11" s="49">
         <v>10</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="77">
+      <c r="D11" s="84"/>
+      <c r="E11" s="50">
         <v>60</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="50">
         <v>42</v>
       </c>
-      <c r="G11" s="77">
-        <f t="shared" ref="G11:G38" si="4">E11-F11</f>
+      <c r="G11" s="50">
+        <f t="shared" ref="G11:G40" si="4">E11-F11</f>
         <v>18</v>
       </c>
       <c r="H11" s="47">
@@ -5936,17 +5845,17 @@
       <c r="B12" s="49">
         <v>11</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="77">
+      <c r="D12" s="84"/>
+      <c r="E12" s="50">
         <v>56</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="50">
         <v>42</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="50">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -5995,17 +5904,17 @@
       <c r="B13" s="49">
         <v>12</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="77">
+      <c r="D13" s="84"/>
+      <c r="E13" s="50">
         <v>56</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="50">
         <v>45</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="50">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -6054,17 +5963,17 @@
       <c r="B14" s="49">
         <v>13</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="77">
+      <c r="D14" s="84"/>
+      <c r="E14" s="50">
         <v>56</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="50">
         <v>43</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="50">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -6113,17 +6022,17 @@
       <c r="B15" s="49">
         <v>14</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="77">
+      <c r="D15" s="84"/>
+      <c r="E15" s="50">
         <v>50</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="50">
         <v>40</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="50">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -6170,17 +6079,17 @@
       <c r="B16" s="49">
         <v>15</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="77">
+      <c r="D16" s="84"/>
+      <c r="E16" s="50">
         <v>56</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="50">
         <v>50</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="50">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -6227,17 +6136,17 @@
       <c r="B17" s="49">
         <v>16</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="77">
+      <c r="D17" s="84"/>
+      <c r="E17" s="50">
         <v>53</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="50">
         <v>43</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="50">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -6284,17 +6193,17 @@
       <c r="B18" s="49">
         <v>17</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="77">
+      <c r="D18" s="84"/>
+      <c r="E18" s="50">
         <v>58</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="50">
         <v>41</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="50">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -6343,17 +6252,17 @@
       <c r="B19" s="49">
         <v>18</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="77">
+      <c r="D19" s="84"/>
+      <c r="E19" s="50">
         <v>60</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="50">
         <v>51</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="50">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -6402,17 +6311,17 @@
       <c r="B20" s="49">
         <v>19</v>
       </c>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="77">
+      <c r="D20" s="84"/>
+      <c r="E20" s="50">
         <v>59</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="50">
         <v>44</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="50">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -6461,17 +6370,17 @@
       <c r="B21" s="52">
         <v>20</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="78">
+      <c r="D21" s="87"/>
+      <c r="E21" s="53">
         <v>56</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="53">
         <v>43</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="50">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -6519,20 +6428,20 @@
       <c r="A22" s="39">
         <v>44808</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="75">
         <v>21</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="79">
+      <c r="D22" s="89"/>
+      <c r="E22" s="70">
         <v>57</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="71">
         <v>43</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="50">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -6565,7 +6474,7 @@
         <v>595</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" ref="Q22:Q39" si="5" xml:space="preserve"> (P22-O22+1)/(P22)*100</f>
+        <f t="shared" ref="Q22:Q41" si="5" xml:space="preserve"> (P22-O22+1)/(P22)*100</f>
         <v>98.319327731092429</v>
       </c>
       <c r="R22" s="61" t="s">
@@ -6580,20 +6489,20 @@
       <c r="A23" s="28">
         <v>44816</v>
       </c>
-      <c r="B23" s="87">
+      <c r="B23" s="76">
         <v>22</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="81">
+      <c r="D23" s="78"/>
+      <c r="E23" s="72">
         <v>58</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="73">
         <v>44</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="50">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -6641,20 +6550,20 @@
       <c r="A24" s="28">
         <v>44822</v>
       </c>
-      <c r="B24" s="87">
+      <c r="B24" s="76">
         <v>23</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="81">
+      <c r="D24" s="78"/>
+      <c r="E24" s="72">
         <v>64</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="73">
         <v>46</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="50">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -6702,20 +6611,20 @@
       <c r="A25" s="28">
         <v>44857</v>
       </c>
-      <c r="B25" s="87">
+      <c r="B25" s="76">
         <v>24</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="81">
+      <c r="D25" s="78"/>
+      <c r="E25" s="72">
         <v>63</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="73">
         <v>45</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="50">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -6763,20 +6672,20 @@
       <c r="A26" s="28">
         <v>44871</v>
       </c>
-      <c r="B26" s="87">
+      <c r="B26" s="76">
         <v>25</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="81">
+      <c r="D26" s="78"/>
+      <c r="E26" s="72">
         <v>63</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="73">
         <v>45</v>
       </c>
-      <c r="G26" s="77">
+      <c r="G26" s="50">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -6824,20 +6733,20 @@
       <c r="A27" s="28">
         <v>44874</v>
       </c>
-      <c r="B27" s="87">
+      <c r="B27" s="76">
         <v>26</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="81">
+      <c r="D27" s="78"/>
+      <c r="E27" s="72">
         <v>61</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="73">
         <v>42</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="50">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -6885,20 +6794,20 @@
       <c r="A28" s="28">
         <v>44878</v>
       </c>
-      <c r="B28" s="87">
+      <c r="B28" s="76">
         <v>27</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="81">
+      <c r="D28" s="80"/>
+      <c r="E28" s="72">
         <v>65</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="73">
         <v>56</v>
       </c>
-      <c r="G28" s="77">
+      <c r="G28" s="50">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -6944,16 +6853,16 @@
     </row>
     <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28"/>
-      <c r="B29" s="91">
+      <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="77">
+      <c r="D29" s="82"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -6980,20 +6889,20 @@
       <c r="A30" s="28">
         <v>44881</v>
       </c>
-      <c r="B30" s="87">
+      <c r="B30" s="76">
         <v>29</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="81">
+      <c r="D30" s="78"/>
+      <c r="E30" s="72">
         <v>63</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="73">
         <v>51</v>
       </c>
-      <c r="G30" s="77">
+      <c r="G30" s="50">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -7041,20 +6950,20 @@
       <c r="A31" s="28">
         <v>44915</v>
       </c>
-      <c r="B31" s="87">
+      <c r="B31" s="76">
         <v>30</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="81">
+      <c r="D31" s="78"/>
+      <c r="E31" s="72">
         <v>55</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="73">
         <v>41</v>
       </c>
-      <c r="G31" s="77">
+      <c r="G31" s="50">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -7098,20 +7007,20 @@
       <c r="A32" s="28">
         <v>44917</v>
       </c>
-      <c r="B32" s="87">
+      <c r="B32" s="76">
         <v>31</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="81">
+      <c r="D32" s="78"/>
+      <c r="E32" s="72">
         <v>52</v>
       </c>
-      <c r="F32" s="82">
+      <c r="F32" s="73">
         <v>37</v>
       </c>
-      <c r="G32" s="77">
+      <c r="G32" s="50">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -7151,20 +7060,20 @@
       <c r="A33" s="28">
         <v>44925</v>
       </c>
-      <c r="B33" s="87">
+      <c r="B33" s="76">
         <v>32</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="81">
+      <c r="D33" s="78"/>
+      <c r="E33" s="72">
         <v>58</v>
       </c>
-      <c r="F33" s="82">
+      <c r="F33" s="73">
         <v>48</v>
       </c>
-      <c r="G33" s="77">
+      <c r="G33" s="50">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -7210,20 +7119,20 @@
       <c r="A34" s="28">
         <v>44928</v>
       </c>
-      <c r="B34" s="87">
+      <c r="B34" s="76">
         <v>33</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="81">
+      <c r="D34" s="78"/>
+      <c r="E34" s="72">
         <v>57</v>
       </c>
-      <c r="F34" s="82">
+      <c r="F34" s="73">
         <v>48</v>
       </c>
-      <c r="G34" s="77">
+      <c r="G34" s="50">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -7266,83 +7175,133 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
-      <c r="B35" s="3">
-        <v>30</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="75"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="64"/>
+      <c r="A35" s="28">
+        <v>44934</v>
+      </c>
+      <c r="B35" s="76">
+        <v>34</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="78"/>
+      <c r="E35" s="72">
+        <v>57</v>
+      </c>
+      <c r="F35" s="73">
+        <v>33</v>
+      </c>
+      <c r="G35" s="50">
+        <v>24</v>
+      </c>
+      <c r="H35" s="47">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I35" s="16">
+        <v>49</v>
+      </c>
+      <c r="J35" s="25">
+        <v>-4.67</v>
+      </c>
+      <c r="K35" s="13">
+        <v>44.33</v>
+      </c>
+      <c r="L35" s="14">
+        <v>29.69</v>
+      </c>
+      <c r="M35" s="64">
+        <v>77</v>
+      </c>
       <c r="N35" s="15"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="3" t="e">
+      <c r="O35" s="16">
+        <v>109</v>
+      </c>
+      <c r="P35" s="60">
+        <v>526</v>
+      </c>
+      <c r="Q35" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>79.467680608365015</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>32.67</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
-      <c r="B36" s="3">
-        <v>31</v>
-      </c>
-      <c r="C36" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="64"/>
+      <c r="A36" s="28">
+        <v>44936</v>
+      </c>
+      <c r="B36" s="76">
+        <v>35</v>
+      </c>
+      <c r="C36" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="78"/>
+      <c r="E36" s="72">
+        <v>54</v>
+      </c>
+      <c r="F36" s="73">
+        <v>38</v>
+      </c>
+      <c r="G36" s="50">
+        <v>16</v>
+      </c>
+      <c r="H36" s="47">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I36" s="16">
+        <v>55</v>
+      </c>
+      <c r="J36" s="25">
+        <v>-2.67</v>
+      </c>
+      <c r="K36" s="13">
+        <v>52.33</v>
+      </c>
+      <c r="L36" s="14">
+        <v>38.74</v>
+      </c>
+      <c r="M36" s="64">
+        <v>83.33</v>
+      </c>
       <c r="N36" s="15"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="3" t="e">
+      <c r="O36" s="16">
+        <v>20</v>
+      </c>
+      <c r="P36" s="60">
+        <v>119</v>
+      </c>
+      <c r="Q36" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>84.033613445378151</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="S36" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28"/>
-      <c r="B37" s="3">
-        <v>32</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="75"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="77">
+      <c r="B37" s="76">
+        <v>36</v>
+      </c>
+      <c r="C37" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="79"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7364,18 +7323,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28"/>
-      <c r="B38" s="3">
-        <v>33</v>
-      </c>
-      <c r="C38" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="77">
+      <c r="B38" s="76">
+        <v>37</v>
+      </c>
+      <c r="C38" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="79"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -7397,59 +7356,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3">
-        <v>34</v>
-      </c>
-      <c r="C39" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="81">
-        <f t="shared" ref="E39:O39" si="6">AVERAGE(E2:E38)</f>
-        <v>55.6875</v>
-      </c>
-      <c r="F39" s="82">
-        <f t="shared" si="6"/>
-        <v>42.064516129032256</v>
-      </c>
-      <c r="G39" s="83">
-        <f t="shared" si="6"/>
-        <v>11.945945945945946</v>
-      </c>
-      <c r="H39" s="12">
-        <f t="shared" si="6"/>
-        <v>9.3125</v>
-      </c>
-      <c r="I39" s="16">
-        <f t="shared" si="6"/>
-        <v>62.625</v>
-      </c>
-      <c r="J39" s="25">
-        <f t="shared" si="6"/>
-        <v>-2.8421875000000001</v>
-      </c>
-      <c r="K39" s="13">
-        <f t="shared" si="6"/>
-        <v>59.907187499999992</v>
-      </c>
-      <c r="L39" s="14">
-        <f t="shared" si="6"/>
-        <v>41.300000000000004</v>
-      </c>
-      <c r="M39" s="64">
-        <f t="shared" si="6"/>
-        <v>81.845312499999991</v>
-      </c>
-      <c r="N39" s="15">
-        <f t="shared" si="6"/>
-        <v>73.535416666666677</v>
-      </c>
-      <c r="O39" s="16">
-        <f t="shared" si="6"/>
-        <v>109.8</v>
-      </c>
+    <row r="39" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="28"/>
+      <c r="B39" s="76">
+        <v>38</v>
+      </c>
+      <c r="C39" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="47"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="16"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="3" t="e">
         <f t="shared" si="5"/>
@@ -7457,40 +7386,107 @@
       </c>
       <c r="S39" s="3">
         <f t="shared" si="1"/>
-        <v>21.938124999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="3"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="76">
+        <v>39</v>
+      </c>
+      <c r="C40" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="79"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="47"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="76">
+        <v>40</v>
+      </c>
+      <c r="C41" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="83"/>
+      <c r="E41" s="72">
+        <f t="shared" ref="E41:O41" si="6">AVERAGE(E2:E40)</f>
+        <v>55.676470588235297</v>
+      </c>
+      <c r="F41" s="73">
+        <f t="shared" si="6"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="G41" s="74">
+        <f t="shared" si="6"/>
+        <v>12.358974358974359</v>
+      </c>
+      <c r="H41" s="12">
+        <f t="shared" si="6"/>
+        <v>9.3235294117647065</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="J41" s="25">
+        <f t="shared" si="6"/>
+        <v>-2.8908823529411767</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="shared" si="6"/>
+        <v>59.226176470588221</v>
+      </c>
+      <c r="L41" s="14">
+        <f t="shared" si="6"/>
+        <v>40.842903225806452</v>
+      </c>
+      <c r="M41" s="64">
+        <f t="shared" si="6"/>
+        <v>81.746470588235283</v>
+      </c>
+      <c r="N41" s="15">
+        <f t="shared" si="6"/>
+        <v>73.535416666666677</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" si="6"/>
+        <v>106.96875</v>
+      </c>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="1"/>
+        <v>22.520294117647062</v>
+      </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B42" s="3"/>
       <c r="E42" s="17"/>
       <c r="F42" s="18"/>
       <c r="G42" s="19"/>
@@ -7505,6 +7501,7 @@
       <c r="P42" s="24"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B43" s="3"/>
       <c r="E43" s="17"/>
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
@@ -7546,23 +7543,46 @@
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
     </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E47" s="17"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C39:D39"/>
+  <mergeCells count="41">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -7578,15 +7598,22 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L14">
@@ -7601,7 +7628,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:L24 L26 L29:L34">
+  <conditionalFormatting sqref="L22:L24 L26 L29:L36">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -7613,7 +7640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:K24 K26 K29:K34">
+  <conditionalFormatting sqref="K22:K24 K26 K29:K36">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -7625,7 +7652,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N24 N26 N29:N34">
+  <conditionalFormatting sqref="N22:N24 N26 N29:N36">
     <cfRule type="iconSet" priority="86">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -7634,7 +7661,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I24 I26 I29:I34">
+  <conditionalFormatting sqref="I22:I24 I26 I29:I36">
     <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="min"/>
@@ -7648,7 +7675,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J24 J26 J29:J34">
+  <conditionalFormatting sqref="J22:J24 J26 J29:J36">
     <cfRule type="iconSet" priority="92">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -7657,7 +7684,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F24 F26 F29:F34">
+  <conditionalFormatting sqref="F22:F24 F26 F29:F36">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -7672,18 +7699,18 @@
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O24 O26 O29:O34">
+  <conditionalFormatting sqref="O22:O24 O26 O29:O36">
     <cfRule type="cellIs" dxfId="10" priority="72" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R34">
+  <conditionalFormatting sqref="R2:R36">
     <cfRule type="cellIs" dxfId="9" priority="71" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R34">
+  <conditionalFormatting sqref="R2:R36">
     <cfRule type="cellIs" dxfId="8" priority="70" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
@@ -8023,7 +8050,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:K38">
+  <conditionalFormatting sqref="K37:K40">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -8035,7 +8062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N38">
+  <conditionalFormatting sqref="N37:N40">
     <cfRule type="iconSet" priority="113">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -8044,7 +8071,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:I38">
+  <conditionalFormatting sqref="I37:I40">
     <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
@@ -8058,7 +8085,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J38">
+  <conditionalFormatting sqref="J37:J40">
     <cfRule type="iconSet" priority="117">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -8067,7 +8094,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F38">
+  <conditionalFormatting sqref="F37:F40">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -8082,7 +8109,7 @@
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35:L38">
+  <conditionalFormatting sqref="L37:L40">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -8106,10 +8133,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="126" operator="greaterThan">
-      <formula>$F$39</formula>
+      <formula>$F$41</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S39">
+  <conditionalFormatting sqref="S2:S41">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -8121,7 +8148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F38">
+  <conditionalFormatting sqref="F2:F40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8148,7 +8175,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I22:I24 I26 I29:I34</xm:sqref>
+          <xm:sqref>I22:I24 I26 I29:I36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ED18865B-B343-4750-8437-A6376E4FD07F}">
@@ -8203,7 +8230,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I35:I38</xm:sqref>
+          <xm:sqref>I37:I40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C439B7-7061-4BB3-B86C-4F7CBC503A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7477E371-A80B-4684-BED1-3669729BC752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Test Name</t>
   </si>
@@ -728,13 +728,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,23 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,17 +794,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -826,9 +830,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -856,13 +863,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1181,6 +1181,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>52.33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,6 +1619,9 @@
                 <c:pt idx="28">
                   <c:v>80.95</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>70.97</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1983,7 +1989,7 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>6.3299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -2369,7 +2375,7 @@
                   <c:v>84.033613445378151</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>93.45794392523365</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -2382,6 +2388,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54.17962902438336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4732,16 +4741,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>487231</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>68579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4768,16 +4777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>230393</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>144556</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33170</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>63873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542813</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>144556</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>309731</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>63874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5176,8 +5185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5209,10 +5218,10 @@
       <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="85"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
@@ -5264,10 +5273,10 @@
       <c r="B2" s="46">
         <v>1</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="47">
         <v>41</v>
       </c>
@@ -5323,10 +5332,10 @@
       <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="84"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="50">
         <v>40</v>
       </c>
@@ -5382,10 +5391,10 @@
       <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="50">
         <v>51</v>
       </c>
@@ -5397,7 +5406,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="47">
-        <f t="shared" ref="H4:H36" si="3">65-E4</f>
+        <f t="shared" ref="H4:H37" si="3">65-E4</f>
         <v>14</v>
       </c>
       <c r="I4" s="50">
@@ -5441,10 +5450,10 @@
       <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="84"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="50">
         <v>51</v>
       </c>
@@ -5491,10 +5500,10 @@
       <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="84"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="50">
         <v>47</v>
       </c>
@@ -5550,10 +5559,10 @@
       <c r="B7" s="49">
         <v>6</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="50">
         <v>51</v>
       </c>
@@ -5609,10 +5618,10 @@
       <c r="B8" s="49">
         <v>7</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="50">
         <v>52</v>
       </c>
@@ -5668,10 +5677,10 @@
       <c r="B9" s="49">
         <v>8</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="50">
         <v>55</v>
       </c>
@@ -5727,10 +5736,10 @@
       <c r="B10" s="49">
         <v>9</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="81"/>
       <c r="E10" s="50">
         <v>58</v>
       </c>
@@ -5786,10 +5795,10 @@
       <c r="B11" s="49">
         <v>10</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="50">
         <v>60</v>
       </c>
@@ -5845,10 +5854,10 @@
       <c r="B12" s="49">
         <v>11</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="81"/>
       <c r="E12" s="50">
         <v>56</v>
       </c>
@@ -5904,10 +5913,10 @@
       <c r="B13" s="49">
         <v>12</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="81"/>
       <c r="E13" s="50">
         <v>56</v>
       </c>
@@ -5963,10 +5972,10 @@
       <c r="B14" s="49">
         <v>13</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="50">
         <v>56</v>
       </c>
@@ -6022,10 +6031,10 @@
       <c r="B15" s="49">
         <v>14</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="84"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="50">
         <v>50</v>
       </c>
@@ -6079,10 +6088,10 @@
       <c r="B16" s="49">
         <v>15</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="50">
         <v>56</v>
       </c>
@@ -6136,10 +6145,10 @@
       <c r="B17" s="49">
         <v>16</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="50">
         <v>53</v>
       </c>
@@ -6193,10 +6202,10 @@
       <c r="B18" s="49">
         <v>17</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="50">
         <v>58</v>
       </c>
@@ -6252,10 +6261,10 @@
       <c r="B19" s="49">
         <v>18</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="84"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="50">
         <v>60</v>
       </c>
@@ -6311,10 +6320,10 @@
       <c r="B20" s="49">
         <v>19</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="84"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="50">
         <v>59</v>
       </c>
@@ -6370,10 +6379,10 @@
       <c r="B21" s="52">
         <v>20</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="53">
         <v>56</v>
       </c>
@@ -6431,10 +6440,10 @@
       <c r="B22" s="75">
         <v>21</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="89"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="70">
         <v>57</v>
       </c>
@@ -6492,10 +6501,10 @@
       <c r="B23" s="76">
         <v>22</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="72">
         <v>58</v>
       </c>
@@ -6553,10 +6562,10 @@
       <c r="B24" s="76">
         <v>23</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="72">
         <v>64</v>
       </c>
@@ -6614,10 +6623,10 @@
       <c r="B25" s="76">
         <v>24</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="72">
         <v>63</v>
       </c>
@@ -6675,10 +6684,10 @@
       <c r="B26" s="76">
         <v>25</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="72">
         <v>63</v>
       </c>
@@ -6736,10 +6745,10 @@
       <c r="B27" s="76">
         <v>26</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="78"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="72">
         <v>61</v>
       </c>
@@ -6797,10 +6806,10 @@
       <c r="B28" s="76">
         <v>27</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="80"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="72">
         <v>65</v>
       </c>
@@ -6856,10 +6865,10 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="82"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="72"/>
       <c r="F29" s="73"/>
       <c r="G29" s="50">
@@ -6892,10 +6901,10 @@
       <c r="B30" s="76">
         <v>29</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="72">
         <v>63</v>
       </c>
@@ -6953,10 +6962,10 @@
       <c r="B31" s="76">
         <v>30</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="78"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="72">
         <v>55</v>
       </c>
@@ -7010,10 +7019,10 @@
       <c r="B32" s="76">
         <v>31</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="78"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="72">
         <v>52</v>
       </c>
@@ -7063,10 +7072,10 @@
       <c r="B33" s="76">
         <v>32</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="78"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="72">
         <v>58</v>
       </c>
@@ -7122,10 +7131,10 @@
       <c r="B34" s="76">
         <v>33</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="78"/>
+      <c r="D34" s="80"/>
       <c r="E34" s="72">
         <v>57</v>
       </c>
@@ -7181,10 +7190,10 @@
       <c r="B35" s="76">
         <v>34</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="78"/>
+      <c r="D35" s="80"/>
       <c r="E35" s="72">
         <v>57</v>
       </c>
@@ -7239,10 +7248,10 @@
       <c r="B36" s="76">
         <v>35</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="78"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="72">
         <v>54</v>
       </c>
@@ -7291,36 +7300,64 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="28"/>
+      <c r="A37" s="28">
+        <v>44937</v>
+      </c>
       <c r="B37" s="76">
         <v>36</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73"/>
+      <c r="D37" s="86"/>
+      <c r="E37" s="72">
+        <v>62</v>
+      </c>
+      <c r="F37" s="73">
+        <v>44</v>
+      </c>
       <c r="G37" s="50">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="3" t="e">
+        <v>18</v>
+      </c>
+      <c r="H37" s="47">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I37" s="16">
+        <v>67</v>
+      </c>
+      <c r="J37" s="25">
+        <v>-2.97</v>
+      </c>
+      <c r="K37" s="13">
+        <v>64.03</v>
+      </c>
+      <c r="L37" s="14">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="M37" s="64">
+        <v>70.36</v>
+      </c>
+      <c r="N37" s="15">
+        <v>70.97</v>
+      </c>
+      <c r="O37" s="16">
+        <v>8</v>
+      </c>
+      <c r="P37" s="60">
+        <v>107</v>
+      </c>
+      <c r="Q37" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>93.45794392523365</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="S37" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.3299999999999983</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7328,10 +7365,10 @@
       <c r="B38" s="76">
         <v>37</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="79"/>
+      <c r="D38" s="89"/>
       <c r="E38" s="72"/>
       <c r="F38" s="73"/>
       <c r="G38" s="50">
@@ -7361,10 +7398,10 @@
       <c r="B39" s="76">
         <v>38</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="79"/>
+      <c r="D39" s="89"/>
       <c r="E39" s="72"/>
       <c r="F39" s="73"/>
       <c r="G39" s="50">
@@ -7394,10 +7431,10 @@
       <c r="B40" s="76">
         <v>39</v>
       </c>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="79"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="72"/>
       <c r="F40" s="73"/>
       <c r="G40" s="50">
@@ -7427,53 +7464,53 @@
       <c r="B41" s="76">
         <v>40</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="83"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="72">
         <f t="shared" ref="E41:O41" si="6">AVERAGE(E2:E40)</f>
-        <v>55.676470588235297</v>
+        <v>55.857142857142854</v>
       </c>
       <c r="F41" s="73">
         <f t="shared" si="6"/>
-        <v>41.666666666666664</v>
+        <v>41.735294117647058</v>
       </c>
       <c r="G41" s="74">
         <f t="shared" si="6"/>
-        <v>12.358974358974359</v>
+        <v>12.820512820512821</v>
       </c>
       <c r="H41" s="12">
         <f t="shared" si="6"/>
-        <v>9.3235294117647065</v>
+        <v>9.1428571428571423</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="6"/>
-        <v>62</v>
+        <v>62.142857142857146</v>
       </c>
       <c r="J41" s="25">
         <f t="shared" si="6"/>
-        <v>-2.8908823529411767</v>
+        <v>-2.8931428571428572</v>
       </c>
       <c r="K41" s="13">
         <f t="shared" si="6"/>
-        <v>59.226176470588221</v>
+        <v>59.363428571428564</v>
       </c>
       <c r="L41" s="14">
         <f t="shared" si="6"/>
-        <v>40.842903225806452</v>
+        <v>40.819375000000001</v>
       </c>
       <c r="M41" s="64">
         <f t="shared" si="6"/>
-        <v>81.746470588235283</v>
+        <v>81.421142857142854</v>
       </c>
       <c r="N41" s="15">
         <f t="shared" si="6"/>
-        <v>73.535416666666677</v>
+        <v>73.4328</v>
       </c>
       <c r="O41" s="16">
         <f t="shared" si="6"/>
-        <v>106.96875</v>
+        <v>103.96969696969697</v>
       </c>
       <c r="P41" s="60"/>
       <c r="Q41" s="3" t="e">
@@ -7482,7 +7519,7 @@
       </c>
       <c r="S41" s="3">
         <f t="shared" si="1"/>
-        <v>22.520294117647062</v>
+        <v>22.05771428571429</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -7499,6 +7536,10 @@
       <c r="N42" s="23"/>
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
+      <c r="Q42" s="3">
+        <f>AVERAGE(Q2:Q4)</f>
+        <v>54.17962902438336</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
@@ -7573,15 +7614,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -7598,22 +7646,15 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L14">
@@ -7699,19 +7740,13 @@
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O24 O26 O29:O36">
-    <cfRule type="cellIs" dxfId="10" priority="72" operator="between">
-      <formula>1</formula>
-      <formula>10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R36">
-    <cfRule type="cellIs" dxfId="9" priority="71" operator="equal">
+  <conditionalFormatting sqref="R2:R37">
+    <cfRule type="cellIs" dxfId="10" priority="71" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R36">
-    <cfRule type="cellIs" dxfId="8" priority="70" operator="equal">
+  <conditionalFormatting sqref="R2:R37">
+    <cfRule type="cellIs" dxfId="9" priority="70" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7838,14 +7873,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="107" operator="greaterThan">
       <formula>$G$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O25">
-    <cfRule type="cellIs" dxfId="6" priority="45" operator="between">
-      <formula>1</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
@@ -7939,7 +7968,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="109" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7953,12 +7982,6 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27">
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="between">
-      <formula>1</formula>
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
@@ -8028,7 +8051,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8044,10 +8067,22 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O28">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
       <formula>1</formula>
       <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="between">
+      <formula>10</formula>
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="45" operator="between">
+      <formula>21</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="72" operator="between">
+      <formula>31</formula>
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:K40">

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7477E371-A80B-4684-BED1-3669729BC752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EBA344-F476-44EC-A3AE-B4AB9D20530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
+    <workbookView xWindow="13524" yWindow="4560" windowWidth="17280" windowHeight="8964" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1171,7 +1171,7 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>70</c:v>
+                  <c:v>68.66</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>70.66</c:v>
@@ -1619,6 +1619,12 @@
                 <c:pt idx="28">
                   <c:v>80.95</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>85.66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87.33</c:v>
+                </c:pt>
                 <c:pt idx="35">
                   <c:v>70.97</c:v>
                 </c:pt>
@@ -1971,13 +1977,13 @@
                   <c:v>11.310000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.67</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>13.670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.67000000000000171</c:v>
@@ -2357,13 +2363,13 @@
                   <c:v>95.081967213114751</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>74.336283185840713</c:v>
+                  <c:v>77.777777777777786</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>57.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>92.64705882352942</c:v>
+                  <c:v>89.629629629629619</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>97.674418604651152</c:v>
@@ -5185,8 +5191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6970,11 +6976,11 @@
         <v>55</v>
       </c>
       <c r="F31" s="73">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" s="50">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" s="47">
         <f t="shared" si="3"/>
@@ -6991,25 +6997,27 @@
       </c>
       <c r="L31" s="14"/>
       <c r="M31" s="64">
-        <v>81</v>
-      </c>
-      <c r="N31" s="15"/>
+        <v>85.33</v>
+      </c>
+      <c r="N31" s="15">
+        <v>85.66</v>
+      </c>
       <c r="O31" s="16">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P31" s="60">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="Q31" s="3">
         <f t="shared" si="5"/>
-        <v>74.336283185840713</v>
+        <v>77.777777777777786</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="S31" s="3">
         <f t="shared" si="1"/>
-        <v>21.67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7050,12 +7058,18 @@
       <c r="M32" s="64">
         <v>81</v>
       </c>
-      <c r="N32" s="15"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="3" t="e">
+      <c r="N32" s="15">
+        <v>87.33</v>
+      </c>
+      <c r="O32" s="16">
+        <v>88</v>
+      </c>
+      <c r="P32" s="60">
+        <v>203</v>
+      </c>
+      <c r="Q32" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>57.142857142857139</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>38</v>
@@ -7080,11 +7094,11 @@
         <v>58</v>
       </c>
       <c r="F33" s="73">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" s="50">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33" s="47">
         <f t="shared" si="3"/>
@@ -7094,34 +7108,34 @@
         <v>71</v>
       </c>
       <c r="J33" s="25">
-        <v>-1</v>
+        <v>-2.33</v>
       </c>
       <c r="K33" s="13">
-        <v>70</v>
+        <v>68.66</v>
       </c>
       <c r="L33" s="14">
         <v>44.97</v>
       </c>
       <c r="M33" s="64">
-        <v>79</v>
+        <v>82.33</v>
       </c>
       <c r="N33" s="15"/>
       <c r="O33" s="16">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P33" s="60">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="3">
         <f t="shared" si="5"/>
-        <v>92.64705882352942</v>
+        <v>89.629629629629619</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="S33" s="3">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>13.670000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7490,11 +7504,11 @@
       </c>
       <c r="J41" s="25">
         <f t="shared" si="6"/>
-        <v>-2.8931428571428572</v>
+        <v>-2.931142857142857</v>
       </c>
       <c r="K41" s="13">
         <f t="shared" si="6"/>
-        <v>59.363428571428564</v>
+        <v>59.325142857142851</v>
       </c>
       <c r="L41" s="14">
         <f t="shared" si="6"/>
@@ -7502,15 +7516,15 @@
       </c>
       <c r="M41" s="64">
         <f t="shared" si="6"/>
-        <v>81.421142857142854</v>
+        <v>81.639999999999986</v>
       </c>
       <c r="N41" s="15">
         <f t="shared" si="6"/>
-        <v>73.4328</v>
+        <v>74.400370370370382</v>
       </c>
       <c r="O41" s="16">
         <f t="shared" si="6"/>
-        <v>103.96969696969697</v>
+        <v>104.5</v>
       </c>
       <c r="P41" s="60"/>
       <c r="Q41" s="3" t="e">
@@ -7519,7 +7533,7 @@
       </c>
       <c r="S41" s="3">
         <f t="shared" si="1"/>
-        <v>22.05771428571429</v>
+        <v>22.314857142857136</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EBA344-F476-44EC-A3AE-B4AB9D20530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08697D43-E1C0-4E5C-8288-4C2F4520C90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13524" yWindow="4560" windowWidth="17280" windowHeight="8964" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +322,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -543,12 +549,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -728,22 +745,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,24 +776,39 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1184,6 +1222,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>64.03</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>65.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,6 +1669,9 @@
                 <c:pt idx="35">
                   <c:v>70.97</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>75.86</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1998,7 +2042,7 @@
                   <c:v>6.3299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>24.320000000000007</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -2384,7 +2428,7 @@
                   <c:v>93.45794392523365</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>90.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -5181,7 +5225,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5191,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5224,10 +5268,10 @@
       <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="83"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
@@ -5279,10 +5323,10 @@
       <c r="B2" s="46">
         <v>1</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="47">
         <v>41</v>
       </c>
@@ -5338,10 +5382,10 @@
       <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="50">
         <v>40</v>
       </c>
@@ -5397,10 +5441,10 @@
       <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="50">
         <v>51</v>
       </c>
@@ -5456,10 +5500,10 @@
       <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="50">
         <v>51</v>
       </c>
@@ -5506,10 +5550,10 @@
       <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="50">
         <v>47</v>
       </c>
@@ -5565,10 +5609,10 @@
       <c r="B7" s="49">
         <v>6</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="81"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="50">
         <v>51</v>
       </c>
@@ -5624,10 +5668,10 @@
       <c r="B8" s="49">
         <v>7</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="50">
         <v>52</v>
       </c>
@@ -5683,10 +5727,10 @@
       <c r="B9" s="49">
         <v>8</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="81"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="50">
         <v>55</v>
       </c>
@@ -5742,10 +5786,10 @@
       <c r="B10" s="49">
         <v>9</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="81"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="50">
         <v>58</v>
       </c>
@@ -5801,10 +5845,10 @@
       <c r="B11" s="49">
         <v>10</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="50">
         <v>60</v>
       </c>
@@ -5860,10 +5904,10 @@
       <c r="B12" s="49">
         <v>11</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="50">
         <v>56</v>
       </c>
@@ -5919,10 +5963,10 @@
       <c r="B13" s="49">
         <v>12</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="50">
         <v>56</v>
       </c>
@@ -5978,10 +6022,10 @@
       <c r="B14" s="49">
         <v>13</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="50">
         <v>56</v>
       </c>
@@ -6037,10 +6081,10 @@
       <c r="B15" s="49">
         <v>14</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="50">
         <v>50</v>
       </c>
@@ -6094,10 +6138,10 @@
       <c r="B16" s="49">
         <v>15</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="50">
         <v>56</v>
       </c>
@@ -6151,10 +6195,10 @@
       <c r="B17" s="49">
         <v>16</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="50">
         <v>53</v>
       </c>
@@ -6208,10 +6252,10 @@
       <c r="B18" s="49">
         <v>17</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="50">
         <v>58</v>
       </c>
@@ -6267,10 +6311,10 @@
       <c r="B19" s="49">
         <v>18</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="81"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="50">
         <v>60</v>
       </c>
@@ -6326,10 +6370,10 @@
       <c r="B20" s="49">
         <v>19</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="81"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="50">
         <v>59</v>
       </c>
@@ -6385,10 +6429,10 @@
       <c r="B21" s="52">
         <v>20</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="85"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="53">
         <v>56</v>
       </c>
@@ -6446,10 +6490,10 @@
       <c r="B22" s="75">
         <v>21</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="70">
         <v>57</v>
       </c>
@@ -6507,10 +6551,10 @@
       <c r="B23" s="76">
         <v>22</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="72">
         <v>58</v>
       </c>
@@ -6568,10 +6612,10 @@
       <c r="B24" s="76">
         <v>23</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="72">
         <v>64</v>
       </c>
@@ -6629,10 +6673,10 @@
       <c r="B25" s="76">
         <v>24</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="80"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="72">
         <v>63</v>
       </c>
@@ -6690,10 +6734,10 @@
       <c r="B26" s="76">
         <v>25</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="72">
         <v>63</v>
       </c>
@@ -6751,10 +6795,10 @@
       <c r="B27" s="76">
         <v>26</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="80"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="72">
         <v>61</v>
       </c>
@@ -6812,10 +6856,10 @@
       <c r="B28" s="76">
         <v>27</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="86"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="72">
         <v>65</v>
       </c>
@@ -6871,10 +6915,10 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="88"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="72"/>
       <c r="F29" s="73"/>
       <c r="G29" s="50">
@@ -6907,10 +6951,10 @@
       <c r="B30" s="76">
         <v>29</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="80"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="72">
         <v>63</v>
       </c>
@@ -6968,10 +7012,10 @@
       <c r="B31" s="76">
         <v>30</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="80"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="72">
         <v>55</v>
       </c>
@@ -7027,10 +7071,10 @@
       <c r="B32" s="76">
         <v>31</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="80"/>
+      <c r="D32" s="78"/>
       <c r="E32" s="72">
         <v>52</v>
       </c>
@@ -7086,10 +7130,10 @@
       <c r="B33" s="76">
         <v>32</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="72">
         <v>58</v>
       </c>
@@ -7145,10 +7189,10 @@
       <c r="B34" s="76">
         <v>33</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="80"/>
+      <c r="D34" s="78"/>
       <c r="E34" s="72">
         <v>57</v>
       </c>
@@ -7204,10 +7248,10 @@
       <c r="B35" s="76">
         <v>34</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="80"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="72">
         <v>57</v>
       </c>
@@ -7262,10 +7306,10 @@
       <c r="B36" s="76">
         <v>35</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="80"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="72">
         <v>54</v>
       </c>
@@ -7313,17 +7357,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="28">
         <v>44937</v>
       </c>
       <c r="B37" s="76">
         <v>36</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="86"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="72">
         <v>62</v>
       </c>
@@ -7375,36 +7419,59 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="28"/>
-      <c r="B38" s="76">
-        <v>37</v>
-      </c>
-      <c r="C38" s="89" t="s">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" s="28">
+        <v>44946</v>
+      </c>
+      <c r="C38" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="89"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="47"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="D38" s="80"/>
+      <c r="E38" s="72">
+        <v>58</v>
+      </c>
+      <c r="F38" s="73">
+        <v>44</v>
+      </c>
+      <c r="G38" s="74">
+        <v>14</v>
+      </c>
+      <c r="H38" s="90">
+        <v>7</v>
+      </c>
+      <c r="I38" s="16">
+        <v>67</v>
+      </c>
+      <c r="J38" s="25">
+        <v>-1.98</v>
+      </c>
+      <c r="K38" s="13">
+        <v>65.02</v>
+      </c>
+      <c r="L38" s="14">
+        <v>41.29</v>
+      </c>
+      <c r="M38" s="14">
+        <v>89.34</v>
+      </c>
+      <c r="N38" s="15">
+        <v>75.86</v>
+      </c>
+      <c r="O38" s="16">
+        <v>33</v>
+      </c>
+      <c r="P38" s="16">
+        <v>350</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" ref="Q38" si="6" xml:space="preserve"> (P38-O38+1)/(P38)*100</f>
+        <v>90.857142857142861</v>
       </c>
       <c r="S38" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.320000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7412,10 +7479,10 @@
       <c r="B39" s="76">
         <v>38</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="89"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="72"/>
       <c r="F39" s="73"/>
       <c r="G39" s="50">
@@ -7445,10 +7512,10 @@
       <c r="B40" s="76">
         <v>39</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="89"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="72"/>
       <c r="F40" s="73"/>
       <c r="G40" s="50">
@@ -7478,53 +7545,53 @@
       <c r="B41" s="76">
         <v>40</v>
       </c>
-      <c r="C41" s="82" t="s">
+      <c r="C41" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="82"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="72">
-        <f t="shared" ref="E41:O41" si="6">AVERAGE(E2:E40)</f>
-        <v>55.857142857142854</v>
+        <f t="shared" ref="E41:O41" si="7">AVERAGE(E2:E40)</f>
+        <v>55.916666666666664</v>
       </c>
       <c r="F41" s="73">
-        <f t="shared" si="6"/>
-        <v>41.735294117647058</v>
+        <f t="shared" si="7"/>
+        <v>41.8</v>
       </c>
       <c r="G41" s="74">
-        <f t="shared" si="6"/>
-        <v>12.820512820512821</v>
+        <f t="shared" si="7"/>
+        <v>13.179487179487179</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="6"/>
-        <v>9.1428571428571423</v>
+        <f t="shared" si="7"/>
+        <v>9.0833333333333339</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" si="6"/>
-        <v>62.142857142857146</v>
+        <f t="shared" si="7"/>
+        <v>62.277777777777779</v>
       </c>
       <c r="J41" s="25">
-        <f t="shared" si="6"/>
-        <v>-2.931142857142857</v>
+        <f t="shared" si="7"/>
+        <v>-2.9047222222222224</v>
       </c>
       <c r="K41" s="13">
-        <f t="shared" si="6"/>
-        <v>59.325142857142851</v>
+        <f t="shared" si="7"/>
+        <v>59.48333333333332</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="6"/>
-        <v>40.819375000000001</v>
+        <f t="shared" si="7"/>
+        <v>40.833636363636366</v>
       </c>
       <c r="M41" s="64">
-        <f t="shared" si="6"/>
-        <v>81.639999999999986</v>
+        <f t="shared" si="7"/>
+        <v>81.853888888888889</v>
       </c>
       <c r="N41" s="15">
-        <f t="shared" si="6"/>
-        <v>74.400370370370382</v>
+        <f t="shared" si="7"/>
+        <v>74.452500000000001</v>
       </c>
       <c r="O41" s="16">
-        <f t="shared" si="6"/>
-        <v>104.5</v>
+        <f t="shared" si="7"/>
+        <v>102.45714285714286</v>
       </c>
       <c r="P41" s="60"/>
       <c r="Q41" s="3" t="e">
@@ -7532,8 +7599,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="1"/>
-        <v>22.314857142857136</v>
+        <f>AVERAGE(S2:S40)</f>
+        <v>20.64974358974359</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -7554,6 +7621,7 @@
         <f>AVERAGE(Q2:Q4)</f>
         <v>54.17962902438336</v>
       </c>
+      <c r="S42" s="91"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
@@ -7628,22 +7696,15 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -7660,19 +7721,26 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L14">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7684,7 +7752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L24 L26 L29:L36">
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7696,7 +7764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:K24 K26 K29:K36">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7708,7 +7776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N24 N26 N29:N36">
-    <cfRule type="iconSet" priority="86">
+    <cfRule type="iconSet" priority="97">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7717,7 +7785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I24 I26 I29:I36">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7731,7 +7799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J24 J26 J29:J36">
-    <cfRule type="iconSet" priority="92">
+    <cfRule type="iconSet" priority="103">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7740,7 +7808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F24 F26 F29:F36">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7750,22 +7818,22 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="104" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R37">
-    <cfRule type="cellIs" dxfId="10" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="82" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R37">
-    <cfRule type="cellIs" dxfId="9" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="81" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K21">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7777,7 +7845,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N21">
-    <cfRule type="iconSet" priority="99">
+    <cfRule type="iconSet" priority="110">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7786,7 +7854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I21">
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="111">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7800,7 +7868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J21">
-    <cfRule type="iconSet" priority="101">
+    <cfRule type="iconSet" priority="112">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7809,7 +7877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L21">
-    <cfRule type="colorScale" priority="105">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7821,7 +7889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25">
-    <cfRule type="colorScale" priority="53">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7833,7 +7901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="colorScale" priority="52">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7845,7 +7913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="iconSet" priority="51">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7854,7 +7922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7868,7 +7936,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="iconSet" priority="106">
+    <cfRule type="iconSet" priority="117">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7877,7 +7945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="colorScale" priority="107">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7887,12 +7955,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="118" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="Q1:Q37 Q39:Q1048576">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7903,8 +7971,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M26 M29:M1048576">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="M1:M26 M29:M37 M39:M1048576">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7916,7 +7984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="colorScale" priority="39">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7928,7 +7996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7940,7 +8008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="iconSet" priority="37">
+    <cfRule type="iconSet" priority="48">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7949,7 +8017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7963,7 +8031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="iconSet" priority="108">
+    <cfRule type="iconSet" priority="119">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -7972,7 +8040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7982,12 +8050,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="109" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="120" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7999,7 +8067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8011,7 +8079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8023,7 +8091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -8032,7 +8100,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8046,7 +8114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="iconSet" priority="17">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -8055,7 +8123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8065,12 +8133,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="30" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8081,26 +8149,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+  <conditionalFormatting sqref="O1:O37 O39:O1048576">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="34" operator="between">
       <formula>10</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="56" operator="between">
       <formula>21</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="72" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="83" operator="between">
       <formula>31</formula>
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:K40">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="K39:K40 K37">
+    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8111,8 +8179,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37:N40">
-    <cfRule type="iconSet" priority="113">
+  <conditionalFormatting sqref="N37 N39:N40">
+    <cfRule type="iconSet" priority="124">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -8120,8 +8188,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I40">
-    <cfRule type="dataBar" priority="115">
+  <conditionalFormatting sqref="I39:I40 I37">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8134,8 +8202,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:J40">
-    <cfRule type="iconSet" priority="117">
+  <conditionalFormatting sqref="J37 J39:J40">
+    <cfRule type="iconSet" priority="128">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -8143,8 +8211,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F40">
-    <cfRule type="colorScale" priority="119">
+  <conditionalFormatting sqref="F39:F40 F37">
+    <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8154,12 +8222,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="131" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:L40">
-    <cfRule type="colorScale" priority="123">
+  <conditionalFormatting sqref="L39:L40 L37">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8171,7 +8239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F21">
-    <cfRule type="colorScale" priority="125">
+    <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8181,12 +8249,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="126" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="137" operator="greaterThan">
       <formula>$F$41</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S41">
-    <cfRule type="colorScale" priority="127">
+  <conditionalFormatting sqref="S2:S42">
+    <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8197,7 +8265,107 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F40">
+  <conditionalFormatting sqref="F2:F37 F39:F40">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DAFFC55D-F1B0-4A17-B215-EFA424A9991B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T38">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8279,7 +8447,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I37:I40</xm:sqref>
+          <xm:sqref>I39:I40 I37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DAFFC55D-F1B0-4A17-B215-EFA424A9991B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I38</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08697D43-E1C0-4E5C-8288-4C2F4520C90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFBCC97-DFA3-4528-AF0F-F46B4A5A24F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -745,28 +745,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,16 +774,18 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1221,10 +1221,13 @@
                   <c:v>52.33</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>64.03</c:v>
+                  <c:v>62.03</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>65.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,6 +1675,9 @@
                 <c:pt idx="36">
                   <c:v>75.86</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.64</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2039,13 +2045,13 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.3299999999999983</c:v>
+                  <c:v>8.3299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>24.320000000000007</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>31.310000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
@@ -2425,13 +2431,13 @@
                   <c:v>84.033613445378151</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>93.45794392523365</c:v>
+                  <c:v>95.790200138026222</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>90.857142857142861</c:v>
+                  <c:v>94.318181818181827</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>89.821428571428569</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
@@ -5235,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5373,7 +5379,7 @@
         <v>38</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S41" si="1">M2-K2</f>
+        <f t="shared" ref="S2:S40" si="1">M2-K2</f>
         <v>50.63</v>
       </c>
     </row>
@@ -5382,10 +5388,10 @@
       <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="84"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="50">
         <v>40</v>
       </c>
@@ -5441,10 +5447,10 @@
       <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="50">
         <v>51</v>
       </c>
@@ -5500,10 +5506,10 @@
       <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="84"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="50">
         <v>51</v>
       </c>
@@ -5550,10 +5556,10 @@
       <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="84"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="50">
         <v>47</v>
       </c>
@@ -5609,10 +5615,10 @@
       <c r="B7" s="49">
         <v>6</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="50">
         <v>51</v>
       </c>
@@ -5668,10 +5674,10 @@
       <c r="B8" s="49">
         <v>7</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="50">
         <v>52</v>
       </c>
@@ -5727,10 +5733,10 @@
       <c r="B9" s="49">
         <v>8</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="50">
         <v>55</v>
       </c>
@@ -5786,10 +5792,10 @@
       <c r="B10" s="49">
         <v>9</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="50">
         <v>58</v>
       </c>
@@ -5845,10 +5851,10 @@
       <c r="B11" s="49">
         <v>10</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="50">
         <v>60</v>
       </c>
@@ -5904,10 +5910,10 @@
       <c r="B12" s="49">
         <v>11</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="50">
         <v>56</v>
       </c>
@@ -5963,10 +5969,10 @@
       <c r="B13" s="49">
         <v>12</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="50">
         <v>56</v>
       </c>
@@ -6022,10 +6028,10 @@
       <c r="B14" s="49">
         <v>13</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="50">
         <v>56</v>
       </c>
@@ -6081,10 +6087,10 @@
       <c r="B15" s="49">
         <v>14</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="84"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="50">
         <v>50</v>
       </c>
@@ -6138,10 +6144,10 @@
       <c r="B16" s="49">
         <v>15</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="50">
         <v>56</v>
       </c>
@@ -6195,10 +6201,10 @@
       <c r="B17" s="49">
         <v>16</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="50">
         <v>53</v>
       </c>
@@ -6252,10 +6258,10 @@
       <c r="B18" s="49">
         <v>17</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="50">
         <v>58</v>
       </c>
@@ -6311,10 +6317,10 @@
       <c r="B19" s="49">
         <v>18</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="84"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="50">
         <v>60</v>
       </c>
@@ -6370,10 +6376,10 @@
       <c r="B20" s="49">
         <v>19</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="84"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="50">
         <v>59</v>
       </c>
@@ -6490,10 +6496,10 @@
       <c r="B22" s="75">
         <v>21</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="89"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="70">
         <v>57</v>
       </c>
@@ -6551,10 +6557,10 @@
       <c r="B23" s="76">
         <v>22</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="72">
         <v>58</v>
       </c>
@@ -6612,10 +6618,10 @@
       <c r="B24" s="76">
         <v>23</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="72">
         <v>64</v>
       </c>
@@ -6673,10 +6679,10 @@
       <c r="B25" s="76">
         <v>24</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="72">
         <v>63</v>
       </c>
@@ -6734,10 +6740,10 @@
       <c r="B26" s="76">
         <v>25</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="72">
         <v>63</v>
       </c>
@@ -6795,10 +6801,10 @@
       <c r="B27" s="76">
         <v>26</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="78"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="72">
         <v>61</v>
       </c>
@@ -6856,10 +6862,10 @@
       <c r="B28" s="76">
         <v>27</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="79"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="72">
         <v>65</v>
       </c>
@@ -6915,10 +6921,10 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="82"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="72"/>
       <c r="F29" s="73"/>
       <c r="G29" s="50">
@@ -6951,10 +6957,10 @@
       <c r="B30" s="76">
         <v>29</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="72">
         <v>63</v>
       </c>
@@ -7012,10 +7018,10 @@
       <c r="B31" s="76">
         <v>30</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="78"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="72">
         <v>55</v>
       </c>
@@ -7071,10 +7077,10 @@
       <c r="B32" s="76">
         <v>31</v>
       </c>
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="78"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="72">
         <v>52</v>
       </c>
@@ -7130,10 +7136,10 @@
       <c r="B33" s="76">
         <v>32</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="78"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="72">
         <v>58</v>
       </c>
@@ -7189,10 +7195,10 @@
       <c r="B34" s="76">
         <v>33</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="78"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="72">
         <v>57</v>
       </c>
@@ -7248,10 +7254,10 @@
       <c r="B35" s="76">
         <v>34</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="78"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="72">
         <v>57</v>
       </c>
@@ -7306,10 +7312,10 @@
       <c r="B36" s="76">
         <v>35</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="78"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="72">
         <v>54</v>
       </c>
@@ -7364,10 +7370,10 @@
       <c r="B37" s="76">
         <v>36</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="79"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="72">
         <v>62</v>
       </c>
@@ -7389,7 +7395,7 @@
         <v>-2.97</v>
       </c>
       <c r="K37" s="13">
-        <v>64.03</v>
+        <v>62.03</v>
       </c>
       <c r="L37" s="14">
         <v>40.090000000000003</v>
@@ -7401,21 +7407,21 @@
         <v>70.97</v>
       </c>
       <c r="O37" s="16">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="P37" s="60">
-        <v>107</v>
+        <v>1449</v>
       </c>
       <c r="Q37" s="3">
         <f t="shared" si="5"/>
-        <v>93.45794392523365</v>
+        <v>95.790200138026222</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>57</v>
       </c>
       <c r="S37" s="3">
         <f t="shared" si="1"/>
-        <v>6.3299999999999983</v>
+        <v>8.3299999999999983</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7425,10 +7431,10 @@
       <c r="B38" s="28">
         <v>44946</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="80"/>
+      <c r="D38" s="91"/>
       <c r="E38" s="72">
         <v>58</v>
       </c>
@@ -7438,7 +7444,7 @@
       <c r="G38" s="74">
         <v>14</v>
       </c>
-      <c r="H38" s="90">
+      <c r="H38" s="77">
         <v>7</v>
       </c>
       <c r="I38" s="16">
@@ -7460,14 +7466,14 @@
         <v>75.86</v>
       </c>
       <c r="O38" s="16">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P38" s="16">
-        <v>350</v>
+        <v>968</v>
       </c>
       <c r="Q38" s="3">
         <f t="shared" ref="Q38" si="6" xml:space="preserve"> (P38-O38+1)/(P38)*100</f>
-        <v>90.857142857142861</v>
+        <v>94.318181818181827</v>
       </c>
       <c r="S38" s="3">
         <f t="shared" si="1"/>
@@ -7479,32 +7485,54 @@
       <c r="B39" s="76">
         <v>38</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="72">
+        <v>55</v>
+      </c>
+      <c r="F39" s="73">
+        <v>35</v>
+      </c>
       <c r="G39" s="50">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="47"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="H39" s="47">
+        <v>10</v>
+      </c>
+      <c r="I39" s="16">
+        <v>54</v>
+      </c>
+      <c r="J39" s="25">
+        <v>-2.64</v>
+      </c>
+      <c r="K39" s="13">
+        <v>51.36</v>
+      </c>
+      <c r="L39" s="14">
+        <v>31.86</v>
+      </c>
+      <c r="M39" s="64">
+        <v>82.67</v>
+      </c>
+      <c r="N39" s="15">
+        <v>63.64</v>
+      </c>
+      <c r="O39" s="16">
+        <v>58</v>
+      </c>
+      <c r="P39" s="60">
+        <v>560</v>
+      </c>
+      <c r="Q39" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>89.821428571428569</v>
       </c>
       <c r="S39" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31.310000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -7512,10 +7540,10 @@
       <c r="B40" s="76">
         <v>39</v>
       </c>
-      <c r="C40" s="80" t="s">
+      <c r="C40" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="80"/>
+      <c r="D40" s="91"/>
       <c r="E40" s="72"/>
       <c r="F40" s="73"/>
       <c r="G40" s="50">
@@ -7545,53 +7573,53 @@
       <c r="B41" s="76">
         <v>40</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="83"/>
+      <c r="D41" s="84"/>
       <c r="E41" s="72">
         <f t="shared" ref="E41:O41" si="7">AVERAGE(E2:E40)</f>
-        <v>55.916666666666664</v>
+        <v>55.891891891891895</v>
       </c>
       <c r="F41" s="73">
         <f t="shared" si="7"/>
-        <v>41.8</v>
+        <v>41.611111111111114</v>
       </c>
       <c r="G41" s="74">
         <f t="shared" si="7"/>
-        <v>13.179487179487179</v>
+        <v>13.692307692307692</v>
       </c>
       <c r="H41" s="12">
         <f t="shared" si="7"/>
-        <v>9.0833333333333339</v>
+        <v>9.1081081081081088</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="7"/>
-        <v>62.277777777777779</v>
+        <v>62.054054054054056</v>
       </c>
       <c r="J41" s="25">
         <f t="shared" si="7"/>
-        <v>-2.9047222222222224</v>
+        <v>-2.8975675675675676</v>
       </c>
       <c r="K41" s="13">
         <f t="shared" si="7"/>
-        <v>59.48333333333332</v>
+        <v>59.209729729729723</v>
       </c>
       <c r="L41" s="14">
         <f t="shared" si="7"/>
-        <v>40.833636363636366</v>
+        <v>40.569705882352935</v>
       </c>
       <c r="M41" s="64">
         <f t="shared" si="7"/>
-        <v>81.853888888888889</v>
+        <v>81.875945945945944</v>
       </c>
       <c r="N41" s="15">
         <f t="shared" si="7"/>
-        <v>74.452500000000001</v>
+        <v>74.079655172413794</v>
       </c>
       <c r="O41" s="16">
         <f t="shared" si="7"/>
-        <v>102.45714285714286</v>
+        <v>103.36111111111111</v>
       </c>
       <c r="P41" s="60"/>
       <c r="Q41" s="3" t="e">
@@ -7600,7 +7628,7 @@
       </c>
       <c r="S41" s="3">
         <f>AVERAGE(S2:S40)</f>
-        <v>20.64974358974359</v>
+        <v>21.503846153846155</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -7621,7 +7649,7 @@
         <f>AVERAGE(Q2:Q4)</f>
         <v>54.17962902438336</v>
       </c>
-      <c r="S42" s="91"/>
+      <c r="S42" s="78"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
@@ -7696,15 +7724,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
@@ -7721,22 +7756,15 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L14">

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFBCC97-DFA3-4528-AF0F-F46B4A5A24F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44783A20-0CFE-43A5-B7E3-D62773E80846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>Test Name</t>
   </si>
@@ -204,10 +204,16 @@
     <t>Analyzed?</t>
   </si>
   <si>
-    <t>GO CLASSES MOCK - 6 AIMT</t>
+    <t>GO MOCK -2</t>
   </si>
   <si>
-    <t>GO MOCK -2</t>
+    <t>GO CLASSES MOCK - 6 AIMT - 1</t>
+  </si>
+  <si>
+    <t>GO CLASSES MOCK - 7 AIMT - 2</t>
+  </si>
+  <si>
+    <t>GO CLASSES MOCK - 9 AIMT - 3</t>
   </si>
 </sst>
 </file>
@@ -324,7 +330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,26 +751,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,18 +783,21 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1114,10 +1126,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$40</c:f>
+              <c:f>Sheet1!$K$2:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>35.71</c:v>
                 </c:pt>
@@ -1227,7 +1239,13 @@
                   <c:v>65.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>51.36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>87.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,10 +1605,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$40</c:f>
+              <c:f>Sheet1!$N$2:$N$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>65.849999999999994</c:v>
                 </c:pt>
@@ -1675,8 +1693,11 @@
                 <c:pt idx="36">
                   <c:v>75.86</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>63.64</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>98.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,10 +1956,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$40</c:f>
+              <c:f>Sheet1!$S$2:$S$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>50.63</c:v>
                 </c:pt>
@@ -2050,10 +2071,13 @@
                 <c:pt idx="36">
                   <c:v>24.320000000000007</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>31.310000000000002</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2321,10 +2345,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$47</c:f>
+              <c:f>Sheet1!$Q$2:$Q$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>41.791044776119399</c:v>
                 </c:pt>
@@ -2436,16 +2460,19 @@
                 <c:pt idx="36">
                   <c:v>94.318181818181827</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>89.821428571428569</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
+                  <c:v>99.796747967479675</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>54.17962902438336</c:v>
                 </c:pt>
               </c:numCache>
@@ -4799,13 +4826,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>487231</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>68579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4835,13 +4862,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>33170</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>63873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>309731</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>63874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4871,13 +4898,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>354106</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4907,13 +4934,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>551328</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>170330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>44822</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5239,10 +5266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5274,10 +5301,10 @@
       <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="85"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
@@ -5329,10 +5356,10 @@
       <c r="B2" s="46">
         <v>1</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="47">
         <v>41</v>
       </c>
@@ -5379,7 +5406,7 @@
         <v>38</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S40" si="1">M2-K2</f>
+        <f t="shared" ref="S2:S42" si="1">M2-K2</f>
         <v>50.63</v>
       </c>
     </row>
@@ -5388,10 +5415,10 @@
       <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="50">
         <v>40</v>
       </c>
@@ -5399,7 +5426,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="50">
-        <f t="shared" ref="G3:G10" si="2">E3-F3</f>
+        <f t="shared" ref="G3:G42" si="2">E3-F3</f>
         <v>13</v>
       </c>
       <c r="H3" s="47">
@@ -5447,10 +5474,10 @@
       <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="83"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="50">
         <v>51</v>
       </c>
@@ -5462,7 +5489,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="47">
-        <f t="shared" ref="H4:H37" si="3">65-E4</f>
+        <f t="shared" ref="H4:H42" si="3">65-E4</f>
         <v>14</v>
       </c>
       <c r="I4" s="50">
@@ -5506,10 +5533,10 @@
       <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="83"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="50">
         <v>51</v>
       </c>
@@ -5556,10 +5583,10 @@
       <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="50">
         <v>47</v>
       </c>
@@ -5615,10 +5642,10 @@
       <c r="B7" s="49">
         <v>6</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="50">
         <v>51</v>
       </c>
@@ -5674,10 +5701,10 @@
       <c r="B8" s="49">
         <v>7</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="50">
         <v>52</v>
       </c>
@@ -5733,10 +5760,10 @@
       <c r="B9" s="49">
         <v>8</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="50">
         <v>55</v>
       </c>
@@ -5792,10 +5819,10 @@
       <c r="B10" s="49">
         <v>9</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="50">
         <v>58</v>
       </c>
@@ -5851,10 +5878,10 @@
       <c r="B11" s="49">
         <v>10</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="50">
         <v>60</v>
       </c>
@@ -5862,7 +5889,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="50">
-        <f t="shared" ref="G11:G40" si="4">E11-F11</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H11" s="47">
@@ -5910,10 +5937,10 @@
       <c r="B12" s="49">
         <v>11</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="50">
         <v>56</v>
       </c>
@@ -5921,7 +5948,7 @@
         <v>42</v>
       </c>
       <c r="G12" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H12" s="47">
@@ -5969,10 +5996,10 @@
       <c r="B13" s="49">
         <v>12</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="83"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="50">
         <v>56</v>
       </c>
@@ -5980,7 +6007,7 @@
         <v>45</v>
       </c>
       <c r="G13" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="H13" s="47">
@@ -6028,10 +6055,10 @@
       <c r="B14" s="49">
         <v>13</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="50">
         <v>56</v>
       </c>
@@ -6039,7 +6066,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H14" s="47">
@@ -6087,10 +6114,10 @@
       <c r="B15" s="49">
         <v>14</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="83"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="50">
         <v>50</v>
       </c>
@@ -6098,7 +6125,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H15" s="47">
@@ -6144,10 +6171,10 @@
       <c r="B16" s="49">
         <v>15</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="50">
         <v>56</v>
       </c>
@@ -6155,7 +6182,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H16" s="47">
@@ -6201,10 +6228,10 @@
       <c r="B17" s="49">
         <v>16</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="50">
         <v>53</v>
       </c>
@@ -6212,7 +6239,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H17" s="47">
@@ -6258,10 +6285,10 @@
       <c r="B18" s="49">
         <v>17</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="50">
         <v>58</v>
       </c>
@@ -6269,7 +6296,7 @@
         <v>41</v>
       </c>
       <c r="G18" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="H18" s="47">
@@ -6317,10 +6344,10 @@
       <c r="B19" s="49">
         <v>18</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="50">
         <v>60</v>
       </c>
@@ -6328,7 +6355,7 @@
         <v>51</v>
       </c>
       <c r="G19" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H19" s="47">
@@ -6376,10 +6403,10 @@
       <c r="B20" s="49">
         <v>19</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="50">
         <v>59</v>
       </c>
@@ -6387,7 +6414,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H20" s="47">
@@ -6435,10 +6462,10 @@
       <c r="B21" s="52">
         <v>20</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="53">
         <v>56</v>
       </c>
@@ -6446,7 +6473,7 @@
         <v>43</v>
       </c>
       <c r="G21" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H21" s="47">
@@ -6496,10 +6523,10 @@
       <c r="B22" s="75">
         <v>21</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="80"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="70">
         <v>57</v>
       </c>
@@ -6507,7 +6534,7 @@
         <v>43</v>
       </c>
       <c r="G22" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H22" s="47">
@@ -6539,7 +6566,7 @@
         <v>595</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" ref="Q22:Q41" si="5" xml:space="preserve"> (P22-O22+1)/(P22)*100</f>
+        <f t="shared" ref="Q22:Q43" si="4" xml:space="preserve"> (P22-O22+1)/(P22)*100</f>
         <v>98.319327731092429</v>
       </c>
       <c r="R22" s="61" t="s">
@@ -6557,10 +6584,10 @@
       <c r="B23" s="76">
         <v>22</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="72">
         <v>58</v>
       </c>
@@ -6568,7 +6595,7 @@
         <v>44</v>
       </c>
       <c r="G23" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H23" s="47">
@@ -6600,7 +6627,7 @@
         <v>88</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>89.772727272727266</v>
       </c>
       <c r="R23" s="61" t="s">
@@ -6618,10 +6645,10 @@
       <c r="B24" s="76">
         <v>23</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="72">
         <v>64</v>
       </c>
@@ -6629,7 +6656,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H24" s="47">
@@ -6661,7 +6688,7 @@
         <v>52</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>90.384615384615387</v>
       </c>
       <c r="R24" s="61" t="s">
@@ -6679,10 +6706,10 @@
       <c r="B25" s="76">
         <v>24</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="72">
         <v>63</v>
       </c>
@@ -6690,7 +6717,7 @@
         <v>45</v>
       </c>
       <c r="G25" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H25" s="47">
@@ -6722,7 +6749,7 @@
         <v>26</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>92.307692307692307</v>
       </c>
       <c r="R25" s="61" t="s">
@@ -6740,10 +6767,10 @@
       <c r="B26" s="76">
         <v>25</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="82"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="72">
         <v>63</v>
       </c>
@@ -6751,7 +6778,7 @@
         <v>45</v>
       </c>
       <c r="G26" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H26" s="47">
@@ -6783,7 +6810,7 @@
         <v>40</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="R26" s="61" t="s">
@@ -6801,10 +6828,10 @@
       <c r="B27" s="76">
         <v>26</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="82"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="72">
         <v>61</v>
       </c>
@@ -6812,7 +6839,7 @@
         <v>42</v>
       </c>
       <c r="G27" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H27" s="47">
@@ -6844,7 +6871,7 @@
         <v>46</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>84.782608695652172</v>
       </c>
       <c r="R27" s="61" t="s">
@@ -6862,10 +6889,10 @@
       <c r="B28" s="76">
         <v>27</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="88"/>
+      <c r="D28" s="80"/>
       <c r="E28" s="72">
         <v>65</v>
       </c>
@@ -6873,7 +6900,7 @@
         <v>56</v>
       </c>
       <c r="G28" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H28" s="47">
@@ -6905,7 +6932,7 @@
         <v>34</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="R28" s="61" t="s">
@@ -6921,14 +6948,14 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="90"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="72"/>
       <c r="F29" s="73"/>
       <c r="G29" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H29" s="47"/>
@@ -6941,7 +6968,7 @@
       <c r="O29" s="16"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="61"/>
@@ -6957,10 +6984,10 @@
       <c r="B30" s="76">
         <v>29</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="82"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="72">
         <v>63</v>
       </c>
@@ -6968,7 +6995,7 @@
         <v>51</v>
       </c>
       <c r="G30" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H30" s="47">
@@ -7000,7 +7027,7 @@
         <v>122</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>95.081967213114751</v>
       </c>
       <c r="R30" s="61" t="s">
@@ -7018,10 +7045,10 @@
       <c r="B31" s="76">
         <v>30</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="82"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="72">
         <v>55</v>
       </c>
@@ -7029,7 +7056,7 @@
         <v>42</v>
       </c>
       <c r="G31" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H31" s="47">
@@ -7059,7 +7086,7 @@
         <v>243</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>77.777777777777786</v>
       </c>
       <c r="R31" s="1" t="s">
@@ -7077,10 +7104,10 @@
       <c r="B32" s="76">
         <v>31</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="82"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="72">
         <v>52</v>
       </c>
@@ -7088,7 +7115,7 @@
         <v>37</v>
       </c>
       <c r="G32" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H32" s="47">
@@ -7118,7 +7145,7 @@
         <v>203</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.142857142857139</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -7136,10 +7163,10 @@
       <c r="B33" s="76">
         <v>32</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="82"/>
+      <c r="D33" s="79"/>
       <c r="E33" s="72">
         <v>58</v>
       </c>
@@ -7147,7 +7174,7 @@
         <v>47</v>
       </c>
       <c r="G33" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="H33" s="47">
@@ -7177,7 +7204,7 @@
         <v>135</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>89.629629629629619</v>
       </c>
       <c r="R33" s="1" t="s">
@@ -7195,10 +7222,10 @@
       <c r="B34" s="76">
         <v>33</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="82"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="72">
         <v>57</v>
       </c>
@@ -7206,7 +7233,7 @@
         <v>48</v>
       </c>
       <c r="G34" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H34" s="47">
@@ -7236,7 +7263,7 @@
         <v>43</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>97.674418604651152</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -7254,10 +7281,10 @@
       <c r="B35" s="76">
         <v>34</v>
       </c>
-      <c r="C35" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="82"/>
+      <c r="C35" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="79"/>
       <c r="E35" s="72">
         <v>57</v>
       </c>
@@ -7265,6 +7292,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="50">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H35" s="47">
@@ -7294,7 +7322,7 @@
         <v>526</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>79.467680608365015</v>
       </c>
       <c r="R35" s="1" t="s">
@@ -7312,10 +7340,10 @@
       <c r="B36" s="76">
         <v>35</v>
       </c>
-      <c r="C36" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="82"/>
+      <c r="C36" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="79"/>
       <c r="E36" s="72">
         <v>54</v>
       </c>
@@ -7323,6 +7351,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="50">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="H36" s="47">
@@ -7352,7 +7381,7 @@
         <v>119</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>84.033613445378151</v>
       </c>
       <c r="R36" s="1" t="s">
@@ -7363,17 +7392,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="28">
         <v>44937</v>
       </c>
       <c r="B37" s="76">
         <v>36</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="88"/>
+      <c r="D37" s="80"/>
       <c r="E37" s="72">
         <v>62</v>
       </c>
@@ -7381,7 +7410,7 @@
         <v>44</v>
       </c>
       <c r="G37" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="H37" s="47">
@@ -7413,7 +7442,7 @@
         <v>1449</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>95.790200138026222</v>
       </c>
       <c r="R37" s="1" t="s">
@@ -7425,26 +7454,28 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>2</v>
-      </c>
-      <c r="B38" s="28">
+      <c r="A38" s="28">
         <v>44946</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="B38" s="91">
+        <v>37</v>
+      </c>
+      <c r="C38" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="91"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="72">
         <v>58</v>
       </c>
       <c r="F38" s="73">
         <v>44</v>
       </c>
-      <c r="G38" s="74">
+      <c r="G38" s="50">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="H38" s="77">
+      <c r="H38" s="47">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I38" s="16">
@@ -7472,7 +7503,7 @@
         <v>968</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" ref="Q38" si="6" xml:space="preserve"> (P38-O38+1)/(P38)*100</f>
+        <f t="shared" ref="Q38" si="5" xml:space="preserve"> (P38-O38+1)/(P38)*100</f>
         <v>94.318181818181827</v>
       </c>
       <c r="S38" s="3">
@@ -7480,193 +7511,248 @@
         <v>24.320000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="28"/>
-      <c r="B39" s="76">
+    <row r="39" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="28">
+        <v>44948</v>
+      </c>
+      <c r="B39" s="91">
         <v>38</v>
       </c>
-      <c r="C39" s="91" t="s">
+      <c r="C39" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="79"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="47"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="13">
+        <v>60</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="60"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="28">
+        <v>44954</v>
+      </c>
+      <c r="B40" s="76">
+        <v>38</v>
+      </c>
+      <c r="C40" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="91"/>
-      <c r="E39" s="72">
+      <c r="D40" s="81"/>
+      <c r="E40" s="72">
         <v>55</v>
       </c>
-      <c r="F39" s="73">
+      <c r="F40" s="73">
         <v>35</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G40" s="50">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H40" s="47">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I40" s="16">
+        <v>54</v>
+      </c>
+      <c r="J40" s="25">
+        <v>-2.64</v>
+      </c>
+      <c r="K40" s="13">
+        <v>51.36</v>
+      </c>
+      <c r="L40" s="14">
+        <v>31.86</v>
+      </c>
+      <c r="M40" s="64">
+        <v>82.67</v>
+      </c>
+      <c r="N40" s="15">
+        <v>63.64</v>
+      </c>
+      <c r="O40" s="16">
+        <v>58</v>
+      </c>
+      <c r="P40" s="60">
+        <v>560</v>
+      </c>
+      <c r="Q40" s="3">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H39" s="47">
-        <v>10</v>
-      </c>
-      <c r="I39" s="16">
-        <v>54</v>
-      </c>
-      <c r="J39" s="25">
-        <v>-2.64</v>
-      </c>
-      <c r="K39" s="13">
-        <v>51.36</v>
-      </c>
-      <c r="L39" s="14">
-        <v>31.86</v>
-      </c>
-      <c r="M39" s="64">
-        <v>82.67</v>
-      </c>
-      <c r="N39" s="15">
-        <v>63.64</v>
-      </c>
-      <c r="O39" s="16">
-        <v>58</v>
-      </c>
-      <c r="P39" s="60">
-        <v>560</v>
-      </c>
-      <c r="Q39" s="3">
-        <f t="shared" si="5"/>
         <v>89.821428571428569</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S40" s="3">
         <f t="shared" si="1"/>
         <v>31.310000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="76">
+    <row r="41" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="94">
+        <v>44955</v>
+      </c>
+      <c r="B41" s="95">
         <v>39</v>
       </c>
-      <c r="C40" s="91" t="s">
+      <c r="C41" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="93"/>
+      <c r="E41" s="72">
+        <v>59</v>
+      </c>
+      <c r="F41" s="73">
+        <v>58</v>
+      </c>
+      <c r="G41" s="50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="47">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I41" s="16">
+        <v>88</v>
+      </c>
+      <c r="J41" s="25">
+        <v>-0.67</v>
+      </c>
+      <c r="K41" s="13">
+        <v>87.33</v>
+      </c>
+      <c r="L41" s="14"/>
+      <c r="M41" s="64">
+        <v>92.33</v>
+      </c>
+      <c r="N41" s="15">
+        <v>98.3</v>
+      </c>
+      <c r="O41" s="16">
+        <v>2</v>
+      </c>
+      <c r="P41" s="60">
+        <v>492</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="4"/>
+        <v>99.796747967479675</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="76">
+        <v>39</v>
+      </c>
+      <c r="C42" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="50">
+      <c r="D42" s="81"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="47"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="3" t="e">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="47"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="3" t="e">
-        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S42" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="76">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="76">
         <v>40</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C43" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="84"/>
-      <c r="E41" s="72">
-        <f t="shared" ref="E41:O41" si="7">AVERAGE(E2:E40)</f>
-        <v>55.891891891891895</v>
-      </c>
-      <c r="F41" s="73">
-        <f t="shared" si="7"/>
-        <v>41.611111111111114</v>
-      </c>
-      <c r="G41" s="74">
-        <f t="shared" si="7"/>
-        <v>13.692307692307692</v>
-      </c>
-      <c r="H41" s="12">
-        <f t="shared" si="7"/>
-        <v>9.1081081081081088</v>
-      </c>
-      <c r="I41" s="16">
-        <f t="shared" si="7"/>
-        <v>62.054054054054056</v>
-      </c>
-      <c r="J41" s="25">
-        <f t="shared" si="7"/>
-        <v>-2.8975675675675676</v>
-      </c>
-      <c r="K41" s="13">
-        <f t="shared" si="7"/>
-        <v>59.209729729729723</v>
-      </c>
-      <c r="L41" s="14">
-        <f t="shared" si="7"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="72">
+        <f t="shared" ref="E43:O43" si="6">AVERAGE(E2:E42)</f>
+        <v>55.973684210526315</v>
+      </c>
+      <c r="F43" s="73">
+        <f t="shared" si="6"/>
+        <v>42.054054054054056</v>
+      </c>
+      <c r="G43" s="74">
+        <f t="shared" si="6"/>
+        <v>13.048780487804878</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="6"/>
+        <v>9.026315789473685</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="6"/>
+        <v>62.736842105263158</v>
+      </c>
+      <c r="J43" s="25">
+        <f t="shared" si="6"/>
+        <v>-2.8389473684210529</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="6"/>
+        <v>59.95102564102563</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" si="6"/>
         <v>40.569705882352935</v>
       </c>
-      <c r="M41" s="64">
-        <f t="shared" si="7"/>
-        <v>81.875945945945944</v>
-      </c>
-      <c r="N41" s="15">
-        <f t="shared" si="7"/>
-        <v>74.079655172413794</v>
-      </c>
-      <c r="O41" s="16">
-        <f t="shared" si="7"/>
-        <v>103.36111111111111</v>
-      </c>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="3" t="e">
-        <f t="shared" si="5"/>
+      <c r="M43" s="64">
+        <f t="shared" si="6"/>
+        <v>82.151052631578935</v>
+      </c>
+      <c r="N43" s="15">
+        <f t="shared" si="6"/>
+        <v>74.887</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" si="6"/>
+        <v>100.62162162162163</v>
+      </c>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="3" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S41" s="3">
-        <f>AVERAGE(S2:S40)</f>
-        <v>21.503846153846155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="3">
-        <f>AVERAGE(Q2:Q4)</f>
-        <v>54.17962902438336</v>
-      </c>
-      <c r="S42" s="78"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B43" s="3"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
+      <c r="S43" s="3">
+        <f>AVERAGE(S2:S42)</f>
+        <v>21.091250000000002</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
       <c r="E44" s="17"/>
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
@@ -7679,8 +7765,14 @@
       <c r="N44" s="23"/>
       <c r="O44" s="24"/>
       <c r="P44" s="24"/>
+      <c r="Q44" s="3">
+        <f>AVERAGE(Q2:Q4)</f>
+        <v>54.17962902438336</v>
+      </c>
+      <c r="S44" s="77"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
       <c r="E45" s="17"/>
       <c r="F45" s="18"/>
       <c r="G45" s="19"/>
@@ -7722,25 +7814,46 @@
       <c r="O47" s="24"/>
       <c r="P47" s="24"/>
     </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E49" s="17"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C41:D41"/>
+  <mergeCells count="43">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -7756,15 +7869,24 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="L2:L14">
@@ -7987,7 +8109,7 @@
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q37 Q39:Q1048576">
+  <conditionalFormatting sqref="Q40:Q1048576 Q1:Q37">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -7999,7 +8121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M26 M29:M37 M39:M1048576">
+  <conditionalFormatting sqref="M40:M1048576 M1:M26 M29:M37">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -8177,7 +8299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O37 O39:O1048576">
+  <conditionalFormatting sqref="O1:O37 O40:O1048576">
     <cfRule type="cellIs" dxfId="7" priority="15" operator="between">
       <formula>1</formula>
       <formula>10</formula>
@@ -8195,7 +8317,7 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K40 K37">
+  <conditionalFormatting sqref="K40:K42 K37">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -8207,7 +8329,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37 N39:N40">
+  <conditionalFormatting sqref="N37 N40:N42">
     <cfRule type="iconSet" priority="124">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -8216,7 +8338,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I40 I37">
+  <conditionalFormatting sqref="I40:I42 I37">
     <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="min"/>
@@ -8230,7 +8352,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37 J39:J40">
+  <conditionalFormatting sqref="J37 J40:J42">
     <cfRule type="iconSet" priority="128">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -8239,7 +8361,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F40 F37">
+  <conditionalFormatting sqref="F40:F42 F37">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -8254,7 +8376,7 @@
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L39:L40 L37">
+  <conditionalFormatting sqref="L40:L42 L37">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -8278,10 +8400,10 @@
       </colorScale>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="137" operator="greaterThan">
-      <formula>$F$41</formula>
+      <formula>$F$43</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S42">
+  <conditionalFormatting sqref="S2:S44">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
@@ -8293,7 +8415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F37 F39:F40">
+  <conditionalFormatting sqref="F2:F37 F40:F42">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -8305,7 +8427,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K38:K39">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8317,7 +8439,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38">
+  <conditionalFormatting sqref="N38:N39">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -8326,7 +8448,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="I38:I39">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -8340,7 +8462,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
+  <conditionalFormatting sqref="J38:J39">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -8349,7 +8471,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="F38:F39">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8364,7 +8486,7 @@
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
+  <conditionalFormatting sqref="M38:M39">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -8376,7 +8498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
+  <conditionalFormatting sqref="L38:L39">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -8388,12 +8510,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T38">
+  <conditionalFormatting sqref="T38:T39">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q38">
+  <conditionalFormatting sqref="Q38:Q39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8475,7 +8597,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I39:I40 I37</xm:sqref>
+          <xm:sqref>I40:I42 I37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DAFFC55D-F1B0-4A17-B215-EFA424A9991B}">
@@ -8486,7 +8608,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I38</xm:sqref>
+          <xm:sqref>I38:I39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/My Marks Tracker.xlsx
+++ b/My Marks Tracker.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GATE 2022 &amp; 2023\My Progress trackers &amp; Journey - In Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44783A20-0CFE-43A5-B7E3-D62773E80846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BDA340-104F-4742-BB72-72D5D9753B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3209D17C-0F5C-4895-BA2D-FBE4C1879A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
   <si>
     <t>Test Name</t>
   </si>
@@ -214,6 +215,9 @@
   </si>
   <si>
     <t>GO CLASSES MOCK - 9 AIMT - 3</t>
+  </si>
+  <si>
+    <t>THE GATE 2023</t>
   </si>
 </sst>
 </file>
@@ -752,6 +756,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,6 +769,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -789,21 +802,97 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5258,7 +5347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5268,8 +5357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08F6CAB-EED7-4179-B275-45A8F5F85EF1}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5301,10 +5390,10 @@
       <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="86"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
@@ -5356,10 +5445,10 @@
       <c r="B2" s="46">
         <v>1</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="47">
         <v>41</v>
       </c>
@@ -5415,10 +5504,10 @@
       <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="50">
         <v>40</v>
       </c>
@@ -5474,10 +5563,10 @@
       <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="50">
         <v>51</v>
       </c>
@@ -5489,7 +5578,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="47">
-        <f t="shared" ref="H4:H42" si="3">65-E4</f>
+        <f t="shared" ref="H4:H41" si="3">65-E4</f>
         <v>14</v>
       </c>
       <c r="I4" s="50">
@@ -5533,10 +5622,10 @@
       <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="50">
         <v>51</v>
       </c>
@@ -5583,10 +5672,10 @@
       <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="50">
         <v>47</v>
       </c>
@@ -5642,10 +5731,10 @@
       <c r="B7" s="49">
         <v>6</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="85"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="50">
         <v>51</v>
       </c>
@@ -5701,10 +5790,10 @@
       <c r="B8" s="49">
         <v>7</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="85"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="50">
         <v>52</v>
       </c>
@@ -5760,10 +5849,10 @@
       <c r="B9" s="49">
         <v>8</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="85"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="50">
         <v>55</v>
       </c>
@@ -5819,10 +5908,10 @@
       <c r="B10" s="49">
         <v>9</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="50">
         <v>58</v>
       </c>
@@ -5878,10 +5967,10 @@
       <c r="B11" s="49">
         <v>10</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="50">
         <v>60</v>
       </c>
@@ -5937,10 +6026,10 @@
       <c r="B12" s="49">
         <v>11</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="85"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="50">
         <v>56</v>
       </c>
@@ -5996,10 +6085,10 @@
       <c r="B13" s="49">
         <v>12</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="85"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="50">
         <v>56</v>
       </c>
@@ -6055,10 +6144,10 @@
       <c r="B14" s="49">
         <v>13</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="85"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="50">
         <v>56</v>
       </c>
@@ -6114,10 +6203,10 @@
       <c r="B15" s="49">
         <v>14</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="85"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="50">
         <v>50</v>
       </c>
@@ -6171,10 +6260,10 @@
       <c r="B16" s="49">
         <v>15</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="50">
         <v>56</v>
       </c>
@@ -6228,10 +6317,10 @@
       <c r="B17" s="49">
         <v>16</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="85"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="50">
         <v>53</v>
       </c>
@@ -6285,10 +6374,10 @@
       <c r="B18" s="49">
         <v>17</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="85"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="50">
         <v>58</v>
       </c>
@@ -6344,10 +6433,10 @@
       <c r="B19" s="49">
         <v>18</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="85"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="50">
         <v>60</v>
       </c>
@@ -6403,10 +6492,10 @@
       <c r="B20" s="49">
         <v>19</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="85"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="50">
         <v>59</v>
       </c>
@@ -6462,10 +6551,10 @@
       <c r="B21" s="52">
         <v>20</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="88"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="53">
         <v>56</v>
       </c>
@@ -6523,10 +6612,10 @@
       <c r="B22" s="75">
         <v>21</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="70">
         <v>57</v>
       </c>
@@ -6584,10 +6673,10 @@
       <c r="B23" s="76">
         <v>22</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="72">
         <v>58</v>
       </c>
@@ -6645,10 +6734,10 @@
       <c r="B24" s="76">
         <v>23</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="72">
         <v>64</v>
       </c>
@@ -6706,10 +6795,10 @@
       <c r="B25" s="76">
         <v>24</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="79"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="72">
         <v>63</v>
       </c>
@@ -6767,10 +6856,10 @@
       <c r="B26" s="76">
         <v>25</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="79"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="72">
         <v>63</v>
       </c>
@@ -6828,10 +6917,10 @@
       <c r="B27" s="76">
         <v>26</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="79"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="72">
         <v>61</v>
       </c>
@@ -6889,10 +6978,10 @@
       <c r="B28" s="76">
         <v>27</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="80"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="72">
         <v>65</v>
       </c>
@@ -6948,10 +7037,10 @@
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="83"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="72"/>
       <c r="F29" s="73"/>
       <c r="G29" s="50">
@@ -6984,10 +7073,10 @@
       <c r="B30" s="76">
         <v>29</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="72">
         <v>63</v>
       </c>
@@ -7045,10 +7134,10 @@
       <c r="B31" s="76">
         <v>30</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="79"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="72">
         <v>55</v>
       </c>
@@ -7104,10 +7193,10 @@
       <c r="B32" s="76">
         <v>31</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="79"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="72">
         <v>52</v>
       </c>
@@ -7163,10 +7252,10 @@
       <c r="B33" s="76">
         <v>32</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="79"/>
+      <c r="D33" s="82"/>
       <c r="E33" s="72">
         <v>58</v>
       </c>
@@ -7222,10 +7311,10 @@
       <c r="B34" s="76">
         <v>33</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="79"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="72">
         <v>57</v>
       </c>
@@ -7281,10 +7370,10 @@
       <c r="B35" s="76">
         <v>34</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="79"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="72">
         <v>57</v>
       </c>
@@ -7340,10 +7429,10 @@
       <c r="B36" s="76">
         <v>35</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="79"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="72">
         <v>54</v>
       </c>
@@ -7399,10 +7488,10 @@
       <c r="B37" s="76">
         <v>36</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="80"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="72">
         <v>62</v>
       </c>
@@ -7457,13 +7546,13 @@
       <c r="A38" s="28">
         <v>44946</v>
       </c>
-      <c r="B38" s="91">
+      <c r="B38" s="78">
         <v>37</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="81"/>
+      <c r="D38" s="84"/>
       <c r="E38" s="72">
         <v>58</v>
       </c>
@@ -7515,13 +7604,13 @@
       <c r="A39" s="28">
         <v>44948</v>
       </c>
-      <c r="B39" s="91">
+      <c r="B39" s="78">
         <v>38</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="79"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="72"/>
       <c r="F39" s="73"/>
       <c r="G39" s="50">
@@ -7548,10 +7637,10 @@
       <c r="B40" s="76">
         <v>38</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="81"/>
+      <c r="D40" s="84"/>
       <c r="E40" s="72">
         <v>55</v>
       </c>
@@ -7600,16 +7689,16 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="94">
+      <c r="A41" s="79">
         <v>44955</v>
       </c>
-      <c r="B41" s="95">
+      <c r="B41" s="80">
         <v>39</v>
       </c>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="93"/>
+      <c r="D41" s="86"/>
       <c r="E41" s="72">
         <v>59</v>
       </c>
@@ -7660,10 +7749,10 @@
       <c r="B42" s="76">
         <v>39</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="81"/>
+      <c r="D42" s="84"/>
       <c r="E42" s="72"/>
       <c r="F42" s="73"/>
       <c r="G42" s="50">
@@ -7693,10 +7782,10 @@
       <c r="B43" s="76">
         <v>40</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="84"/>
+      <c r="D43" s="89"/>
       <c r="E43" s="72">
         <f t="shared" ref="E43:O43" si="6">AVERAGE(E2:E42)</f>
         <v>55.973684210526315</v>
@@ -7753,6 +7842,9 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E44" s="17"/>
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
@@ -7968,17 +8060,17 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="104" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="104" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R37">
-    <cfRule type="cellIs" dxfId="12" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="82" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R37">
-    <cfRule type="cellIs" dxfId="11" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="81" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8105,7 +8197,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="118" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8200,7 +8292,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="120" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8283,7 +8375,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8300,19 +8392,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O37 O40:O1048576">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="between">
       <formula>1</formula>
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="34" operator="between">
       <formula>10</formula>
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="56" operator="between">
       <formula>21</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="83" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="83" operator="between">
       <formula>31</formula>
       <formula>50</formula>
     </cfRule>
@@ -8372,7 +8464,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="131" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="131" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8399,7 +8491,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="137" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="137" operator="greaterThan">
       <formula>$F$43</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8482,7 +8574,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>$G$24</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8511,7 +8603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:T39">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8614,4 +8706,2613 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99656C5D-C133-4DAE-AF24-A8DD1CE7ABB3}">
+  <dimension ref="A1:S44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="91"/>
+      <c r="E1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49">
+        <v>12</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="90"/>
+      <c r="E13" s="50">
+        <v>56</v>
+      </c>
+      <c r="F13" s="50">
+        <v>45</v>
+      </c>
+      <c r="G13" s="50">
+        <f t="shared" ref="G13:G42" si="0">E13-F13</f>
+        <v>11</v>
+      </c>
+      <c r="H13" s="47">
+        <f t="shared" ref="H13:H41" si="1">65-E13</f>
+        <v>9</v>
+      </c>
+      <c r="I13" s="50">
+        <v>68</v>
+      </c>
+      <c r="J13" s="50">
+        <v>-3.3</v>
+      </c>
+      <c r="K13" s="50">
+        <v>64.7</v>
+      </c>
+      <c r="L13" s="50">
+        <v>52.6</v>
+      </c>
+      <c r="M13" s="64">
+        <v>89.34</v>
+      </c>
+      <c r="N13" s="50">
+        <v>80.36</v>
+      </c>
+      <c r="O13" s="50">
+        <v>141</v>
+      </c>
+      <c r="P13" s="57">
+        <v>437</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" ref="Q13:Q43" si="2" xml:space="preserve"> (P13-O13+1)/(P13)*100</f>
+        <v>67.963386727688786</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" ref="S13:S42" si="3">M13-K13</f>
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49">
+        <v>13</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="90"/>
+      <c r="E14" s="50">
+        <v>56</v>
+      </c>
+      <c r="F14" s="50">
+        <v>43</v>
+      </c>
+      <c r="G14" s="50">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H14" s="47">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I14" s="50">
+        <v>63</v>
+      </c>
+      <c r="J14" s="50">
+        <v>-2.64</v>
+      </c>
+      <c r="K14" s="50">
+        <v>60.36</v>
+      </c>
+      <c r="L14" s="50">
+        <v>46.4</v>
+      </c>
+      <c r="M14" s="64">
+        <v>84.35</v>
+      </c>
+      <c r="N14" s="50">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="O14" s="50">
+        <v>114</v>
+      </c>
+      <c r="P14" s="57">
+        <v>402</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="2"/>
+        <v>71.890547263681597</v>
+      </c>
+      <c r="R14" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="3"/>
+        <v>23.989999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49">
+        <v>14</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="50">
+        <v>50</v>
+      </c>
+      <c r="F15" s="50">
+        <v>40</v>
+      </c>
+      <c r="G15" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="47">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I15" s="50">
+        <v>65</v>
+      </c>
+      <c r="J15" s="50">
+        <v>-3</v>
+      </c>
+      <c r="K15" s="50">
+        <v>62</v>
+      </c>
+      <c r="L15" s="50">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="M15" s="64">
+        <v>78.81</v>
+      </c>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50">
+        <v>139</v>
+      </c>
+      <c r="P15" s="57">
+        <v>100000</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="2"/>
+        <v>99.861999999999995</v>
+      </c>
+      <c r="R15" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="3"/>
+        <v>16.810000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49">
+        <v>15</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="90"/>
+      <c r="E16" s="50">
+        <v>56</v>
+      </c>
+      <c r="F16" s="50">
+        <v>50</v>
+      </c>
+      <c r="G16" s="50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H16" s="47">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I16" s="50">
+        <v>71</v>
+      </c>
+      <c r="J16" s="50">
+        <v>-1.33</v>
+      </c>
+      <c r="K16" s="50">
+        <v>69.66</v>
+      </c>
+      <c r="L16" s="50">
+        <v>47.81</v>
+      </c>
+      <c r="M16" s="64">
+        <v>83.09</v>
+      </c>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50">
+        <v>170</v>
+      </c>
+      <c r="P16" s="57">
+        <v>100000</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="2"/>
+        <v>99.831000000000003</v>
+      </c>
+      <c r="R16" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="3"/>
+        <v>13.430000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49">
+        <v>16</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="90"/>
+      <c r="E17" s="50">
+        <v>53</v>
+      </c>
+      <c r="F17" s="50">
+        <v>43</v>
+      </c>
+      <c r="G17" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H17" s="47">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I17" s="50">
+        <v>64</v>
+      </c>
+      <c r="J17" s="50">
+        <v>-1.67</v>
+      </c>
+      <c r="K17" s="50">
+        <v>62.33</v>
+      </c>
+      <c r="L17" s="50">
+        <v>43.84</v>
+      </c>
+      <c r="M17" s="64">
+        <v>82.46</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50">
+        <v>201</v>
+      </c>
+      <c r="P17" s="57">
+        <v>150000</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="2"/>
+        <v>99.866666666666674</v>
+      </c>
+      <c r="R17" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="3"/>
+        <v>20.129999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49">
+        <v>18</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="50">
+        <v>60</v>
+      </c>
+      <c r="F19" s="50">
+        <v>51</v>
+      </c>
+      <c r="G19" s="50">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H19" s="47">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I19" s="50">
+        <v>79</v>
+      </c>
+      <c r="J19" s="50">
+        <v>-1.32</v>
+      </c>
+      <c r="K19" s="50">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="L19" s="50">
+        <v>49.92</v>
+      </c>
+      <c r="M19" s="64">
+        <v>86.68</v>
+      </c>
+      <c r="N19" s="50">
+        <v>85</v>
+      </c>
+      <c r="O19" s="50">
+        <v>31</v>
+      </c>
+      <c r="P19" s="57">
+        <v>1315</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="2"/>
+        <v>97.718631178707227</v>
+      </c>
+      <c r="R19" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49">
+        <v>19</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="90"/>
+      <c r="E20" s="50">
+        <v>59</v>
+      </c>
+      <c r="F20" s="50">
+        <v>44</v>
+      </c>
+      <c r="G20" s="50">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H20" s="47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="50">
+        <v>67</v>
+      </c>
+      <c r="J20" s="50">
+        <v>-2.64</v>
+      </c>
+      <c r="K20" s="50">
+        <v>64.36</v>
+      </c>
+      <c r="L20" s="50">
+        <v>46.71</v>
+      </c>
+      <c r="M20" s="64">
+        <v>83</v>
+      </c>
+      <c r="N20" s="50">
+        <v>74.58</v>
+      </c>
+      <c r="O20" s="50">
+        <v>137</v>
+      </c>
+      <c r="P20" s="57">
+        <v>865</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="2"/>
+        <v>84.277456647398836</v>
+      </c>
+      <c r="R20" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="3"/>
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="51"/>
+      <c r="B21" s="52">
+        <v>20</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="93"/>
+      <c r="E21" s="53">
+        <v>56</v>
+      </c>
+      <c r="F21" s="53">
+        <v>43</v>
+      </c>
+      <c r="G21" s="50">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H21" s="47">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I21" s="53">
+        <v>64</v>
+      </c>
+      <c r="J21" s="53">
+        <v>-3.3</v>
+      </c>
+      <c r="K21" s="53">
+        <v>60.7</v>
+      </c>
+      <c r="L21" s="53">
+        <v>41.19</v>
+      </c>
+      <c r="M21" s="65">
+        <v>82.02</v>
+      </c>
+      <c r="N21" s="53">
+        <v>76.790000000000006</v>
+      </c>
+      <c r="O21" s="53">
+        <v>120</v>
+      </c>
+      <c r="P21" s="58">
+        <v>826</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="2"/>
+        <v>85.593220338983059</v>
+      </c>
+      <c r="R21" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="3"/>
+        <v>21.319999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="39">
+        <v>44808</v>
+      </c>
+      <c r="B22" s="75">
+        <v>21</v>
+      </c>
+      <c r="C22" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="95"/>
+      <c r="E22" s="70">
+        <v>57</v>
+      </c>
+      <c r="F22" s="71">
+        <v>43</v>
+      </c>
+      <c r="G22" s="50">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H22" s="47">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I22" s="40">
+        <v>64</v>
+      </c>
+      <c r="J22" s="41">
+        <v>-3.96</v>
+      </c>
+      <c r="K22" s="42">
+        <v>60.04</v>
+      </c>
+      <c r="L22" s="43">
+        <v>9.25</v>
+      </c>
+      <c r="M22" s="66">
+        <v>76.36</v>
+      </c>
+      <c r="N22" s="44">
+        <v>75.44</v>
+      </c>
+      <c r="O22" s="40">
+        <v>11</v>
+      </c>
+      <c r="P22" s="59">
+        <v>595</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="2"/>
+        <v>98.319327731092429</v>
+      </c>
+      <c r="R22" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="3"/>
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28">
+        <v>44816</v>
+      </c>
+      <c r="B23" s="76">
+        <v>22</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="72">
+        <v>58</v>
+      </c>
+      <c r="F23" s="73">
+        <v>44</v>
+      </c>
+      <c r="G23" s="50">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H23" s="47">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I23" s="16">
+        <v>66</v>
+      </c>
+      <c r="J23" s="25">
+        <v>-1.65</v>
+      </c>
+      <c r="K23" s="13">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="L23" s="14">
+        <v>30.77</v>
+      </c>
+      <c r="M23" s="64">
+        <v>73.34</v>
+      </c>
+      <c r="N23" s="15">
+        <v>75.86</v>
+      </c>
+      <c r="O23" s="16">
+        <v>10</v>
+      </c>
+      <c r="P23" s="60">
+        <v>88</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="2"/>
+        <v>89.772727272727266</v>
+      </c>
+      <c r="R23" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="3"/>
+        <v>8.9900000000000091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="28">
+        <v>44822</v>
+      </c>
+      <c r="B24" s="76">
+        <v>23</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="72">
+        <v>64</v>
+      </c>
+      <c r="F24" s="73">
+        <v>46</v>
+      </c>
+      <c r="G24" s="50">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H24" s="47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
+        <v>71</v>
+      </c>
+      <c r="J24" s="25">
+        <v>-2.97</v>
+      </c>
+      <c r="K24" s="13">
+        <v>68.03</v>
+      </c>
+      <c r="L24" s="14">
+        <v>26.27</v>
+      </c>
+      <c r="M24" s="64">
+        <v>77.680000000000007</v>
+      </c>
+      <c r="N24" s="15">
+        <v>71.88</v>
+      </c>
+      <c r="O24" s="16">
+        <v>6</v>
+      </c>
+      <c r="P24" s="60">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="2"/>
+        <v>90.384615384615387</v>
+      </c>
+      <c r="R24" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="3"/>
+        <v>9.6500000000000057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28">
+        <v>44857</v>
+      </c>
+      <c r="B25" s="76">
+        <v>24</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="82"/>
+      <c r="E25" s="72">
+        <v>63</v>
+      </c>
+      <c r="F25" s="73">
+        <v>45</v>
+      </c>
+      <c r="G25" s="50">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H25" s="47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="16">
+        <v>65</v>
+      </c>
+      <c r="J25" s="25">
+        <v>-3.3</v>
+      </c>
+      <c r="K25" s="13">
+        <v>61.7</v>
+      </c>
+      <c r="L25" s="14">
+        <v>35.83</v>
+      </c>
+      <c r="M25" s="64">
+        <v>62.03</v>
+      </c>
+      <c r="N25" s="15">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="O25" s="16">
+        <v>3</v>
+      </c>
+      <c r="P25" s="60">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="2"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="R25" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.32999999999999829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28">
+        <v>44871</v>
+      </c>
+      <c r="B26" s="76">
+        <v>25</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="72">
+        <v>63</v>
+      </c>
+      <c r="F26" s="73">
+        <v>45</v>
+      </c>
+      <c r="G26" s="50">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H26" s="47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="16">
+        <v>69</v>
+      </c>
+      <c r="J26" s="25">
+        <v>-2.64</v>
+      </c>
+      <c r="K26" s="13">
+        <v>66.36</v>
+      </c>
+      <c r="L26" s="14">
+        <v>47.2</v>
+      </c>
+      <c r="M26" s="64">
+        <v>75.02</v>
+      </c>
+      <c r="N26" s="15">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="O26" s="16">
+        <v>7</v>
+      </c>
+      <c r="P26" s="60">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="R26" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="3"/>
+        <v>8.6599999999999966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28">
+        <v>44874</v>
+      </c>
+      <c r="B27" s="76">
+        <v>26</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="82"/>
+      <c r="E27" s="72">
+        <v>61</v>
+      </c>
+      <c r="F27" s="73">
+        <v>42</v>
+      </c>
+      <c r="G27" s="50">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H27" s="47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="16">
+        <v>62</v>
+      </c>
+      <c r="J27" s="25">
+        <v>-0.99</v>
+      </c>
+      <c r="K27" s="13">
+        <v>61.01</v>
+      </c>
+      <c r="L27" s="14">
+        <v>44.62</v>
+      </c>
+      <c r="M27" s="14">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="N27" s="15">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="O27" s="16">
+        <v>8</v>
+      </c>
+      <c r="P27" s="16">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="2"/>
+        <v>84.782608695652172</v>
+      </c>
+      <c r="R27" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="3"/>
+        <v>14.000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28">
+        <v>44878</v>
+      </c>
+      <c r="B28" s="76">
+        <v>27</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="83"/>
+      <c r="E28" s="72">
+        <v>65</v>
+      </c>
+      <c r="F28" s="73">
+        <v>56</v>
+      </c>
+      <c r="G28" s="50">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H28" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>85</v>
+      </c>
+      <c r="J28" s="25">
+        <v>-1.65</v>
+      </c>
+      <c r="K28" s="13">
+        <v>83.35</v>
+      </c>
+      <c r="L28" s="14">
+        <v>45.78</v>
+      </c>
+      <c r="M28" s="14">
+        <v>83.35</v>
+      </c>
+      <c r="N28" s="15">
+        <v>86.15</v>
+      </c>
+      <c r="O28" s="16">
+        <v>1</v>
+      </c>
+      <c r="P28" s="16">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R28" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="88"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="47"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" s="61"/>
+      <c r="S29" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28">
+        <v>44881</v>
+      </c>
+      <c r="B30" s="76">
+        <v>29</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="82"/>
+      <c r="E30" s="72">
+        <v>63</v>
+      </c>
+      <c r="F30" s="73">
+        <v>51</v>
+      </c>
+      <c r="G30" s="50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H30" s="47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I30" s="16">
+        <v>77</v>
+      </c>
+      <c r="J30" s="25">
+        <v>-2.31</v>
+      </c>
+      <c r="K30" s="13">
+        <v>74.69</v>
+      </c>
+      <c r="L30" s="14">
+        <v>45.83</v>
+      </c>
+      <c r="M30" s="64">
+        <v>86</v>
+      </c>
+      <c r="N30" s="15">
+        <v>80.95</v>
+      </c>
+      <c r="O30" s="16">
+        <v>7</v>
+      </c>
+      <c r="P30" s="60">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="2"/>
+        <v>95.081967213114751</v>
+      </c>
+      <c r="R30" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="3"/>
+        <v>11.310000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="28"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="28">
+        <v>44925</v>
+      </c>
+      <c r="B33" s="76">
+        <v>32</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="82"/>
+      <c r="E33" s="72">
+        <v>58</v>
+      </c>
+      <c r="F33" s="73">
+        <v>47</v>
+      </c>
+      <c r="G33" s="50">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H33" s="47">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I33" s="16">
+        <v>71</v>
+      </c>
+      <c r="J33" s="25">
+        <v>-2.33</v>
+      </c>
+      <c r="K33" s="13">
+        <v>68.66</v>
+      </c>
+      <c r="L33" s="14">
+        <v>44.97</v>
+      </c>
+      <c r="M33" s="64">
+        <v>82.33</v>
+      </c>
+      <c r="N33" s="15"/>
+      <c r="O33" s="16">
+        <v>15</v>
+      </c>
+      <c r="P33" s="60">
+        <v>135</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="2"/>
+        <v>89.629629629629619</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="3"/>
+        <v>13.670000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28">
+        <v>44928</v>
+      </c>
+      <c r="B34" s="76">
+        <v>33</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="E34" s="72">
+        <v>57</v>
+      </c>
+      <c r="F34" s="73">
+        <v>48</v>
+      </c>
+      <c r="G34" s="50">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H34" s="47">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I34" s="16">
+        <v>73</v>
+      </c>
+      <c r="J34" s="25">
+        <v>-2.33</v>
+      </c>
+      <c r="K34" s="13">
+        <v>70.66</v>
+      </c>
+      <c r="L34" s="14">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="M34" s="64">
+        <v>71.33</v>
+      </c>
+      <c r="N34" s="15"/>
+      <c r="O34" s="16">
+        <v>2</v>
+      </c>
+      <c r="P34" s="60">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="2"/>
+        <v>97.674418604651152</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.67000000000000171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="28"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="28"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="28">
+        <v>44937</v>
+      </c>
+      <c r="B37" s="76">
+        <v>36</v>
+      </c>
+      <c r="C37" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="83"/>
+      <c r="E37" s="72">
+        <v>62</v>
+      </c>
+      <c r="F37" s="73">
+        <v>44</v>
+      </c>
+      <c r="G37" s="50">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H37" s="47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I37" s="16">
+        <v>67</v>
+      </c>
+      <c r="J37" s="25">
+        <v>-2.97</v>
+      </c>
+      <c r="K37" s="13">
+        <v>62.03</v>
+      </c>
+      <c r="L37" s="14">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="M37" s="64">
+        <v>70.36</v>
+      </c>
+      <c r="N37" s="15">
+        <v>70.97</v>
+      </c>
+      <c r="O37" s="16">
+        <v>62</v>
+      </c>
+      <c r="P37" s="60">
+        <v>1449</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="2"/>
+        <v>95.790200138026222</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3299999999999983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="28">
+        <v>44946</v>
+      </c>
+      <c r="B38" s="78">
+        <v>37</v>
+      </c>
+      <c r="C38" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="84"/>
+      <c r="E38" s="72">
+        <v>58</v>
+      </c>
+      <c r="F38" s="73">
+        <v>44</v>
+      </c>
+      <c r="G38" s="50">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H38" s="47">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I38" s="16">
+        <v>67</v>
+      </c>
+      <c r="J38" s="25">
+        <v>-1.98</v>
+      </c>
+      <c r="K38" s="13">
+        <v>65.02</v>
+      </c>
+      <c r="L38" s="14">
+        <v>41.29</v>
+      </c>
+      <c r="M38" s="14">
+        <v>89.34</v>
+      </c>
+      <c r="N38" s="15">
+        <v>75.86</v>
+      </c>
+      <c r="O38" s="16">
+        <v>56</v>
+      </c>
+      <c r="P38" s="16">
+        <v>968</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="2"/>
+        <v>94.318181818181827</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="3"/>
+        <v>24.320000000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="28">
+        <v>44948</v>
+      </c>
+      <c r="B39" s="78">
+        <v>38</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="82"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="47"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="13">
+        <v>60</v>
+      </c>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="79">
+        <v>44955</v>
+      </c>
+      <c r="B41" s="80">
+        <v>39</v>
+      </c>
+      <c r="C41" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="86"/>
+      <c r="E41" s="72">
+        <v>59</v>
+      </c>
+      <c r="F41" s="73">
+        <v>58</v>
+      </c>
+      <c r="G41" s="50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I41" s="16">
+        <v>88</v>
+      </c>
+      <c r="J41" s="25">
+        <v>-0.67</v>
+      </c>
+      <c r="K41" s="13">
+        <v>87.33</v>
+      </c>
+      <c r="L41" s="14"/>
+      <c r="M41" s="64">
+        <v>92.33</v>
+      </c>
+      <c r="N41" s="15">
+        <v>98.3</v>
+      </c>
+      <c r="O41" s="16">
+        <v>2</v>
+      </c>
+      <c r="P41" s="60">
+        <v>492</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="2"/>
+        <v>99.796747967479675</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="76">
+        <v>39</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="84"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="47"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="76">
+        <v>40</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="89"/>
+      <c r="E43" s="72">
+        <f t="shared" ref="E43:O43" si="4">AVERAGE(E2:E42)</f>
+        <v>58.761904761904759</v>
+      </c>
+      <c r="F43" s="73">
+        <f t="shared" si="4"/>
+        <v>46.285714285714285</v>
+      </c>
+      <c r="G43" s="74">
+        <f t="shared" si="4"/>
+        <v>10.916666666666666</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="4"/>
+        <v>6.2380952380952381</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" si="4"/>
+        <v>69.80952380952381</v>
+      </c>
+      <c r="J43" s="25">
+        <f t="shared" si="4"/>
+        <v>-2.3309523809523807</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="4"/>
+        <v>67.046363636363651</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" si="4"/>
+        <v>41.071999999999996</v>
+      </c>
+      <c r="M43" s="64">
+        <f t="shared" si="4"/>
+        <v>80.201428571428551</v>
+      </c>
+      <c r="N43" s="15">
+        <f t="shared" si="4"/>
+        <v>77.540000000000006</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" si="4"/>
+        <v>59.19047619047619</v>
+      </c>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S43" s="3">
+        <f>AVERAGE(S2:S42)</f>
+        <v>11.704782608695652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B44" s="3"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="3" t="e">
+        <f>AVERAGE(Q2:Q4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L2:L14">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:L24 L26 L29:L36">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:K24 K26 K29:K36">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:N24 N26 N29:N36">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I24 I26 I29:I36">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9534FC55-D58A-4107-B4DF-34D1F78E0034}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J24 J26 J29:J36">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F24 F26 F29:F36">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R37">
+    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R37">
+    <cfRule type="cellIs" dxfId="8" priority="32" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K21">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N21">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I21">
+    <cfRule type="dataBar" priority="44">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{10DE1B4F-1AAE-4280-828C-30E075D9F0A7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J21">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L21">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4C4BF4E5-0304-4061-AD38-B7985A97AF83}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q40:Q44 Q1:Q37">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:M44 M1:M26 M29:M37">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F7619EF-633D-4710-BE42-B9EBAF86936F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{65136A26-3BEF-4FCB-96BC-BD31F332FF85}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O37 O40:O44">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="between">
+      <formula>1</formula>
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="20" operator="between">
+      <formula>10</formula>
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="27" operator="between">
+      <formula>21</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="34" operator="between">
+      <formula>31</formula>
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40:K42 K37">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37 N40:N42">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40:I42 I37">
+    <cfRule type="dataBar" priority="54">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6902F5BB-9226-4C01-97ED-E01B291ACBAD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37 J40:J42">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:F42 F37">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="57" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40:L42 L37">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F21">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="greaterThan">
+      <formula>$F$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S44">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F37 F40:F42">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:K39">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:N39">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{03EAC530-033E-4AE1-9510-9E8420798524}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:J39">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F39">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+      <formula>$G$24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:M39">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38:L39">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q38:Q39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9534FC55-D58A-4107-B4DF-34D1F78E0034}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I22:I24 I26 I29:I36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{10DE1B4F-1AAE-4280-828C-30E075D9F0A7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I2:I21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4C4BF4E5-0304-4061-AD38-B7985A97AF83}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F7619EF-633D-4710-BE42-B9EBAF86936F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65136A26-3BEF-4FCB-96BC-BD31F332FF85}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6902F5BB-9226-4C01-97ED-E01B291ACBAD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I40:I42 I37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{03EAC530-033E-4AE1-9510-9E8420798524}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I38:I39</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>